--- a/_Lang_Korean/Lang/KR/Game/General.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/General.xlsx
@@ -7789,7 +7789,7 @@
     <t xml:space="preserve">rewardFarris</t>
   </si>
   <si>
-    <t xml:space="preserve">소리꾼의 차가운 시선 x1</t>
+    <t xml:space="preserve">노래꾼의 차가운 시선 x1</t>
   </si>
   <si>
     <t xml:space="preserve">icy stares of the talesinger x1</t>
@@ -27289,7 +27289,7 @@
       <selection pane="bottomLeft" activeCell="D673" activeCellId="0" sqref="D673"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.73828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="14.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.76"/>

--- a/_Lang_Korean/Lang/KR/Game/General.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/General.xlsx
@@ -12289,7 +12289,7 @@
     <t xml:space="preserve">hintDOT</t>
   </si>
   <si>
-    <t xml:space="preserve">#1의#2의 독기</t>
+    <t xml:space="preserve">#1의 #2의 독기</t>
   </si>
   <si>
     <t xml:space="preserve">Suffer a #1 #2 miasma</t>
@@ -27284,12 +27284,12 @@
   <dimension ref="A1:F2421"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A1833" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D673" activeCellId="0" sqref="D673"/>
+      <selection pane="bottomLeft" activeCell="D1851" activeCellId="0" sqref="D1851"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="14.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.76"/>
@@ -63377,7 +63377,7 @@
         <v>7</v>
       </c>
       <c r="D1850" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1850" s="0" t="s">
         <v>82</v>
@@ -63394,7 +63394,7 @@
         <v>156</v>
       </c>
       <c r="D1851" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1851" s="0" t="s">
         <v>23</v>

--- a/_Lang_Korean/Lang/KR/Game/General.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/General.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13818" uniqueCount="8988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13818" uniqueCount="8989">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -23469,7 +23469,7 @@
     <t xml:space="preserve">cat_attack</t>
   </si>
   <si>
-    <t xml:space="preserve">공</t>
+    <t xml:space="preserve">공격</t>
   </si>
   <si>
     <t xml:space="preserve">Atk</t>
@@ -23479,6 +23479,9 @@
   </si>
   <si>
     <t xml:space="preserve">cat_defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방버</t>
   </si>
   <si>
     <t xml:space="preserve">Def</t>
@@ -27372,12 +27375,12 @@
   <dimension ref="A1:F2421"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A2394" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A2089" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D2411" activeCellId="0" sqref="D2411"/>
+      <selection pane="bottomLeft" activeCell="D2098" activeCellId="0" sqref="D2098"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.62109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="14.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.76"/>
@@ -67805,35 +67808,35 @@
         <v>49</v>
       </c>
       <c r="D2097" s="0" t="s">
-        <v>726</v>
+        <v>7755</v>
       </c>
       <c r="E2097" s="0" t="s">
-        <v>7755</v>
+        <v>7756</v>
       </c>
       <c r="F2097" s="0" t="s">
-        <v>7756</v>
+        <v>7757</v>
       </c>
     </row>
     <row r="2098" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2098" s="0" t="s">
-        <v>7757</v>
+        <v>7758</v>
       </c>
       <c r="B2098" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D2098" s="0" t="s">
-        <v>7758</v>
+        <v>7759</v>
       </c>
       <c r="E2098" s="0" t="s">
-        <v>7759</v>
+        <v>7760</v>
       </c>
       <c r="F2098" s="0" t="s">
-        <v>7760</v>
+        <v>7761</v>
       </c>
     </row>
     <row r="2099" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2099" s="0" t="s">
-        <v>7761</v>
+        <v>7762</v>
       </c>
       <c r="B2099" s="0" t="s">
         <v>49</v>
@@ -67850,67 +67853,67 @@
     </row>
     <row r="2100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2100" s="0" t="s">
-        <v>7762</v>
+        <v>7763</v>
       </c>
       <c r="B2100" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D2100" s="0" t="s">
-        <v>7763</v>
+        <v>7764</v>
       </c>
       <c r="E2100" s="0" t="s">
-        <v>7763</v>
+        <v>7764</v>
       </c>
       <c r="F2100" s="0" t="s">
-        <v>7763</v>
+        <v>7764</v>
       </c>
     </row>
     <row r="2101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2101" s="0" t="s">
-        <v>7764</v>
+        <v>7765</v>
       </c>
       <c r="B2101" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D2101" s="0" t="s">
-        <v>7765</v>
+        <v>7766</v>
       </c>
       <c r="E2101" s="0" t="s">
-        <v>7766</v>
+        <v>7767</v>
       </c>
       <c r="F2101" s="0" t="s">
-        <v>7766</v>
+        <v>7767</v>
       </c>
     </row>
     <row r="2102" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2102" s="0" t="s">
-        <v>7767</v>
+        <v>7768</v>
       </c>
       <c r="B2102" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2102" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2102" s="2" t="s">
-        <v>7769</v>
+        <v>7770</v>
       </c>
       <c r="E2102" s="2" t="s">
-        <v>7770</v>
+        <v>7771</v>
       </c>
       <c r="F2102" s="2" t="s">
-        <v>7771</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="2103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2103" s="0" t="s">
-        <v>7772</v>
+        <v>7773</v>
       </c>
       <c r="B2103" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2103" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2103" s="0" t="s">
         <v>3181</v>
@@ -67919,58 +67922,58 @@
         <v>3182</v>
       </c>
       <c r="F2103" s="0" t="s">
-        <v>7773</v>
+        <v>7774</v>
       </c>
     </row>
     <row r="2104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2104" s="0" t="s">
-        <v>7774</v>
+        <v>7775</v>
       </c>
       <c r="B2104" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2104" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2104" s="0" t="s">
-        <v>7775</v>
+        <v>7776</v>
       </c>
       <c r="E2104" s="0" t="s">
-        <v>7776</v>
+        <v>7777</v>
       </c>
       <c r="F2104" s="0" t="s">
-        <v>7777</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="2105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2105" s="0" t="s">
-        <v>7778</v>
+        <v>7779</v>
       </c>
       <c r="B2105" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2105" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2105" s="0" t="s">
-        <v>7779</v>
+        <v>7780</v>
       </c>
       <c r="E2105" s="0" t="s">
-        <v>7780</v>
+        <v>7781</v>
       </c>
       <c r="F2105" s="0" t="s">
-        <v>7781</v>
+        <v>7782</v>
       </c>
     </row>
     <row r="2106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2106" s="0" t="s">
-        <v>7782</v>
+        <v>7783</v>
       </c>
       <c r="B2106" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2106" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2106" s="0" t="s">
         <v>3214</v>
@@ -67984,264 +67987,264 @@
     </row>
     <row r="2107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2107" s="0" t="s">
-        <v>7783</v>
+        <v>7784</v>
       </c>
       <c r="B2107" s="0" t="s">
         <v>547</v>
       </c>
       <c r="C2107" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2107" s="0" t="s">
-        <v>7784</v>
+        <v>7785</v>
       </c>
       <c r="E2107" s="0" t="s">
-        <v>7785</v>
+        <v>7786</v>
       </c>
       <c r="F2107" s="0" t="s">
-        <v>7786</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="2108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2108" s="0" t="s">
-        <v>7787</v>
+        <v>7788</v>
       </c>
       <c r="B2108" s="0" t="s">
         <v>525</v>
       </c>
       <c r="C2108" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2108" s="0" t="s">
-        <v>7788</v>
+        <v>7789</v>
       </c>
       <c r="E2108" s="0" t="s">
-        <v>7789</v>
+        <v>7790</v>
       </c>
       <c r="F2108" s="0" t="s">
-        <v>7790</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="2109" customFormat="false" ht="83.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2109" s="0" t="s">
-        <v>7791</v>
+        <v>7792</v>
       </c>
       <c r="B2109" s="0" t="s">
         <v>547</v>
       </c>
       <c r="C2109" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2109" s="2" t="s">
-        <v>7792</v>
+        <v>7793</v>
       </c>
       <c r="E2109" s="2" t="s">
-        <v>7793</v>
+        <v>7794</v>
       </c>
       <c r="F2109" s="2" t="s">
-        <v>7794</v>
+        <v>7795</v>
       </c>
     </row>
     <row r="2110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2110" s="0" t="s">
-        <v>7795</v>
+        <v>7796</v>
       </c>
       <c r="B2110" s="0" t="s">
         <v>547</v>
       </c>
       <c r="C2110" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2110" s="0" t="s">
-        <v>7796</v>
+        <v>7797</v>
       </c>
       <c r="E2110" s="0" t="s">
-        <v>7797</v>
+        <v>7798</v>
       </c>
       <c r="F2110" s="0" t="s">
-        <v>7798</v>
+        <v>7799</v>
       </c>
     </row>
     <row r="2111" customFormat="false" ht="94.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2111" s="0" t="s">
-        <v>7799</v>
+        <v>7800</v>
       </c>
       <c r="B2111" s="0" t="s">
         <v>547</v>
       </c>
       <c r="C2111" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2111" s="2" t="s">
-        <v>7800</v>
+        <v>7801</v>
       </c>
       <c r="E2111" s="2" t="s">
-        <v>7801</v>
+        <v>7802</v>
       </c>
       <c r="F2111" s="2" t="s">
-        <v>7802</v>
+        <v>7803</v>
       </c>
     </row>
     <row r="2112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2112" s="0" t="s">
-        <v>7803</v>
+        <v>7804</v>
       </c>
       <c r="B2112" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2112" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2112" s="0" t="s">
-        <v>7804</v>
+        <v>7805</v>
       </c>
       <c r="E2112" s="0" t="s">
+        <v>7806</v>
+      </c>
+      <c r="F2112" s="0" t="s">
         <v>7805</v>
-      </c>
-      <c r="F2112" s="0" t="s">
-        <v>7804</v>
       </c>
     </row>
     <row r="2113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2113" s="0" t="s">
-        <v>7806</v>
+        <v>7807</v>
       </c>
       <c r="B2113" s="0" t="s">
-        <v>7807</v>
+        <v>7808</v>
       </c>
       <c r="C2113" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2113" s="0" t="s">
-        <v>7808</v>
+        <v>7809</v>
       </c>
       <c r="E2113" s="0" t="s">
-        <v>7809</v>
+        <v>7810</v>
       </c>
       <c r="F2113" s="0" t="s">
-        <v>7810</v>
+        <v>7811</v>
       </c>
     </row>
     <row r="2114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2114" s="0" t="s">
-        <v>7811</v>
+        <v>7812</v>
       </c>
       <c r="B2114" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2114" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2114" s="0" t="s">
-        <v>7812</v>
+        <v>7813</v>
       </c>
       <c r="E2114" s="0" t="s">
-        <v>7813</v>
+        <v>7814</v>
       </c>
       <c r="F2114" s="0" t="s">
-        <v>7814</v>
+        <v>7815</v>
       </c>
     </row>
     <row r="2115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2115" s="0" t="s">
-        <v>7815</v>
+        <v>7816</v>
       </c>
       <c r="B2115" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2115" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2115" s="0" t="s">
-        <v>7816</v>
+        <v>7817</v>
       </c>
       <c r="E2115" s="0" t="s">
-        <v>7817</v>
+        <v>7818</v>
       </c>
       <c r="F2115" s="0" t="s">
-        <v>7818</v>
+        <v>7819</v>
       </c>
     </row>
     <row r="2116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2116" s="0" t="s">
-        <v>7819</v>
+        <v>7820</v>
       </c>
       <c r="B2116" s="0" t="s">
         <v>2450</v>
       </c>
       <c r="C2116" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2116" s="0" t="s">
-        <v>7820</v>
+        <v>7821</v>
       </c>
       <c r="E2116" s="0" t="s">
-        <v>7821</v>
+        <v>7822</v>
       </c>
       <c r="F2116" s="0" t="s">
-        <v>7822</v>
+        <v>7823</v>
       </c>
     </row>
     <row r="2117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2117" s="0" t="s">
-        <v>7823</v>
+        <v>7824</v>
       </c>
       <c r="B2117" s="0" t="s">
         <v>2450</v>
       </c>
       <c r="C2117" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2117" s="0" t="s">
-        <v>7824</v>
+        <v>7825</v>
       </c>
       <c r="E2117" s="0" t="s">
-        <v>7825</v>
+        <v>7826</v>
       </c>
       <c r="F2117" s="0" t="s">
-        <v>7826</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="2118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2118" s="0" t="s">
-        <v>7827</v>
+        <v>7828</v>
       </c>
       <c r="B2118" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2118" s="0" t="s">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="D2118" s="0" t="s">
-        <v>7828</v>
+        <v>7829</v>
       </c>
       <c r="E2118" s="0" t="s">
-        <v>7829</v>
+        <v>7830</v>
       </c>
       <c r="F2118" s="0" t="s">
-        <v>7830</v>
+        <v>7831</v>
       </c>
     </row>
     <row r="2119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2119" s="0" t="s">
-        <v>7831</v>
+        <v>7832</v>
       </c>
       <c r="B2119" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D2119" s="0" t="s">
-        <v>7832</v>
+        <v>7833</v>
       </c>
       <c r="E2119" s="0" t="s">
-        <v>7833</v>
+        <v>7834</v>
       </c>
       <c r="F2119" s="0" t="s">
-        <v>7834</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="2120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2120" s="0" t="s">
-        <v>7835</v>
+        <v>7836</v>
       </c>
       <c r="B2120" s="0" t="s">
         <v>7</v>
@@ -68250,18 +68253,18 @@
         <v>2320</v>
       </c>
       <c r="D2120" s="0" t="s">
-        <v>7836</v>
+        <v>7837</v>
       </c>
       <c r="E2120" s="0" t="s">
-        <v>7837</v>
+        <v>7838</v>
       </c>
       <c r="F2120" s="0" t="s">
-        <v>7838</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="2121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2121" s="0" t="s">
-        <v>7839</v>
+        <v>7840</v>
       </c>
       <c r="B2121" s="0" t="s">
         <v>7</v>
@@ -68270,18 +68273,18 @@
         <v>2320</v>
       </c>
       <c r="D2121" s="0" t="s">
-        <v>7840</v>
+        <v>7841</v>
       </c>
       <c r="E2121" s="0" t="s">
-        <v>7841</v>
+        <v>7842</v>
       </c>
       <c r="F2121" s="0" t="s">
-        <v>7842</v>
+        <v>7843</v>
       </c>
     </row>
     <row r="2122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2122" s="0" t="s">
-        <v>7843</v>
+        <v>7844</v>
       </c>
       <c r="B2122" s="0" t="s">
         <v>7</v>
@@ -68290,18 +68293,18 @@
         <v>2320</v>
       </c>
       <c r="D2122" s="0" t="s">
-        <v>7844</v>
+        <v>7845</v>
       </c>
       <c r="E2122" s="0" t="s">
-        <v>7845</v>
+        <v>7846</v>
       </c>
       <c r="F2122" s="0" t="s">
-        <v>7846</v>
+        <v>7847</v>
       </c>
     </row>
     <row r="2123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2123" s="0" t="s">
-        <v>7847</v>
+        <v>7848</v>
       </c>
       <c r="B2123" s="0" t="s">
         <v>7</v>
@@ -68310,18 +68313,18 @@
         <v>2320</v>
       </c>
       <c r="D2123" s="0" t="s">
-        <v>7848</v>
+        <v>7849</v>
       </c>
       <c r="E2123" s="0" t="s">
-        <v>7849</v>
+        <v>7850</v>
       </c>
       <c r="F2123" s="0" t="s">
-        <v>7850</v>
+        <v>7851</v>
       </c>
     </row>
     <row r="2124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2124" s="0" t="s">
-        <v>7851</v>
+        <v>7852</v>
       </c>
       <c r="B2124" s="0" t="s">
         <v>7</v>
@@ -68330,18 +68333,18 @@
         <v>2320</v>
       </c>
       <c r="D2124" s="0" t="s">
-        <v>7852</v>
+        <v>7853</v>
       </c>
       <c r="E2124" s="0" t="s">
-        <v>7853</v>
+        <v>7854</v>
       </c>
       <c r="F2124" s="0" t="s">
-        <v>7854</v>
+        <v>7855</v>
       </c>
     </row>
     <row r="2125" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2125" s="0" t="s">
-        <v>7855</v>
+        <v>7856</v>
       </c>
       <c r="B2125" s="0" t="s">
         <v>7</v>
@@ -68350,52 +68353,52 @@
         <v>2320</v>
       </c>
       <c r="D2125" s="2" t="s">
-        <v>7856</v>
+        <v>7857</v>
       </c>
       <c r="E2125" s="2" t="s">
-        <v>7857</v>
+        <v>7858</v>
       </c>
       <c r="F2125" s="2" t="s">
-        <v>7858</v>
+        <v>7859</v>
       </c>
     </row>
     <row r="2126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2126" s="0" t="s">
-        <v>7859</v>
+        <v>7860</v>
       </c>
       <c r="B2126" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D2126" s="0" t="s">
-        <v>7860</v>
+        <v>7861</v>
       </c>
       <c r="E2126" s="0" t="s">
-        <v>7861</v>
+        <v>7862</v>
       </c>
       <c r="F2126" s="0" t="s">
-        <v>7862</v>
+        <v>7863</v>
       </c>
     </row>
     <row r="2127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2127" s="0" t="s">
-        <v>7863</v>
+        <v>7864</v>
       </c>
       <c r="B2127" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D2127" s="0" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="E2127" s="0" t="s">
-        <v>7865</v>
+        <v>7866</v>
       </c>
       <c r="F2127" s="0" t="s">
-        <v>7866</v>
+        <v>7867</v>
       </c>
     </row>
     <row r="2128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2128" s="0" t="s">
-        <v>7867</v>
+        <v>7868</v>
       </c>
       <c r="B2128" s="0" t="s">
         <v>7</v>
@@ -68404,18 +68407,18 @@
         <v>6927</v>
       </c>
       <c r="D2128" s="0" t="s">
-        <v>7868</v>
+        <v>7869</v>
       </c>
       <c r="E2128" s="0" t="s">
-        <v>7869</v>
+        <v>7870</v>
       </c>
       <c r="F2128" s="0" t="s">
-        <v>7870</v>
+        <v>7871</v>
       </c>
     </row>
     <row r="2129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2129" s="0" t="s">
-        <v>7871</v>
+        <v>7872</v>
       </c>
       <c r="B2129" s="0" t="s">
         <v>7</v>
@@ -68424,18 +68427,18 @@
         <v>6927</v>
       </c>
       <c r="D2129" s="0" t="s">
-        <v>7872</v>
+        <v>7873</v>
       </c>
       <c r="E2129" s="0" t="s">
-        <v>7873</v>
+        <v>7874</v>
       </c>
       <c r="F2129" s="0" t="s">
-        <v>7874</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="2130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2130" s="0" t="s">
-        <v>7875</v>
+        <v>7876</v>
       </c>
       <c r="B2130" s="0" t="s">
         <v>7</v>
@@ -68444,18 +68447,18 @@
         <v>6927</v>
       </c>
       <c r="D2130" s="0" t="s">
-        <v>7876</v>
+        <v>7877</v>
       </c>
       <c r="E2130" s="0" t="s">
-        <v>7877</v>
+        <v>7878</v>
       </c>
       <c r="F2130" s="0" t="s">
-        <v>7878</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="2131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2131" s="0" t="s">
-        <v>7879</v>
+        <v>7880</v>
       </c>
       <c r="B2131" s="0" t="s">
         <v>7</v>
@@ -68464,18 +68467,18 @@
         <v>6927</v>
       </c>
       <c r="D2131" s="0" t="s">
-        <v>7880</v>
+        <v>7881</v>
       </c>
       <c r="E2131" s="0" t="s">
-        <v>7881</v>
+        <v>7882</v>
       </c>
       <c r="F2131" s="0" t="s">
-        <v>7882</v>
+        <v>7883</v>
       </c>
     </row>
     <row r="2132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2132" s="0" t="s">
-        <v>7883</v>
+        <v>7884</v>
       </c>
       <c r="B2132" s="0" t="s">
         <v>7</v>
@@ -68484,18 +68487,18 @@
         <v>6927</v>
       </c>
       <c r="D2132" s="0" t="s">
-        <v>7884</v>
+        <v>7885</v>
       </c>
       <c r="E2132" s="0" t="s">
-        <v>7885</v>
+        <v>7886</v>
       </c>
       <c r="F2132" s="0" t="s">
-        <v>7886</v>
+        <v>7887</v>
       </c>
     </row>
     <row r="2133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2133" s="0" t="s">
-        <v>7887</v>
+        <v>7888</v>
       </c>
       <c r="B2133" s="0" t="s">
         <v>7</v>
@@ -68504,18 +68507,18 @@
         <v>6927</v>
       </c>
       <c r="D2133" s="0" t="s">
-        <v>7888</v>
+        <v>7889</v>
       </c>
       <c r="E2133" s="0" t="s">
-        <v>7889</v>
+        <v>7890</v>
       </c>
       <c r="F2133" s="0" t="s">
-        <v>7890</v>
+        <v>7891</v>
       </c>
     </row>
     <row r="2134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2134" s="0" t="s">
-        <v>7891</v>
+        <v>7892</v>
       </c>
       <c r="B2134" s="0" t="s">
         <v>7</v>
@@ -68524,18 +68527,18 @@
         <v>6927</v>
       </c>
       <c r="D2134" s="0" t="s">
-        <v>7892</v>
+        <v>7893</v>
       </c>
       <c r="E2134" s="0" t="s">
-        <v>7892</v>
+        <v>7893</v>
       </c>
       <c r="F2134" s="0" t="s">
-        <v>7892</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="2135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2135" s="0" t="s">
-        <v>7893</v>
+        <v>7894</v>
       </c>
       <c r="B2135" s="0" t="s">
         <v>7</v>
@@ -68544,38 +68547,38 @@
         <v>6927</v>
       </c>
       <c r="D2135" s="0" t="s">
-        <v>7894</v>
+        <v>7895</v>
       </c>
       <c r="E2135" s="0" t="s">
-        <v>7894</v>
+        <v>7895</v>
       </c>
       <c r="F2135" s="0" t="s">
-        <v>7894</v>
+        <v>7895</v>
       </c>
     </row>
     <row r="2136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2136" s="0" t="s">
-        <v>7895</v>
+        <v>7896</v>
       </c>
       <c r="B2136" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2136" s="0" t="s">
-        <v>7896</v>
+        <v>7897</v>
       </c>
       <c r="D2136" s="0" t="s">
-        <v>7897</v>
+        <v>7898</v>
       </c>
       <c r="E2136" s="0" t="s">
-        <v>7898</v>
+        <v>7899</v>
       </c>
       <c r="F2136" s="0" t="s">
-        <v>7899</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="2137" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2137" s="0" t="s">
-        <v>7900</v>
+        <v>7901</v>
       </c>
       <c r="B2137" s="0" t="s">
         <v>7</v>
@@ -68584,18 +68587,18 @@
         <v>6927</v>
       </c>
       <c r="D2137" s="2" t="s">
-        <v>7901</v>
+        <v>7902</v>
       </c>
       <c r="E2137" s="2" t="s">
-        <v>7902</v>
+        <v>7903</v>
       </c>
       <c r="F2137" s="2" t="s">
-        <v>7903</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="2138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2138" s="0" t="s">
-        <v>7904</v>
+        <v>7905</v>
       </c>
       <c r="B2138" s="0" t="s">
         <v>7</v>
@@ -68604,221 +68607,221 @@
         <v>6927</v>
       </c>
       <c r="D2138" s="0" t="s">
-        <v>7905</v>
+        <v>7906</v>
       </c>
       <c r="E2138" s="0" t="s">
-        <v>7906</v>
+        <v>7907</v>
       </c>
       <c r="F2138" s="0" t="s">
-        <v>7907</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="2139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2139" s="0" t="s">
-        <v>7908</v>
+        <v>7909</v>
       </c>
       <c r="B2139" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2139" s="0" t="s">
-        <v>7896</v>
+        <v>7897</v>
       </c>
       <c r="D2139" s="0" t="s">
-        <v>7909</v>
+        <v>7910</v>
       </c>
       <c r="E2139" s="0" t="s">
-        <v>7910</v>
+        <v>7911</v>
       </c>
       <c r="F2139" s="0" t="s">
-        <v>7911</v>
+        <v>7912</v>
       </c>
     </row>
     <row r="2140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2140" s="0" t="s">
-        <v>7912</v>
+        <v>7913</v>
       </c>
       <c r="B2140" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2140" s="0" t="s">
-        <v>7896</v>
+        <v>7897</v>
       </c>
       <c r="D2140" s="0" t="s">
-        <v>7913</v>
+        <v>7914</v>
       </c>
       <c r="E2140" s="0" t="s">
-        <v>7914</v>
+        <v>7915</v>
       </c>
       <c r="F2140" s="0" t="s">
-        <v>7915</v>
+        <v>7916</v>
       </c>
     </row>
     <row r="2141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2141" s="0" t="s">
-        <v>7916</v>
+        <v>7917</v>
       </c>
       <c r="B2141" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D2141" s="0" t="s">
-        <v>7917</v>
+        <v>7918</v>
       </c>
       <c r="E2141" s="0" t="s">
-        <v>7918</v>
+        <v>7919</v>
       </c>
       <c r="F2141" s="0" t="s">
-        <v>7919</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="2142" customFormat="false" ht="114.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2142" s="0" t="s">
-        <v>7920</v>
+        <v>7921</v>
       </c>
       <c r="B2142" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2142" s="0" t="s">
-        <v>7896</v>
+        <v>7897</v>
       </c>
       <c r="D2142" s="2" t="s">
-        <v>7921</v>
+        <v>7922</v>
       </c>
       <c r="E2142" s="2" t="s">
-        <v>7922</v>
+        <v>7923</v>
       </c>
       <c r="F2142" s="2" t="s">
-        <v>7923</v>
+        <v>7924</v>
       </c>
     </row>
     <row r="2143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2143" s="0" t="s">
-        <v>7924</v>
+        <v>7925</v>
       </c>
       <c r="B2143" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2143" s="0" t="s">
-        <v>7896</v>
+        <v>7897</v>
       </c>
       <c r="D2143" s="0" t="s">
-        <v>7925</v>
+        <v>7926</v>
       </c>
       <c r="E2143" s="0" t="s">
-        <v>7926</v>
+        <v>7927</v>
       </c>
       <c r="F2143" s="0" t="s">
-        <v>7927</v>
+        <v>7928</v>
       </c>
     </row>
     <row r="2144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2144" s="0" t="s">
-        <v>7928</v>
+        <v>7929</v>
       </c>
       <c r="B2144" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2144" s="0" t="s">
-        <v>7896</v>
+        <v>7897</v>
       </c>
       <c r="D2144" s="0" t="s">
-        <v>7929</v>
+        <v>7930</v>
       </c>
       <c r="E2144" s="0" t="s">
-        <v>7930</v>
+        <v>7931</v>
       </c>
       <c r="F2144" s="0" t="s">
-        <v>7931</v>
+        <v>7932</v>
       </c>
     </row>
     <row r="2145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2145" s="0" t="s">
-        <v>7932</v>
+        <v>7933</v>
       </c>
       <c r="B2145" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2145" s="0" t="s">
-        <v>7896</v>
+        <v>7897</v>
       </c>
       <c r="D2145" s="0" t="s">
-        <v>7933</v>
+        <v>7934</v>
       </c>
       <c r="E2145" s="0" t="s">
-        <v>7934</v>
+        <v>7935</v>
       </c>
       <c r="F2145" s="0" t="s">
-        <v>7935</v>
+        <v>7936</v>
       </c>
     </row>
     <row r="2146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2146" s="0" t="s">
-        <v>7936</v>
+        <v>7937</v>
       </c>
       <c r="B2146" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2146" s="0" t="s">
-        <v>7937</v>
+        <v>7938</v>
       </c>
       <c r="D2146" s="0" t="s">
-        <v>7938</v>
+        <v>7939</v>
       </c>
       <c r="E2146" s="0" t="s">
-        <v>7939</v>
+        <v>7940</v>
       </c>
       <c r="F2146" s="0" t="s">
-        <v>7940</v>
+        <v>7941</v>
       </c>
     </row>
     <row r="2147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2147" s="0" t="s">
-        <v>7941</v>
+        <v>7942</v>
       </c>
       <c r="B2147" s="0" t="s">
         <v>98</v>
       </c>
       <c r="C2147" s="0" t="s">
-        <v>7937</v>
+        <v>7938</v>
       </c>
       <c r="D2147" s="0" t="s">
-        <v>7942</v>
+        <v>7943</v>
       </c>
       <c r="E2147" s="0" t="s">
-        <v>7943</v>
+        <v>7944</v>
       </c>
       <c r="F2147" s="0" t="s">
-        <v>7944</v>
+        <v>7945</v>
       </c>
     </row>
     <row r="2148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2148" s="0" t="s">
-        <v>7945</v>
+        <v>7946</v>
       </c>
       <c r="B2148" s="0" t="s">
         <v>26</v>
       </c>
       <c r="C2148" s="0" t="s">
-        <v>7937</v>
+        <v>7938</v>
       </c>
       <c r="D2148" s="0" t="s">
-        <v>7946</v>
+        <v>7947</v>
       </c>
       <c r="E2148" s="0" t="s">
         <v>1209</v>
       </c>
       <c r="F2148" s="0" t="s">
-        <v>7947</v>
+        <v>7948</v>
       </c>
     </row>
     <row r="2149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2149" s="0" t="s">
-        <v>7948</v>
+        <v>7949</v>
       </c>
       <c r="B2149" s="0" t="s">
         <v>156</v>
       </c>
       <c r="C2149" s="0" t="s">
-        <v>7937</v>
+        <v>7938</v>
       </c>
       <c r="D2149" s="0" t="s">
         <v>4587</v>
@@ -68832,59 +68835,59 @@
     </row>
     <row r="2150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2150" s="0" t="s">
-        <v>7949</v>
+        <v>7950</v>
       </c>
       <c r="B2150" s="0" t="s">
         <v>292</v>
       </c>
       <c r="C2150" s="0" t="s">
-        <v>7937</v>
+        <v>7938</v>
       </c>
       <c r="D2150" s="0" t="s">
-        <v>7950</v>
+        <v>7951</v>
       </c>
       <c r="E2150" s="0" t="s">
         <v>770</v>
       </c>
       <c r="F2150" s="0" t="s">
-        <v>7951</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="2151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2151" s="0" t="s">
-        <v>7952</v>
+        <v>7953</v>
       </c>
       <c r="B2151" s="0" t="s">
         <v>292</v>
       </c>
       <c r="C2151" s="0" t="s">
-        <v>7953</v>
+        <v>7954</v>
       </c>
       <c r="D2151" s="0" t="s">
-        <v>7954</v>
+        <v>7955</v>
       </c>
       <c r="E2151" s="0" t="s">
-        <v>7955</v>
+        <v>7956</v>
       </c>
       <c r="F2151" s="0" t="s">
-        <v>7956</v>
+        <v>7957</v>
       </c>
     </row>
     <row r="2152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2152" s="0" t="s">
-        <v>7957</v>
+        <v>7958</v>
       </c>
       <c r="B2152" s="0" t="s">
         <v>292</v>
       </c>
       <c r="C2152" s="0" t="s">
-        <v>7953</v>
+        <v>7954</v>
       </c>
       <c r="D2152" s="0" t="s">
         <v>5175</v>
       </c>
       <c r="E2152" s="0" t="s">
-        <v>7958</v>
+        <v>7959</v>
       </c>
       <c r="F2152" s="0" t="s">
         <v>5177</v>
@@ -68892,488 +68895,488 @@
     </row>
     <row r="2153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2153" s="0" t="s">
-        <v>7959</v>
+        <v>7960</v>
       </c>
       <c r="B2153" s="0" t="s">
         <v>292</v>
       </c>
       <c r="C2153" s="0" t="s">
-        <v>7953</v>
+        <v>7954</v>
       </c>
       <c r="D2153" s="0" t="s">
-        <v>7960</v>
+        <v>7961</v>
       </c>
       <c r="E2153" s="0" t="s">
         <v>5185</v>
       </c>
       <c r="F2153" s="0" t="s">
-        <v>7961</v>
+        <v>7962</v>
       </c>
     </row>
     <row r="2154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2154" s="0" t="s">
-        <v>7962</v>
+        <v>7963</v>
       </c>
       <c r="B2154" s="0" t="s">
         <v>292</v>
       </c>
       <c r="C2154" s="0" t="s">
-        <v>7953</v>
+        <v>7954</v>
       </c>
       <c r="D2154" s="0" t="s">
-        <v>7963</v>
+        <v>7964</v>
       </c>
       <c r="E2154" s="0" t="s">
-        <v>7964</v>
+        <v>7965</v>
       </c>
       <c r="F2154" s="0" t="s">
-        <v>7965</v>
+        <v>7966</v>
       </c>
     </row>
     <row r="2155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2155" s="0" t="s">
-        <v>7966</v>
+        <v>7967</v>
       </c>
       <c r="B2155" s="0" t="s">
         <v>292</v>
       </c>
       <c r="C2155" s="0" t="s">
-        <v>7953</v>
+        <v>7954</v>
       </c>
       <c r="D2155" s="0" t="s">
-        <v>7967</v>
+        <v>7968</v>
       </c>
       <c r="E2155" s="0" t="s">
-        <v>7968</v>
+        <v>7969</v>
       </c>
       <c r="F2155" s="0" t="s">
-        <v>7969</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="2156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2156" s="0" t="s">
-        <v>7970</v>
+        <v>7971</v>
       </c>
       <c r="B2156" s="0" t="s">
         <v>125</v>
       </c>
       <c r="C2156" s="0" t="s">
-        <v>7953</v>
+        <v>7954</v>
       </c>
       <c r="D2156" s="0" t="s">
-        <v>7971</v>
+        <v>7972</v>
       </c>
       <c r="E2156" s="0" t="s">
-        <v>7972</v>
+        <v>7973</v>
       </c>
       <c r="F2156" s="0" t="s">
-        <v>7973</v>
+        <v>7974</v>
       </c>
     </row>
     <row r="2157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2157" s="0" t="s">
-        <v>7974</v>
+        <v>7975</v>
       </c>
       <c r="B2157" s="0" t="s">
         <v>125</v>
       </c>
       <c r="C2157" s="0" t="s">
-        <v>7953</v>
+        <v>7954</v>
       </c>
       <c r="D2157" s="0" t="s">
-        <v>7975</v>
+        <v>7976</v>
       </c>
       <c r="E2157" s="0" t="s">
-        <v>7976</v>
+        <v>7977</v>
       </c>
       <c r="F2157" s="0" t="s">
-        <v>7977</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="2158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2158" s="0" t="s">
-        <v>7978</v>
+        <v>7979</v>
       </c>
       <c r="B2158" s="0" t="s">
         <v>125</v>
       </c>
       <c r="C2158" s="0" t="s">
-        <v>7953</v>
+        <v>7954</v>
       </c>
       <c r="D2158" s="0" t="s">
-        <v>7979</v>
+        <v>7980</v>
       </c>
       <c r="E2158" s="0" t="s">
-        <v>7980</v>
+        <v>7981</v>
       </c>
       <c r="F2158" s="0" t="s">
-        <v>7981</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="2159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2159" s="0" t="s">
-        <v>7982</v>
+        <v>7983</v>
       </c>
       <c r="B2159" s="0" t="s">
         <v>292</v>
       </c>
       <c r="C2159" s="0" t="s">
-        <v>7953</v>
+        <v>7954</v>
       </c>
       <c r="D2159" s="0" t="s">
-        <v>7983</v>
+        <v>7984</v>
       </c>
       <c r="E2159" s="0" t="s">
-        <v>7984</v>
+        <v>7985</v>
       </c>
       <c r="F2159" s="0" t="s">
-        <v>7985</v>
+        <v>7986</v>
       </c>
     </row>
     <row r="2160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2160" s="0" t="s">
-        <v>7986</v>
+        <v>7987</v>
       </c>
       <c r="B2160" s="0" t="s">
         <v>125</v>
       </c>
       <c r="C2160" s="0" t="s">
-        <v>7953</v>
+        <v>7954</v>
       </c>
       <c r="D2160" s="0" t="s">
-        <v>7987</v>
+        <v>7988</v>
       </c>
       <c r="E2160" s="0" t="s">
-        <v>7988</v>
+        <v>7989</v>
       </c>
       <c r="F2160" s="0" t="s">
-        <v>7989</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="2161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2161" s="0" t="s">
-        <v>7990</v>
+        <v>7991</v>
       </c>
       <c r="B2161" s="0" t="s">
         <v>292</v>
       </c>
       <c r="C2161" s="0" t="s">
-        <v>7953</v>
+        <v>7954</v>
       </c>
       <c r="D2161" s="0" t="s">
-        <v>7991</v>
+        <v>7992</v>
       </c>
       <c r="E2161" s="0" t="s">
-        <v>7992</v>
+        <v>7993</v>
       </c>
       <c r="F2161" s="0" t="s">
-        <v>7993</v>
+        <v>7994</v>
       </c>
     </row>
     <row r="2162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2162" s="0" t="s">
-        <v>7994</v>
+        <v>7995</v>
       </c>
       <c r="B2162" s="0" t="s">
         <v>292</v>
       </c>
       <c r="C2162" s="0" t="s">
-        <v>7953</v>
+        <v>7954</v>
       </c>
       <c r="D2162" s="0" t="s">
-        <v>7995</v>
+        <v>7996</v>
       </c>
       <c r="E2162" s="0" t="s">
-        <v>7996</v>
+        <v>7997</v>
       </c>
       <c r="F2162" s="0" t="s">
-        <v>7997</v>
+        <v>7998</v>
       </c>
     </row>
     <row r="2163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2163" s="0" t="s">
-        <v>7998</v>
+        <v>7999</v>
       </c>
       <c r="B2163" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C2163" s="0" t="s">
-        <v>7999</v>
+        <v>8000</v>
       </c>
       <c r="D2163" s="0" t="s">
-        <v>8000</v>
+        <v>8001</v>
       </c>
       <c r="E2163" s="0" t="s">
-        <v>8001</v>
+        <v>8002</v>
       </c>
       <c r="F2163" s="0" t="s">
-        <v>8002</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="2164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2164" s="0" t="s">
-        <v>8003</v>
+        <v>8004</v>
       </c>
       <c r="B2164" s="0" t="s">
         <v>138</v>
       </c>
       <c r="C2164" s="0" t="s">
-        <v>7999</v>
+        <v>8000</v>
       </c>
       <c r="D2164" s="0" t="s">
-        <v>8004</v>
+        <v>8005</v>
       </c>
       <c r="E2164" s="0" t="s">
-        <v>8005</v>
+        <v>8006</v>
       </c>
       <c r="F2164" s="0" t="s">
-        <v>8006</v>
+        <v>8007</v>
       </c>
     </row>
     <row r="2165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2165" s="0" t="s">
-        <v>8007</v>
+        <v>8008</v>
       </c>
       <c r="B2165" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C2165" s="0" t="s">
-        <v>7999</v>
+        <v>8000</v>
       </c>
       <c r="D2165" s="0" t="s">
-        <v>8008</v>
+        <v>8009</v>
       </c>
       <c r="E2165" s="0" t="s">
-        <v>8009</v>
+        <v>8010</v>
       </c>
       <c r="F2165" s="0" t="s">
-        <v>8010</v>
+        <v>8011</v>
       </c>
     </row>
     <row r="2166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2166" s="0" t="s">
-        <v>8011</v>
+        <v>8012</v>
       </c>
       <c r="B2166" s="0" t="s">
         <v>138</v>
       </c>
       <c r="D2166" s="0" t="s">
-        <v>8012</v>
+        <v>8013</v>
       </c>
       <c r="E2166" s="0" t="s">
-        <v>8013</v>
+        <v>8014</v>
       </c>
       <c r="F2166" s="0" t="s">
-        <v>8014</v>
+        <v>8015</v>
       </c>
     </row>
     <row r="2167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2167" s="0" t="s">
-        <v>8015</v>
+        <v>8016</v>
       </c>
       <c r="B2167" s="0" t="s">
         <v>138</v>
       </c>
       <c r="D2167" s="0" t="s">
-        <v>8016</v>
+        <v>8017</v>
       </c>
       <c r="E2167" s="0" t="s">
-        <v>8017</v>
+        <v>8018</v>
       </c>
       <c r="F2167" s="0" t="s">
-        <v>8018</v>
+        <v>8019</v>
       </c>
     </row>
     <row r="2168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2168" s="0" t="s">
-        <v>8019</v>
+        <v>8020</v>
       </c>
       <c r="B2168" s="0" t="s">
         <v>138</v>
       </c>
       <c r="D2168" s="0" t="s">
-        <v>8020</v>
+        <v>8021</v>
       </c>
       <c r="E2168" s="0" t="s">
-        <v>8021</v>
+        <v>8022</v>
       </c>
       <c r="F2168" s="0" t="s">
-        <v>8022</v>
+        <v>8023</v>
       </c>
     </row>
     <row r="2169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2169" s="0" t="s">
-        <v>8023</v>
+        <v>8024</v>
       </c>
       <c r="B2169" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2169" s="0" t="s">
-        <v>8024</v>
+        <v>8025</v>
       </c>
       <c r="E2169" s="0" t="s">
-        <v>8025</v>
+        <v>8026</v>
       </c>
       <c r="F2169" s="0" t="s">
-        <v>8026</v>
+        <v>8027</v>
       </c>
     </row>
     <row r="2170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2170" s="0" t="s">
-        <v>8027</v>
+        <v>8028</v>
       </c>
       <c r="B2170" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D2170" s="0" t="s">
-        <v>8028</v>
+        <v>8029</v>
       </c>
       <c r="E2170" s="0" t="s">
-        <v>8029</v>
+        <v>8030</v>
       </c>
       <c r="F2170" s="0" t="s">
-        <v>8030</v>
+        <v>8031</v>
       </c>
     </row>
     <row r="2171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2171" s="0" t="s">
-        <v>8031</v>
+        <v>8032</v>
       </c>
       <c r="B2171" s="0" t="s">
         <v>26</v>
       </c>
       <c r="D2171" s="0" t="s">
-        <v>8032</v>
+        <v>8033</v>
       </c>
       <c r="E2171" s="0" t="s">
-        <v>8033</v>
+        <v>8034</v>
       </c>
       <c r="F2171" s="0" t="s">
-        <v>8034</v>
+        <v>8035</v>
       </c>
     </row>
     <row r="2172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2172" s="0" t="s">
-        <v>8035</v>
+        <v>8036</v>
       </c>
       <c r="B2172" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D2172" s="0" t="s">
-        <v>8036</v>
+        <v>8037</v>
       </c>
       <c r="E2172" s="0" t="s">
-        <v>8037</v>
+        <v>8038</v>
       </c>
       <c r="F2172" s="0" t="s">
-        <v>8038</v>
+        <v>8039</v>
       </c>
     </row>
     <row r="2173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2173" s="0" t="s">
-        <v>8039</v>
+        <v>8040</v>
       </c>
       <c r="B2173" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D2173" s="0" t="s">
-        <v>8040</v>
+        <v>8041</v>
       </c>
       <c r="E2173" s="0" t="s">
-        <v>8041</v>
+        <v>8042</v>
       </c>
       <c r="F2173" s="0" t="s">
-        <v>8042</v>
+        <v>8043</v>
       </c>
     </row>
     <row r="2174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2174" s="0" t="s">
-        <v>8043</v>
+        <v>8044</v>
       </c>
       <c r="B2174" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D2174" s="0" t="s">
-        <v>8044</v>
+        <v>8045</v>
       </c>
       <c r="E2174" s="0" t="s">
-        <v>8045</v>
+        <v>8046</v>
       </c>
       <c r="F2174" s="0" t="s">
-        <v>8046</v>
+        <v>8047</v>
       </c>
     </row>
     <row r="2175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2175" s="0" t="s">
-        <v>8047</v>
+        <v>8048</v>
       </c>
       <c r="B2175" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D2175" s="0" t="s">
-        <v>8048</v>
+        <v>8049</v>
       </c>
       <c r="E2175" s="0" t="s">
-        <v>8049</v>
+        <v>8050</v>
       </c>
       <c r="F2175" s="0" t="s">
-        <v>8050</v>
+        <v>8051</v>
       </c>
     </row>
     <row r="2176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2176" s="0" t="s">
-        <v>8051</v>
+        <v>8052</v>
       </c>
       <c r="B2176" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D2176" s="0" t="s">
-        <v>8052</v>
+        <v>8053</v>
       </c>
       <c r="E2176" s="0" t="s">
-        <v>8053</v>
+        <v>8054</v>
       </c>
       <c r="F2176" s="0" t="s">
-        <v>8054</v>
+        <v>8055</v>
       </c>
     </row>
     <row r="2177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2177" s="0" t="s">
-        <v>8055</v>
+        <v>8056</v>
       </c>
       <c r="B2177" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D2177" s="0" t="s">
-        <v>8056</v>
+        <v>8057</v>
       </c>
       <c r="E2177" s="0" t="s">
-        <v>8057</v>
+        <v>8058</v>
       </c>
       <c r="F2177" s="0" t="s">
-        <v>8058</v>
+        <v>8059</v>
       </c>
     </row>
     <row r="2178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2178" s="0" t="s">
-        <v>8059</v>
+        <v>8060</v>
       </c>
       <c r="B2178" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D2178" s="0" t="s">
-        <v>8060</v>
+        <v>8061</v>
       </c>
       <c r="E2178" s="0" t="s">
-        <v>8061</v>
+        <v>8062</v>
       </c>
       <c r="F2178" s="0" t="s">
-        <v>8062</v>
+        <v>8063</v>
       </c>
     </row>
     <row r="2179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2179" s="0" t="s">
-        <v>8063</v>
+        <v>8064</v>
       </c>
       <c r="B2179" s="0" t="s">
         <v>2450</v>
@@ -69382,18 +69385,18 @@
         <v>7368</v>
       </c>
       <c r="D2179" s="0" t="s">
-        <v>8064</v>
+        <v>8065</v>
       </c>
       <c r="E2179" s="0" t="s">
-        <v>8065</v>
+        <v>8066</v>
       </c>
       <c r="F2179" s="0" t="s">
-        <v>8066</v>
+        <v>8067</v>
       </c>
     </row>
     <row r="2180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2180" s="0" t="s">
-        <v>8067</v>
+        <v>8068</v>
       </c>
       <c r="B2180" s="0" t="s">
         <v>49</v>
@@ -69402,18 +69405,18 @@
         <v>7368</v>
       </c>
       <c r="D2180" s="0" t="s">
-        <v>8068</v>
+        <v>8069</v>
       </c>
       <c r="E2180" s="0" t="s">
-        <v>8069</v>
+        <v>8070</v>
       </c>
       <c r="F2180" s="0" t="s">
-        <v>8070</v>
+        <v>8071</v>
       </c>
     </row>
     <row r="2181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2181" s="0" t="s">
-        <v>8071</v>
+        <v>8072</v>
       </c>
       <c r="B2181" s="0" t="s">
         <v>2450</v>
@@ -69422,38 +69425,38 @@
         <v>7368</v>
       </c>
       <c r="D2181" s="0" t="s">
-        <v>8072</v>
+        <v>8073</v>
       </c>
       <c r="E2181" s="0" t="s">
-        <v>8073</v>
+        <v>8074</v>
       </c>
       <c r="F2181" s="0" t="s">
-        <v>8074</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="2182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2182" s="0" t="s">
-        <v>8075</v>
+        <v>8076</v>
       </c>
       <c r="B2182" s="0" t="s">
-        <v>8076</v>
+        <v>8077</v>
       </c>
       <c r="C2182" s="0" t="s">
         <v>7368</v>
       </c>
       <c r="D2182" s="0" t="s">
-        <v>8072</v>
+        <v>8073</v>
       </c>
       <c r="E2182" s="0" t="s">
-        <v>8073</v>
+        <v>8074</v>
       </c>
       <c r="F2182" s="0" t="s">
-        <v>8074</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="2183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2183" s="0" t="s">
-        <v>8077</v>
+        <v>8078</v>
       </c>
       <c r="B2183" s="0" t="s">
         <v>49</v>
@@ -69462,18 +69465,18 @@
         <v>7368</v>
       </c>
       <c r="D2183" s="0" t="s">
-        <v>8078</v>
+        <v>8079</v>
       </c>
       <c r="E2183" s="0" t="s">
-        <v>8079</v>
+        <v>8080</v>
       </c>
       <c r="F2183" s="0" t="s">
-        <v>8080</v>
+        <v>8081</v>
       </c>
     </row>
     <row r="2184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2184" s="0" t="s">
-        <v>8081</v>
+        <v>8082</v>
       </c>
       <c r="B2184" s="0" t="s">
         <v>49</v>
@@ -69493,7 +69496,7 @@
     </row>
     <row r="2185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2185" s="0" t="s">
-        <v>8082</v>
+        <v>8083</v>
       </c>
       <c r="B2185" s="0" t="s">
         <v>49</v>
@@ -69502,38 +69505,38 @@
         <v>7368</v>
       </c>
       <c r="D2185" s="0" t="s">
-        <v>8083</v>
+        <v>8084</v>
       </c>
       <c r="E2185" s="0" t="s">
-        <v>8084</v>
+        <v>8085</v>
       </c>
       <c r="F2185" s="0" t="s">
-        <v>8085</v>
+        <v>8086</v>
       </c>
     </row>
     <row r="2186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2186" s="0" t="s">
-        <v>8086</v>
+        <v>8087</v>
       </c>
       <c r="B2186" s="0" t="s">
-        <v>8087</v>
+        <v>8088</v>
       </c>
       <c r="C2186" s="0" t="s">
         <v>7368</v>
       </c>
       <c r="D2186" s="0" t="s">
-        <v>8088</v>
+        <v>8089</v>
       </c>
       <c r="E2186" s="0" t="s">
-        <v>8089</v>
+        <v>8090</v>
       </c>
       <c r="F2186" s="0" t="s">
-        <v>8090</v>
+        <v>8091</v>
       </c>
     </row>
     <row r="2187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2187" s="0" t="s">
-        <v>8091</v>
+        <v>8092</v>
       </c>
       <c r="B2187" s="0" t="s">
         <v>49</v>
@@ -69542,18 +69545,18 @@
         <v>7368</v>
       </c>
       <c r="D2187" s="0" t="s">
-        <v>8092</v>
+        <v>8093</v>
       </c>
       <c r="E2187" s="0" t="s">
         <v>1021</v>
       </c>
       <c r="F2187" s="0" t="s">
-        <v>8093</v>
+        <v>8094</v>
       </c>
     </row>
     <row r="2188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2188" s="0" t="s">
-        <v>8094</v>
+        <v>8095</v>
       </c>
       <c r="B2188" s="0" t="s">
         <v>161</v>
@@ -69562,126 +69565,126 @@
         <v>7368</v>
       </c>
       <c r="D2188" s="0" t="s">
-        <v>8095</v>
+        <v>8096</v>
       </c>
       <c r="E2188" s="0" t="s">
-        <v>8096</v>
+        <v>8097</v>
       </c>
       <c r="F2188" s="0" t="s">
-        <v>8097</v>
+        <v>8098</v>
       </c>
     </row>
     <row r="2189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2189" s="0" t="s">
-        <v>8098</v>
+        <v>8099</v>
       </c>
       <c r="B2189" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D2189" s="0" t="s">
-        <v>8099</v>
+        <v>8100</v>
       </c>
       <c r="E2189" s="0" t="s">
-        <v>8100</v>
+        <v>8101</v>
       </c>
       <c r="F2189" s="0" t="s">
-        <v>8101</v>
+        <v>8102</v>
       </c>
     </row>
     <row r="2190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2190" s="0" t="s">
-        <v>8102</v>
+        <v>8103</v>
       </c>
       <c r="B2190" s="0" t="s">
         <v>4505</v>
       </c>
       <c r="D2190" s="0" t="s">
-        <v>8103</v>
+        <v>8104</v>
       </c>
       <c r="E2190" s="0" t="s">
-        <v>8104</v>
+        <v>8105</v>
       </c>
       <c r="F2190" s="0" t="s">
-        <v>8105</v>
+        <v>8106</v>
       </c>
     </row>
     <row r="2191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2191" s="0" t="s">
-        <v>8106</v>
+        <v>8107</v>
       </c>
       <c r="B2191" s="0" t="s">
         <v>1064</v>
       </c>
       <c r="D2191" s="0" t="s">
-        <v>8107</v>
+        <v>8108</v>
       </c>
       <c r="E2191" s="0" t="s">
-        <v>8108</v>
+        <v>8109</v>
       </c>
       <c r="F2191" s="0" t="s">
-        <v>8109</v>
+        <v>8110</v>
       </c>
     </row>
     <row r="2192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2192" s="0" t="s">
-        <v>8110</v>
+        <v>8111</v>
       </c>
       <c r="B2192" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2192" s="0" t="s">
-        <v>8111</v>
+        <v>8112</v>
       </c>
       <c r="E2192" s="0" t="s">
-        <v>8112</v>
+        <v>8113</v>
       </c>
       <c r="F2192" s="0" t="s">
-        <v>8113</v>
+        <v>8114</v>
       </c>
     </row>
     <row r="2193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2193" s="0" t="s">
-        <v>8114</v>
+        <v>8115</v>
       </c>
       <c r="B2193" s="0" t="s">
         <v>156</v>
       </c>
       <c r="D2193" s="0" t="s">
-        <v>8115</v>
+        <v>8116</v>
       </c>
       <c r="E2193" s="0" t="s">
-        <v>8116</v>
+        <v>8117</v>
       </c>
       <c r="F2193" s="0" t="s">
-        <v>8117</v>
+        <v>8118</v>
       </c>
     </row>
     <row r="2194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2194" s="0" t="s">
-        <v>8118</v>
+        <v>8119</v>
       </c>
       <c r="B2194" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D2194" s="0" t="s">
-        <v>8119</v>
+        <v>8120</v>
       </c>
       <c r="E2194" s="0" t="s">
-        <v>8120</v>
+        <v>8121</v>
       </c>
       <c r="F2194" s="0" t="s">
-        <v>8121</v>
+        <v>8122</v>
       </c>
     </row>
     <row r="2195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2195" s="0" t="s">
-        <v>8122</v>
+        <v>8123</v>
       </c>
       <c r="B2195" s="0" t="s">
         <v>4505</v>
       </c>
       <c r="D2195" s="0" t="s">
-        <v>8123</v>
+        <v>8124</v>
       </c>
       <c r="E2195" s="0" t="s">
         <v>1326</v>
@@ -69692,7 +69695,7 @@
     </row>
     <row r="2196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2196" s="0" t="s">
-        <v>8124</v>
+        <v>8125</v>
       </c>
       <c r="B2196" s="0" t="s">
         <v>49</v>
@@ -69709,7 +69712,7 @@
     </row>
     <row r="2197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2197" s="0" t="s">
-        <v>8125</v>
+        <v>8126</v>
       </c>
       <c r="B2197" s="0" t="s">
         <v>156</v>
@@ -69726,313 +69729,313 @@
     </row>
     <row r="2198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2198" s="0" t="s">
-        <v>8126</v>
+        <v>8127</v>
       </c>
       <c r="B2198" s="0" t="s">
         <v>494</v>
       </c>
       <c r="D2198" s="0" t="s">
-        <v>8127</v>
+        <v>8128</v>
       </c>
       <c r="E2198" s="0" t="s">
-        <v>8128</v>
+        <v>8129</v>
       </c>
       <c r="F2198" s="0" t="s">
-        <v>8129</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="2199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2199" s="0" t="s">
-        <v>8130</v>
+        <v>8131</v>
       </c>
       <c r="B2199" s="0" t="s">
         <v>156</v>
       </c>
       <c r="D2199" s="0" t="s">
-        <v>8131</v>
+        <v>8132</v>
       </c>
       <c r="E2199" s="0" t="s">
-        <v>8132</v>
+        <v>8133</v>
       </c>
       <c r="F2199" s="0" t="s">
-        <v>8133</v>
+        <v>8134</v>
       </c>
     </row>
     <row r="2200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2200" s="0" t="s">
-        <v>8134</v>
+        <v>8135</v>
       </c>
       <c r="B2200" s="0" t="s">
         <v>156</v>
       </c>
       <c r="D2200" s="0" t="s">
-        <v>8135</v>
+        <v>8136</v>
       </c>
       <c r="E2200" s="0" t="s">
-        <v>8136</v>
+        <v>8137</v>
       </c>
       <c r="F2200" s="0" t="s">
-        <v>8137</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="2201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2201" s="0" t="s">
-        <v>8138</v>
+        <v>8139</v>
       </c>
       <c r="B2201" s="0" t="s">
         <v>156</v>
       </c>
       <c r="D2201" s="0" t="s">
-        <v>8139</v>
+        <v>8140</v>
       </c>
       <c r="E2201" s="0" t="s">
-        <v>8140</v>
+        <v>8141</v>
       </c>
       <c r="F2201" s="0" t="s">
-        <v>8141</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="2202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2202" s="0" t="s">
-        <v>8142</v>
+        <v>8143</v>
       </c>
       <c r="B2202" s="0" t="s">
         <v>401</v>
       </c>
       <c r="D2202" s="0" t="s">
-        <v>8143</v>
+        <v>8144</v>
       </c>
       <c r="E2202" s="0" t="s">
-        <v>8144</v>
+        <v>8145</v>
       </c>
       <c r="F2202" s="0" t="s">
-        <v>8145</v>
+        <v>8146</v>
       </c>
     </row>
     <row r="2203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2203" s="0" t="s">
-        <v>8146</v>
+        <v>8147</v>
       </c>
       <c r="B2203" s="0" t="s">
         <v>156</v>
       </c>
       <c r="D2203" s="0" t="s">
-        <v>8147</v>
+        <v>8148</v>
       </c>
       <c r="E2203" s="0" t="s">
-        <v>8148</v>
+        <v>8149</v>
       </c>
       <c r="F2203" s="0" t="s">
-        <v>8149</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="2204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2204" s="0" t="s">
-        <v>8150</v>
+        <v>8151</v>
       </c>
       <c r="B2204" s="0" t="s">
         <v>156</v>
       </c>
       <c r="D2204" s="0" t="s">
-        <v>8151</v>
+        <v>8152</v>
       </c>
       <c r="E2204" s="0" t="s">
-        <v>8152</v>
+        <v>8153</v>
       </c>
       <c r="F2204" s="0" t="s">
-        <v>8153</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="2205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2205" s="0" t="s">
-        <v>8154</v>
+        <v>8155</v>
       </c>
       <c r="B2205" s="0" t="s">
         <v>156</v>
       </c>
       <c r="D2205" s="0" t="s">
-        <v>8155</v>
+        <v>8156</v>
       </c>
       <c r="E2205" s="0" t="s">
-        <v>8156</v>
+        <v>8157</v>
       </c>
       <c r="F2205" s="0" t="s">
-        <v>8157</v>
+        <v>8158</v>
       </c>
     </row>
     <row r="2206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2206" s="0" t="s">
-        <v>8158</v>
+        <v>8159</v>
       </c>
       <c r="B2206" s="0" t="s">
         <v>156</v>
       </c>
       <c r="D2206" s="0" t="s">
-        <v>8159</v>
+        <v>8160</v>
       </c>
       <c r="E2206" s="0" t="s">
-        <v>8160</v>
+        <v>8161</v>
       </c>
       <c r="F2206" s="0" t="s">
-        <v>8161</v>
+        <v>8162</v>
       </c>
     </row>
     <row r="2207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2207" s="0" t="s">
-        <v>8162</v>
+        <v>8163</v>
       </c>
       <c r="B2207" s="0" t="s">
         <v>125</v>
       </c>
       <c r="D2207" s="0" t="s">
-        <v>8163</v>
+        <v>8164</v>
       </c>
       <c r="E2207" s="0" t="s">
-        <v>8164</v>
+        <v>8165</v>
       </c>
       <c r="F2207" s="0" t="s">
-        <v>8165</v>
+        <v>8166</v>
       </c>
     </row>
     <row r="2208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2208" s="0" t="s">
-        <v>8166</v>
+        <v>8167</v>
       </c>
       <c r="B2208" s="0" t="s">
         <v>156</v>
       </c>
       <c r="D2208" s="0" t="s">
-        <v>8167</v>
+        <v>8168</v>
       </c>
       <c r="E2208" s="0" t="s">
-        <v>8168</v>
+        <v>8169</v>
       </c>
       <c r="F2208" s="0" t="s">
-        <v>8169</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="2209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2209" s="0" t="s">
-        <v>8170</v>
+        <v>8171</v>
       </c>
       <c r="B2209" s="0" t="s">
         <v>156</v>
       </c>
       <c r="D2209" s="0" t="s">
-        <v>8171</v>
+        <v>8172</v>
       </c>
       <c r="E2209" s="0" t="s">
-        <v>8172</v>
+        <v>8173</v>
       </c>
       <c r="F2209" s="0" t="s">
-        <v>8173</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="2210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2210" s="0" t="s">
-        <v>8174</v>
+        <v>8175</v>
       </c>
       <c r="B2210" s="0" t="s">
         <v>156</v>
       </c>
       <c r="D2210" s="0" t="s">
-        <v>8175</v>
+        <v>8176</v>
       </c>
       <c r="E2210" s="0" t="s">
-        <v>8176</v>
+        <v>8177</v>
       </c>
       <c r="F2210" s="0" t="s">
-        <v>8177</v>
+        <v>8178</v>
       </c>
     </row>
     <row r="2211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2211" s="0" t="s">
-        <v>8178</v>
+        <v>8179</v>
       </c>
       <c r="B2211" s="0" t="s">
         <v>6551</v>
       </c>
       <c r="D2211" s="0" t="s">
-        <v>8179</v>
+        <v>8180</v>
       </c>
       <c r="E2211" s="0" t="s">
-        <v>8180</v>
+        <v>8181</v>
       </c>
       <c r="F2211" s="0" t="s">
-        <v>8181</v>
+        <v>8182</v>
       </c>
     </row>
     <row r="2212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2212" s="0" t="s">
-        <v>8182</v>
+        <v>8183</v>
       </c>
       <c r="B2212" s="0" t="s">
         <v>6551</v>
       </c>
       <c r="D2212" s="0" t="s">
-        <v>8183</v>
+        <v>8184</v>
       </c>
       <c r="E2212" s="0" t="s">
-        <v>8184</v>
+        <v>8185</v>
       </c>
       <c r="F2212" s="0" t="s">
-        <v>8185</v>
+        <v>8186</v>
       </c>
     </row>
     <row r="2213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2213" s="0" t="s">
-        <v>8186</v>
+        <v>8187</v>
       </c>
       <c r="B2213" s="0" t="s">
         <v>6551</v>
       </c>
       <c r="D2213" s="0" t="s">
-        <v>8187</v>
+        <v>8188</v>
       </c>
       <c r="E2213" s="0" t="s">
-        <v>8188</v>
+        <v>8189</v>
       </c>
       <c r="F2213" s="0" t="s">
-        <v>8189</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="2214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2214" s="0" t="s">
-        <v>8190</v>
+        <v>8191</v>
       </c>
       <c r="B2214" s="0" t="s">
         <v>1064</v>
       </c>
       <c r="D2214" s="0" t="s">
-        <v>8191</v>
+        <v>8192</v>
       </c>
       <c r="E2214" s="0" t="s">
-        <v>8192</v>
+        <v>8193</v>
       </c>
       <c r="F2214" s="0" t="s">
-        <v>8193</v>
+        <v>8194</v>
       </c>
     </row>
     <row r="2215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2215" s="0" t="s">
-        <v>8194</v>
+        <v>8195</v>
       </c>
       <c r="B2215" s="0" t="s">
         <v>6551</v>
       </c>
       <c r="D2215" s="0" t="s">
-        <v>8195</v>
+        <v>8196</v>
       </c>
       <c r="E2215" s="0" t="s">
-        <v>8196</v>
+        <v>8197</v>
       </c>
       <c r="F2215" s="0" t="s">
-        <v>8197</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="2216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2216" s="0" t="s">
-        <v>8198</v>
+        <v>8199</v>
       </c>
       <c r="B2216" s="0" t="s">
         <v>156</v>
@@ -70049,24 +70052,24 @@
     </row>
     <row r="2217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2217" s="0" t="s">
-        <v>8199</v>
+        <v>8200</v>
       </c>
       <c r="B2217" s="0" t="s">
         <v>156</v>
       </c>
       <c r="D2217" s="0" t="s">
-        <v>8200</v>
+        <v>8201</v>
       </c>
       <c r="E2217" s="0" t="s">
-        <v>8201</v>
+        <v>8202</v>
       </c>
       <c r="F2217" s="0" t="s">
-        <v>8202</v>
+        <v>8203</v>
       </c>
     </row>
     <row r="2218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2218" s="0" t="s">
-        <v>8203</v>
+        <v>8204</v>
       </c>
       <c r="B2218" s="0" t="s">
         <v>156</v>
@@ -70075,273 +70078,273 @@
         <v>3697</v>
       </c>
       <c r="D2218" s="0" t="s">
-        <v>8204</v>
+        <v>8205</v>
       </c>
       <c r="E2218" s="0" t="s">
-        <v>8204</v>
+        <v>8205</v>
       </c>
       <c r="F2218" s="0" t="s">
-        <v>8204</v>
+        <v>8205</v>
       </c>
     </row>
     <row r="2219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2219" s="0" t="s">
-        <v>8205</v>
+        <v>8206</v>
       </c>
       <c r="B2219" s="0" t="s">
         <v>161</v>
       </c>
       <c r="D2219" s="0" t="s">
-        <v>8206</v>
+        <v>8207</v>
       </c>
       <c r="E2219" s="0" t="s">
-        <v>8207</v>
+        <v>8208</v>
       </c>
       <c r="F2219" s="0" t="s">
-        <v>8208</v>
+        <v>8209</v>
       </c>
     </row>
     <row r="2220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2220" s="0" t="s">
-        <v>8209</v>
+        <v>8210</v>
       </c>
       <c r="B2220" s="0" t="s">
         <v>98</v>
       </c>
       <c r="D2220" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="E2220" s="0" t="s">
-        <v>8211</v>
+        <v>8212</v>
       </c>
       <c r="F2220" s="0" t="s">
-        <v>8212</v>
+        <v>8213</v>
       </c>
     </row>
     <row r="2221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2221" s="0" t="s">
-        <v>8213</v>
+        <v>8214</v>
       </c>
       <c r="B2221" s="0" t="s">
         <v>161</v>
       </c>
       <c r="D2221" s="0" t="s">
-        <v>8214</v>
+        <v>8215</v>
       </c>
       <c r="E2221" s="0" t="s">
-        <v>8215</v>
+        <v>8216</v>
       </c>
       <c r="F2221" s="0" t="s">
-        <v>8216</v>
+        <v>8217</v>
       </c>
     </row>
     <row r="2222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2222" s="0" t="s">
-        <v>8217</v>
+        <v>8218</v>
       </c>
       <c r="B2222" s="0" t="s">
         <v>161</v>
       </c>
       <c r="D2222" s="0" t="s">
-        <v>8218</v>
+        <v>8219</v>
       </c>
       <c r="E2222" s="0" t="s">
-        <v>8219</v>
+        <v>8220</v>
       </c>
       <c r="F2222" s="0" t="s">
-        <v>8220</v>
+        <v>8221</v>
       </c>
     </row>
     <row r="2223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2223" s="0" t="s">
-        <v>8221</v>
+        <v>8222</v>
       </c>
       <c r="B2223" s="0" t="s">
         <v>161</v>
       </c>
       <c r="D2223" s="0" t="s">
-        <v>8222</v>
+        <v>8223</v>
       </c>
       <c r="E2223" s="0" t="s">
-        <v>8223</v>
+        <v>8224</v>
       </c>
       <c r="F2223" s="0" t="s">
-        <v>8224</v>
+        <v>8225</v>
       </c>
     </row>
     <row r="2224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2224" s="0" t="s">
-        <v>8225</v>
+        <v>8226</v>
       </c>
       <c r="B2224" s="0" t="s">
         <v>98</v>
       </c>
       <c r="D2224" s="0" t="s">
-        <v>8226</v>
+        <v>8227</v>
       </c>
       <c r="E2224" s="0" t="s">
-        <v>8227</v>
+        <v>8228</v>
       </c>
       <c r="F2224" s="0" t="s">
-        <v>8228</v>
+        <v>8229</v>
       </c>
     </row>
     <row r="2225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2225" s="0" t="s">
-        <v>8229</v>
+        <v>8230</v>
       </c>
       <c r="B2225" s="0" t="s">
         <v>26</v>
       </c>
       <c r="D2225" s="0" t="s">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E2225" s="0" t="s">
-        <v>8231</v>
+        <v>8232</v>
       </c>
       <c r="F2225" s="0" t="s">
-        <v>8232</v>
+        <v>8233</v>
       </c>
     </row>
     <row r="2226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2226" s="0" t="s">
-        <v>8233</v>
+        <v>8234</v>
       </c>
       <c r="B2226" s="0" t="s">
         <v>26</v>
       </c>
       <c r="D2226" s="0" t="s">
-        <v>8234</v>
+        <v>8235</v>
       </c>
       <c r="E2226" s="0" t="s">
-        <v>8235</v>
+        <v>8236</v>
       </c>
       <c r="F2226" s="0" t="s">
-        <v>8236</v>
+        <v>8237</v>
       </c>
     </row>
     <row r="2227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2227" s="0" t="s">
-        <v>8237</v>
+        <v>8238</v>
       </c>
       <c r="B2227" s="0" t="s">
         <v>98</v>
       </c>
       <c r="D2227" s="0" t="s">
-        <v>8238</v>
+        <v>8239</v>
       </c>
       <c r="E2227" s="0" t="s">
-        <v>8239</v>
+        <v>8240</v>
       </c>
       <c r="F2227" s="0" t="s">
-        <v>8240</v>
+        <v>8241</v>
       </c>
     </row>
     <row r="2228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2228" s="0" t="s">
-        <v>8241</v>
+        <v>8242</v>
       </c>
       <c r="B2228" s="0" t="s">
         <v>26</v>
       </c>
       <c r="D2228" s="0" t="s">
-        <v>8242</v>
+        <v>8243</v>
       </c>
       <c r="E2228" s="0" t="s">
-        <v>8243</v>
+        <v>8244</v>
       </c>
       <c r="F2228" s="0" t="s">
-        <v>8244</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="2229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2229" s="0" t="s">
-        <v>8245</v>
+        <v>8246</v>
       </c>
       <c r="B2229" s="0" t="s">
         <v>26</v>
       </c>
       <c r="D2229" s="0" t="s">
-        <v>8246</v>
+        <v>8247</v>
       </c>
       <c r="E2229" s="0" t="s">
-        <v>8247</v>
+        <v>8248</v>
       </c>
       <c r="F2229" s="0" t="s">
-        <v>8248</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="2230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2230" s="0" t="s">
-        <v>8249</v>
+        <v>8250</v>
       </c>
       <c r="B2230" s="0" t="s">
         <v>26</v>
       </c>
       <c r="D2230" s="0" t="s">
-        <v>8250</v>
+        <v>8251</v>
       </c>
       <c r="E2230" s="0" t="s">
-        <v>8251</v>
+        <v>8252</v>
       </c>
       <c r="F2230" s="0" t="s">
-        <v>8252</v>
+        <v>8253</v>
       </c>
     </row>
     <row r="2231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2231" s="0" t="s">
-        <v>8253</v>
+        <v>8254</v>
       </c>
       <c r="B2231" s="0" t="s">
         <v>26</v>
       </c>
       <c r="D2231" s="0" t="s">
-        <v>8254</v>
+        <v>8255</v>
       </c>
       <c r="E2231" s="0" t="s">
-        <v>8255</v>
+        <v>8256</v>
       </c>
       <c r="F2231" s="0" t="s">
-        <v>8256</v>
+        <v>8257</v>
       </c>
     </row>
     <row r="2232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2232" s="0" t="s">
-        <v>8257</v>
+        <v>8258</v>
       </c>
       <c r="B2232" s="0" t="s">
         <v>98</v>
       </c>
       <c r="D2232" s="0" t="s">
-        <v>8258</v>
+        <v>8259</v>
       </c>
       <c r="E2232" s="0" t="s">
-        <v>8259</v>
+        <v>8260</v>
       </c>
       <c r="F2232" s="0" t="s">
-        <v>8260</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="2233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2233" s="0" t="s">
-        <v>8261</v>
+        <v>8262</v>
       </c>
       <c r="B2233" s="0" t="s">
         <v>125</v>
       </c>
       <c r="D2233" s="0" t="s">
-        <v>8262</v>
+        <v>8263</v>
       </c>
       <c r="E2233" s="0" t="s">
-        <v>8263</v>
+        <v>8264</v>
       </c>
       <c r="F2233" s="0" t="s">
-        <v>8264</v>
+        <v>8265</v>
       </c>
     </row>
     <row r="2234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2234" s="0" t="s">
-        <v>8265</v>
+        <v>8266</v>
       </c>
       <c r="B2234" s="0" t="s">
         <v>98</v>
@@ -70350,18 +70353,18 @@
         <v>2333</v>
       </c>
       <c r="D2234" s="0" t="s">
-        <v>8266</v>
+        <v>8267</v>
       </c>
       <c r="E2234" s="0" t="s">
-        <v>8267</v>
+        <v>8268</v>
       </c>
       <c r="F2234" s="0" t="s">
-        <v>8268</v>
+        <v>8269</v>
       </c>
     </row>
     <row r="2235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2235" s="0" t="s">
-        <v>8269</v>
+        <v>8270</v>
       </c>
       <c r="B2235" s="0" t="s">
         <v>1192</v>
@@ -70370,18 +70373,18 @@
         <v>2333</v>
       </c>
       <c r="D2235" s="0" t="s">
-        <v>8270</v>
+        <v>8271</v>
       </c>
       <c r="E2235" s="0" t="s">
-        <v>8271</v>
+        <v>8272</v>
       </c>
       <c r="F2235" s="0" t="s">
-        <v>8272</v>
+        <v>8273</v>
       </c>
     </row>
     <row r="2236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2236" s="0" t="s">
-        <v>8273</v>
+        <v>8274</v>
       </c>
       <c r="B2236" s="0" t="s">
         <v>547</v>
@@ -70390,18 +70393,18 @@
         <v>2333</v>
       </c>
       <c r="D2236" s="0" t="s">
-        <v>8274</v>
+        <v>8275</v>
       </c>
       <c r="E2236" s="0" t="s">
-        <v>8275</v>
+        <v>8276</v>
       </c>
       <c r="F2236" s="0" t="s">
-        <v>8276</v>
+        <v>8277</v>
       </c>
     </row>
     <row r="2237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2237" s="0" t="s">
-        <v>8277</v>
+        <v>8278</v>
       </c>
       <c r="B2237" s="0" t="s">
         <v>547</v>
@@ -70410,18 +70413,18 @@
         <v>3309</v>
       </c>
       <c r="D2237" s="0" t="s">
-        <v>8278</v>
+        <v>8279</v>
       </c>
       <c r="E2237" s="0" t="s">
-        <v>8279</v>
+        <v>8280</v>
       </c>
       <c r="F2237" s="0" t="s">
-        <v>8280</v>
+        <v>8281</v>
       </c>
     </row>
     <row r="2238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2238" s="0" t="s">
-        <v>8281</v>
+        <v>8282</v>
       </c>
       <c r="B2238" s="0" t="s">
         <v>98</v>
@@ -70441,7 +70444,7 @@
     </row>
     <row r="2239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2239" s="0" t="s">
-        <v>8282</v>
+        <v>8283</v>
       </c>
       <c r="B2239" s="0" t="s">
         <v>98</v>
@@ -70461,58 +70464,58 @@
     </row>
     <row r="2240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2240" s="0" t="s">
-        <v>8283</v>
+        <v>8284</v>
       </c>
       <c r="B2240" s="0" t="s">
         <v>98</v>
       </c>
       <c r="D2240" s="0" t="s">
-        <v>8284</v>
+        <v>8285</v>
       </c>
       <c r="E2240" s="0" t="s">
-        <v>8285</v>
+        <v>8286</v>
       </c>
       <c r="F2240" s="0" t="s">
-        <v>8286</v>
+        <v>8287</v>
       </c>
     </row>
     <row r="2241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2241" s="0" t="s">
-        <v>8287</v>
+        <v>8288</v>
       </c>
       <c r="B2241" s="0" t="s">
         <v>98</v>
       </c>
       <c r="D2241" s="0" t="s">
-        <v>8288</v>
+        <v>8289</v>
       </c>
       <c r="E2241" s="0" t="s">
-        <v>8289</v>
+        <v>8290</v>
       </c>
       <c r="F2241" s="0" t="s">
-        <v>8290</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="2242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2242" s="0" t="s">
-        <v>8291</v>
+        <v>8292</v>
       </c>
       <c r="B2242" s="0" t="s">
         <v>98</v>
       </c>
       <c r="D2242" s="0" t="s">
-        <v>8292</v>
+        <v>8293</v>
       </c>
       <c r="E2242" s="0" t="s">
-        <v>8293</v>
+        <v>8294</v>
       </c>
       <c r="F2242" s="0" t="s">
-        <v>8294</v>
+        <v>8295</v>
       </c>
     </row>
     <row r="2243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2243" s="0" t="s">
-        <v>8295</v>
+        <v>8296</v>
       </c>
       <c r="B2243" s="0" t="s">
         <v>98</v>
@@ -70521,18 +70524,18 @@
         <v>2922</v>
       </c>
       <c r="D2243" s="0" t="s">
-        <v>8296</v>
+        <v>8297</v>
       </c>
       <c r="E2243" s="0" t="s">
-        <v>8297</v>
+        <v>8298</v>
       </c>
       <c r="F2243" s="0" t="s">
-        <v>8298</v>
+        <v>8299</v>
       </c>
     </row>
     <row r="2244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2244" s="0" t="s">
-        <v>8299</v>
+        <v>8300</v>
       </c>
       <c r="B2244" s="0" t="s">
         <v>2431</v>
@@ -70541,35 +70544,35 @@
         <v>2922</v>
       </c>
       <c r="D2244" s="0" t="s">
-        <v>8300</v>
+        <v>8301</v>
       </c>
       <c r="E2244" s="0" t="s">
-        <v>8301</v>
+        <v>8302</v>
       </c>
       <c r="F2244" s="0" t="s">
-        <v>8302</v>
+        <v>8303</v>
       </c>
     </row>
     <row r="2245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2245" s="0" t="s">
-        <v>8303</v>
+        <v>8304</v>
       </c>
       <c r="B2245" s="0" t="s">
         <v>1601</v>
       </c>
       <c r="D2245" s="0" t="s">
-        <v>8304</v>
+        <v>8305</v>
       </c>
       <c r="E2245" s="0" t="s">
-        <v>8305</v>
+        <v>8306</v>
       </c>
       <c r="F2245" s="0" t="s">
-        <v>8306</v>
+        <v>8307</v>
       </c>
     </row>
     <row r="2246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2246" s="0" t="s">
-        <v>8307</v>
+        <v>8308</v>
       </c>
       <c r="B2246" s="0" t="s">
         <v>2634</v>
@@ -70578,55 +70581,55 @@
         <v>4776</v>
       </c>
       <c r="D2246" s="0" t="s">
-        <v>8308</v>
+        <v>8309</v>
       </c>
       <c r="E2246" s="0" t="s">
-        <v>8309</v>
+        <v>8310</v>
       </c>
       <c r="F2246" s="0" t="s">
-        <v>8310</v>
+        <v>8311</v>
       </c>
     </row>
     <row r="2247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2247" s="0" t="s">
-        <v>8311</v>
+        <v>8312</v>
       </c>
       <c r="B2247" s="0" t="s">
         <v>2634</v>
       </c>
       <c r="D2247" s="0" t="s">
-        <v>8312</v>
+        <v>8313</v>
       </c>
       <c r="E2247" s="0" t="s">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="F2247" s="0" t="s">
-        <v>8314</v>
+        <v>8315</v>
       </c>
     </row>
     <row r="2248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2248" s="0" t="s">
-        <v>8315</v>
+        <v>8316</v>
       </c>
       <c r="B2248" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2248" s="0" t="s">
-        <v>8316</v>
+        <v>8317</v>
       </c>
       <c r="E2248" s="0" t="s">
-        <v>8317</v>
+        <v>8318</v>
       </c>
       <c r="F2248" s="0" t="s">
-        <v>8318</v>
+        <v>8319</v>
       </c>
     </row>
     <row r="2249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2249" s="0" t="s">
-        <v>8319</v>
+        <v>8320</v>
       </c>
       <c r="B2249" s="0" t="s">
-        <v>8320</v>
+        <v>8321</v>
       </c>
       <c r="C2249" s="0" t="s">
         <v>4776</v>
@@ -70643,81 +70646,81 @@
     </row>
     <row r="2250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2250" s="0" t="s">
-        <v>8321</v>
+        <v>8322</v>
       </c>
       <c r="B2250" s="0" t="s">
         <v>4482</v>
       </c>
       <c r="D2250" s="0" t="s">
-        <v>8322</v>
+        <v>8323</v>
       </c>
       <c r="E2250" s="0" t="s">
-        <v>8323</v>
+        <v>8324</v>
       </c>
       <c r="F2250" s="0" t="s">
-        <v>8324</v>
+        <v>8325</v>
       </c>
     </row>
     <row r="2251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2251" s="0" t="s">
-        <v>8325</v>
+        <v>8326</v>
       </c>
       <c r="B2251" s="0" t="s">
         <v>401</v>
       </c>
       <c r="D2251" s="0" t="s">
-        <v>8326</v>
+        <v>8327</v>
       </c>
       <c r="E2251" s="0" t="s">
-        <v>8327</v>
+        <v>8328</v>
       </c>
       <c r="F2251" s="0" t="s">
-        <v>8328</v>
+        <v>8329</v>
       </c>
     </row>
     <row r="2252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2252" s="0" t="s">
-        <v>8329</v>
+        <v>8330</v>
       </c>
       <c r="B2252" s="0" t="s">
         <v>125</v>
       </c>
       <c r="C2252" s="0" t="s">
-        <v>8330</v>
+        <v>8331</v>
       </c>
       <c r="D2252" s="0" t="s">
-        <v>8331</v>
+        <v>8332</v>
       </c>
       <c r="E2252" s="0" t="s">
-        <v>8332</v>
+        <v>8333</v>
       </c>
       <c r="F2252" s="0" t="s">
-        <v>8333</v>
+        <v>8334</v>
       </c>
     </row>
     <row r="2253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2253" s="0" t="s">
-        <v>8334</v>
+        <v>8335</v>
       </c>
       <c r="B2253" s="0" t="s">
         <v>125</v>
       </c>
       <c r="C2253" s="0" t="s">
-        <v>8330</v>
+        <v>8331</v>
       </c>
       <c r="D2253" s="0" t="s">
-        <v>8335</v>
+        <v>8336</v>
       </c>
       <c r="E2253" s="0" t="s">
-        <v>8336</v>
+        <v>8337</v>
       </c>
       <c r="F2253" s="0" t="s">
-        <v>8337</v>
+        <v>8338</v>
       </c>
     </row>
     <row r="2254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2254" s="0" t="s">
-        <v>8338</v>
+        <v>8339</v>
       </c>
       <c r="B2254" s="0" t="s">
         <v>44</v>
@@ -70737,7 +70740,7 @@
     </row>
     <row r="2255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2255" s="0" t="s">
-        <v>8339</v>
+        <v>8340</v>
       </c>
       <c r="B2255" s="0" t="s">
         <v>125</v>
@@ -70746,18 +70749,18 @@
         <v>3571</v>
       </c>
       <c r="D2255" s="0" t="s">
-        <v>8340</v>
+        <v>8341</v>
       </c>
       <c r="E2255" s="0" t="s">
-        <v>8341</v>
+        <v>8342</v>
       </c>
       <c r="F2255" s="0" t="s">
-        <v>8342</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="2256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2256" s="0" t="s">
-        <v>8343</v>
+        <v>8344</v>
       </c>
       <c r="B2256" s="0" t="s">
         <v>125</v>
@@ -70766,18 +70769,18 @@
         <v>3571</v>
       </c>
       <c r="D2256" s="0" t="s">
-        <v>8344</v>
+        <v>8345</v>
       </c>
       <c r="E2256" s="0" t="s">
-        <v>8345</v>
+        <v>8346</v>
       </c>
       <c r="F2256" s="0" t="s">
-        <v>8346</v>
+        <v>8347</v>
       </c>
     </row>
     <row r="2257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2257" s="0" t="s">
-        <v>8347</v>
+        <v>8348</v>
       </c>
       <c r="B2257" s="0" t="s">
         <v>125</v>
@@ -70786,18 +70789,18 @@
         <v>3571</v>
       </c>
       <c r="D2257" s="0" t="s">
-        <v>8348</v>
+        <v>8349</v>
       </c>
       <c r="E2257" s="0" t="s">
-        <v>8349</v>
+        <v>8350</v>
       </c>
       <c r="F2257" s="0" t="s">
-        <v>8350</v>
+        <v>8351</v>
       </c>
     </row>
     <row r="2258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2258" s="0" t="s">
-        <v>8351</v>
+        <v>8352</v>
       </c>
       <c r="B2258" s="0" t="s">
         <v>125</v>
@@ -70806,18 +70809,18 @@
         <v>3571</v>
       </c>
       <c r="D2258" s="0" t="s">
-        <v>8352</v>
+        <v>8353</v>
       </c>
       <c r="E2258" s="0" t="s">
-        <v>8353</v>
+        <v>8354</v>
       </c>
       <c r="F2258" s="0" t="s">
-        <v>8354</v>
+        <v>8355</v>
       </c>
     </row>
     <row r="2259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2259" s="0" t="s">
-        <v>8355</v>
+        <v>8356</v>
       </c>
       <c r="B2259" s="0" t="s">
         <v>4218</v>
@@ -70826,18 +70829,18 @@
         <v>3571</v>
       </c>
       <c r="D2259" s="0" t="s">
-        <v>8356</v>
+        <v>8357</v>
       </c>
       <c r="E2259" s="0" t="s">
-        <v>8357</v>
+        <v>8358</v>
       </c>
       <c r="F2259" s="0" t="s">
-        <v>8358</v>
+        <v>8359</v>
       </c>
     </row>
     <row r="2260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2260" s="0" t="s">
-        <v>8359</v>
+        <v>8360</v>
       </c>
       <c r="B2260" s="0" t="s">
         <v>4218</v>
@@ -70846,18 +70849,18 @@
         <v>3571</v>
       </c>
       <c r="D2260" s="0" t="s">
-        <v>8360</v>
+        <v>8361</v>
       </c>
       <c r="E2260" s="0" t="s">
-        <v>8361</v>
+        <v>8362</v>
       </c>
       <c r="F2260" s="0" t="s">
-        <v>8362</v>
+        <v>8363</v>
       </c>
     </row>
     <row r="2261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2261" s="0" t="s">
-        <v>8363</v>
+        <v>8364</v>
       </c>
       <c r="B2261" s="0" t="s">
         <v>4218</v>
@@ -70866,18 +70869,18 @@
         <v>3571</v>
       </c>
       <c r="D2261" s="0" t="s">
-        <v>8364</v>
+        <v>8365</v>
       </c>
       <c r="E2261" s="0" t="s">
-        <v>8365</v>
+        <v>8366</v>
       </c>
       <c r="F2261" s="0" t="s">
-        <v>8366</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="2262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2262" s="0" t="s">
-        <v>8367</v>
+        <v>8368</v>
       </c>
       <c r="B2262" s="0" t="s">
         <v>168</v>
@@ -70886,18 +70889,18 @@
         <v>5555</v>
       </c>
       <c r="D2262" s="0" t="s">
-        <v>8368</v>
+        <v>8369</v>
       </c>
       <c r="E2262" s="0" t="s">
-        <v>8369</v>
+        <v>8370</v>
       </c>
       <c r="F2262" s="0" t="s">
-        <v>8370</v>
+        <v>8371</v>
       </c>
     </row>
     <row r="2263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2263" s="0" t="s">
-        <v>8371</v>
+        <v>8372</v>
       </c>
       <c r="B2263" s="0" t="s">
         <v>168</v>
@@ -70906,18 +70909,18 @@
         <v>4302</v>
       </c>
       <c r="D2263" s="0" t="s">
-        <v>8372</v>
+        <v>8373</v>
       </c>
       <c r="E2263" s="0" t="s">
-        <v>8373</v>
+        <v>8374</v>
       </c>
       <c r="F2263" s="0" t="s">
-        <v>8374</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="2264" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2264" s="0" t="s">
-        <v>8375</v>
+        <v>8376</v>
       </c>
       <c r="B2264" s="0" t="s">
         <v>2431</v>
@@ -70926,18 +70929,18 @@
         <v>2922</v>
       </c>
       <c r="D2264" s="2" t="s">
-        <v>8376</v>
+        <v>8377</v>
       </c>
       <c r="E2264" s="2" t="s">
-        <v>8377</v>
+        <v>8378</v>
       </c>
       <c r="F2264" s="2" t="s">
-        <v>8378</v>
+        <v>8379</v>
       </c>
     </row>
     <row r="2265" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2265" s="0" t="s">
-        <v>8379</v>
+        <v>8380</v>
       </c>
       <c r="B2265" s="0" t="s">
         <v>2431</v>
@@ -70946,18 +70949,18 @@
         <v>2922</v>
       </c>
       <c r="D2265" s="2" t="s">
-        <v>8380</v>
+        <v>8381</v>
       </c>
       <c r="E2265" s="2" t="s">
-        <v>8381</v>
+        <v>8382</v>
       </c>
       <c r="F2265" s="2" t="s">
-        <v>8382</v>
+        <v>8383</v>
       </c>
     </row>
     <row r="2266" customFormat="false" ht="140.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2266" s="0" t="s">
-        <v>8383</v>
+        <v>8384</v>
       </c>
       <c r="B2266" s="0" t="s">
         <v>2431</v>
@@ -70966,69 +70969,69 @@
         <v>2922</v>
       </c>
       <c r="D2266" s="2" t="s">
-        <v>8384</v>
+        <v>8385</v>
       </c>
       <c r="E2266" s="2" t="s">
-        <v>8385</v>
+        <v>8386</v>
       </c>
       <c r="F2266" s="2" t="s">
-        <v>8386</v>
+        <v>8387</v>
       </c>
     </row>
     <row r="2267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2267" s="0" t="s">
-        <v>8387</v>
+        <v>8388</v>
       </c>
       <c r="B2267" s="0" t="s">
         <v>607</v>
       </c>
       <c r="D2267" s="0" t="s">
-        <v>8388</v>
+        <v>8389</v>
       </c>
       <c r="E2267" s="0" t="s">
-        <v>8389</v>
+        <v>8390</v>
       </c>
       <c r="F2267" s="0" t="s">
-        <v>8390</v>
+        <v>8391</v>
       </c>
     </row>
     <row r="2268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2268" s="0" t="s">
-        <v>8391</v>
+        <v>8392</v>
       </c>
       <c r="B2268" s="0" t="s">
         <v>607</v>
       </c>
       <c r="D2268" s="0" t="s">
-        <v>8392</v>
+        <v>8393</v>
       </c>
       <c r="E2268" s="0" t="s">
-        <v>8393</v>
+        <v>8394</v>
       </c>
       <c r="F2268" s="0" t="s">
-        <v>8394</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="2269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2269" s="0" t="s">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="B2269" s="0" t="s">
         <v>607</v>
       </c>
       <c r="D2269" s="0" t="s">
-        <v>8396</v>
+        <v>8397</v>
       </c>
       <c r="E2269" s="0" t="s">
-        <v>8397</v>
+        <v>8398</v>
       </c>
       <c r="F2269" s="0" t="s">
-        <v>8398</v>
+        <v>8399</v>
       </c>
     </row>
     <row r="2270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2270" s="0" t="s">
-        <v>8399</v>
+        <v>8400</v>
       </c>
       <c r="B2270" s="0" t="s">
         <v>494</v>
@@ -71037,18 +71040,18 @@
         <v>843</v>
       </c>
       <c r="D2270" s="0" t="s">
-        <v>8400</v>
+        <v>8401</v>
       </c>
       <c r="E2270" s="0" t="s">
-        <v>8401</v>
+        <v>8402</v>
       </c>
       <c r="F2270" s="0" t="s">
-        <v>8402</v>
+        <v>8403</v>
       </c>
     </row>
     <row r="2271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2271" s="0" t="s">
-        <v>8403</v>
+        <v>8404</v>
       </c>
       <c r="B2271" s="0" t="s">
         <v>494</v>
@@ -71057,18 +71060,18 @@
         <v>843</v>
       </c>
       <c r="D2271" s="0" t="s">
-        <v>8404</v>
+        <v>8405</v>
       </c>
       <c r="E2271" s="0" t="s">
-        <v>8405</v>
+        <v>8406</v>
       </c>
       <c r="F2271" s="0" t="s">
-        <v>8406</v>
+        <v>8407</v>
       </c>
     </row>
     <row r="2272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2272" s="0" t="s">
-        <v>8407</v>
+        <v>8408</v>
       </c>
       <c r="B2272" s="0" t="s">
         <v>494</v>
@@ -71077,18 +71080,18 @@
         <v>843</v>
       </c>
       <c r="D2272" s="0" t="s">
-        <v>8408</v>
+        <v>8409</v>
       </c>
       <c r="E2272" s="0" t="s">
-        <v>8409</v>
+        <v>8410</v>
       </c>
       <c r="F2272" s="0" t="s">
-        <v>8410</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="2273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2273" s="0" t="s">
-        <v>8411</v>
+        <v>8412</v>
       </c>
       <c r="B2273" s="0" t="s">
         <v>494</v>
@@ -71097,18 +71100,18 @@
         <v>843</v>
       </c>
       <c r="D2273" s="0" t="s">
-        <v>8412</v>
+        <v>8413</v>
       </c>
       <c r="E2273" s="0" t="s">
-        <v>8413</v>
+        <v>8414</v>
       </c>
       <c r="F2273" s="0" t="s">
-        <v>8414</v>
+        <v>8415</v>
       </c>
     </row>
     <row r="2274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2274" s="0" t="s">
-        <v>8415</v>
+        <v>8416</v>
       </c>
       <c r="B2274" s="0" t="s">
         <v>494</v>
@@ -71117,365 +71120,365 @@
         <v>843</v>
       </c>
       <c r="D2274" s="0" t="s">
-        <v>8416</v>
+        <v>8417</v>
       </c>
       <c r="E2274" s="0" t="s">
-        <v>8417</v>
+        <v>8418</v>
       </c>
       <c r="F2274" s="0" t="s">
-        <v>8418</v>
+        <v>8419</v>
       </c>
     </row>
     <row r="2275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2275" s="0" t="s">
-        <v>8419</v>
+        <v>8420</v>
       </c>
       <c r="B2275" s="0" t="s">
         <v>315</v>
       </c>
       <c r="C2275" s="0" t="s">
-        <v>8420</v>
+        <v>8421</v>
       </c>
       <c r="D2275" s="0" t="s">
-        <v>8421</v>
+        <v>8422</v>
       </c>
       <c r="E2275" s="0" t="s">
-        <v>8422</v>
+        <v>8423</v>
       </c>
       <c r="F2275" s="0" t="s">
-        <v>8423</v>
+        <v>8424</v>
       </c>
     </row>
     <row r="2276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2276" s="0" t="s">
-        <v>8424</v>
+        <v>8425</v>
       </c>
       <c r="B2276" s="0" t="s">
         <v>494</v>
       </c>
       <c r="C2276" s="0" t="s">
-        <v>8420</v>
+        <v>8421</v>
       </c>
       <c r="D2276" s="0" t="s">
-        <v>8425</v>
+        <v>8426</v>
       </c>
       <c r="E2276" s="0" t="s">
-        <v>8426</v>
+        <v>8427</v>
       </c>
       <c r="F2276" s="0" t="s">
-        <v>8427</v>
+        <v>8428</v>
       </c>
     </row>
     <row r="2277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2277" s="0" t="s">
-        <v>8428</v>
+        <v>8429</v>
       </c>
       <c r="B2277" s="0" t="s">
         <v>494</v>
       </c>
       <c r="C2277" s="0" t="s">
-        <v>8420</v>
+        <v>8421</v>
       </c>
       <c r="D2277" s="0" t="s">
-        <v>8429</v>
+        <v>8430</v>
       </c>
       <c r="E2277" s="0" t="s">
-        <v>8430</v>
+        <v>8431</v>
       </c>
       <c r="F2277" s="0" t="s">
-        <v>8431</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="2278" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2278" s="0" t="s">
-        <v>8432</v>
+        <v>8433</v>
       </c>
       <c r="B2278" s="0" t="s">
         <v>494</v>
       </c>
       <c r="C2278" s="0" t="s">
-        <v>8420</v>
+        <v>8421</v>
       </c>
       <c r="D2278" s="0" t="s">
-        <v>8433</v>
+        <v>8434</v>
       </c>
       <c r="E2278" s="0" t="s">
-        <v>8434</v>
+        <v>8435</v>
       </c>
       <c r="F2278" s="0" t="s">
-        <v>8435</v>
+        <v>8436</v>
       </c>
     </row>
     <row r="2279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2279" s="0" t="s">
-        <v>8436</v>
+        <v>8437</v>
       </c>
       <c r="B2279" s="0" t="s">
         <v>494</v>
       </c>
       <c r="C2279" s="0" t="s">
-        <v>8420</v>
+        <v>8421</v>
       </c>
       <c r="D2279" s="0" t="s">
-        <v>8437</v>
+        <v>8438</v>
       </c>
       <c r="E2279" s="0" t="s">
-        <v>8438</v>
+        <v>8439</v>
       </c>
       <c r="F2279" s="0" t="s">
-        <v>8439</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="2280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2280" s="0" t="s">
-        <v>8440</v>
+        <v>8441</v>
       </c>
       <c r="B2280" s="0" t="s">
         <v>105</v>
       </c>
       <c r="C2280" s="0" t="s">
-        <v>8420</v>
+        <v>8421</v>
       </c>
       <c r="D2280" s="0" t="s">
-        <v>8441</v>
+        <v>8442</v>
       </c>
       <c r="E2280" s="0" t="s">
-        <v>8442</v>
+        <v>8443</v>
       </c>
       <c r="F2280" s="0" t="s">
-        <v>8443</v>
+        <v>8444</v>
       </c>
     </row>
     <row r="2281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2281" s="0" t="s">
-        <v>8444</v>
+        <v>8445</v>
       </c>
       <c r="B2281" s="0" t="s">
         <v>105</v>
       </c>
       <c r="C2281" s="0" t="s">
-        <v>8420</v>
+        <v>8421</v>
       </c>
       <c r="D2281" s="0" t="s">
-        <v>8445</v>
+        <v>8446</v>
       </c>
       <c r="E2281" s="0" t="s">
-        <v>8446</v>
+        <v>8447</v>
       </c>
       <c r="F2281" s="0" t="s">
-        <v>8447</v>
+        <v>8448</v>
       </c>
     </row>
     <row r="2282" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2282" s="0" t="s">
-        <v>8448</v>
+        <v>8449</v>
       </c>
       <c r="B2282" s="0" t="s">
         <v>105</v>
       </c>
       <c r="C2282" s="0" t="s">
-        <v>8420</v>
+        <v>8421</v>
       </c>
       <c r="D2282" s="0" t="s">
-        <v>8449</v>
+        <v>8450</v>
       </c>
       <c r="E2282" s="0" t="s">
-        <v>8450</v>
+        <v>8451</v>
       </c>
       <c r="F2282" s="0" t="s">
-        <v>8451</v>
+        <v>8452</v>
       </c>
     </row>
     <row r="2283" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2283" s="0" t="s">
-        <v>8452</v>
+        <v>8453</v>
       </c>
       <c r="B2283" s="0" t="s">
         <v>2591</v>
       </c>
       <c r="D2283" s="0" t="s">
-        <v>8453</v>
+        <v>8454</v>
       </c>
       <c r="E2283" s="0" t="s">
-        <v>8454</v>
+        <v>8455</v>
       </c>
       <c r="F2283" s="0" t="s">
-        <v>8455</v>
+        <v>8456</v>
       </c>
     </row>
     <row r="2284" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2284" s="0" t="s">
-        <v>8456</v>
+        <v>8457</v>
       </c>
       <c r="B2284" s="0" t="s">
         <v>3960</v>
       </c>
       <c r="D2284" s="0" t="s">
-        <v>8457</v>
+        <v>8458</v>
       </c>
       <c r="E2284" s="0" t="s">
-        <v>8458</v>
+        <v>8459</v>
       </c>
       <c r="F2284" s="0" t="s">
-        <v>8459</v>
+        <v>8460</v>
       </c>
     </row>
     <row r="2285" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2285" s="0" t="s">
-        <v>8460</v>
+        <v>8461</v>
       </c>
       <c r="B2285" s="0" t="s">
         <v>3960</v>
       </c>
       <c r="D2285" s="0" t="s">
-        <v>8461</v>
+        <v>8462</v>
       </c>
       <c r="E2285" s="0" t="s">
-        <v>8462</v>
+        <v>8463</v>
       </c>
       <c r="F2285" s="0" t="s">
-        <v>8463</v>
+        <v>8464</v>
       </c>
     </row>
     <row r="2286" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2286" s="0" t="s">
-        <v>8464</v>
+        <v>8465</v>
       </c>
       <c r="B2286" s="0" t="s">
         <v>3960</v>
       </c>
       <c r="D2286" s="0" t="s">
-        <v>8465</v>
+        <v>8466</v>
       </c>
       <c r="E2286" s="0" t="s">
-        <v>8466</v>
+        <v>8467</v>
       </c>
       <c r="F2286" s="0" t="s">
-        <v>8467</v>
+        <v>8468</v>
       </c>
     </row>
     <row r="2287" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2287" s="0" t="s">
-        <v>8468</v>
+        <v>8469</v>
       </c>
       <c r="B2287" s="0" t="s">
         <v>3960</v>
       </c>
       <c r="D2287" s="0" t="s">
-        <v>8469</v>
+        <v>8470</v>
       </c>
       <c r="E2287" s="0" t="s">
-        <v>8470</v>
+        <v>8471</v>
       </c>
       <c r="F2287" s="0" t="s">
-        <v>8471</v>
+        <v>8472</v>
       </c>
     </row>
     <row r="2288" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2288" s="0" t="s">
-        <v>8472</v>
+        <v>8473</v>
       </c>
       <c r="B2288" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2288" s="0" t="s">
-        <v>8473</v>
+        <v>8474</v>
       </c>
       <c r="E2288" s="0" t="s">
-        <v>8474</v>
+        <v>8475</v>
       </c>
       <c r="F2288" s="0" t="s">
-        <v>8475</v>
+        <v>8476</v>
       </c>
     </row>
     <row r="2289" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2289" s="0" t="s">
-        <v>8476</v>
+        <v>8477</v>
       </c>
       <c r="B2289" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2289" s="0" t="s">
-        <v>8477</v>
+        <v>8478</v>
       </c>
       <c r="E2289" s="0" t="s">
-        <v>8478</v>
+        <v>8479</v>
       </c>
       <c r="F2289" s="0" t="s">
-        <v>8479</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="2290" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2290" s="0" t="s">
-        <v>8480</v>
+        <v>8481</v>
       </c>
       <c r="B2290" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2290" s="0" t="s">
-        <v>8481</v>
+        <v>8482</v>
       </c>
       <c r="E2290" s="0" t="s">
-        <v>8482</v>
+        <v>8483</v>
       </c>
       <c r="F2290" s="0" t="s">
-        <v>8483</v>
+        <v>8484</v>
       </c>
     </row>
     <row r="2291" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2291" s="0" t="s">
-        <v>8484</v>
+        <v>8485</v>
       </c>
       <c r="B2291" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2291" s="0" t="s">
-        <v>8485</v>
+        <v>8486</v>
       </c>
       <c r="E2291" s="0" t="s">
-        <v>8486</v>
+        <v>8487</v>
       </c>
       <c r="F2291" s="0" t="s">
-        <v>8487</v>
+        <v>8488</v>
       </c>
     </row>
     <row r="2292" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2292" s="0" t="s">
-        <v>8488</v>
+        <v>8489</v>
       </c>
       <c r="B2292" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2292" s="0" t="s">
-        <v>8489</v>
+        <v>8490</v>
       </c>
       <c r="E2292" s="0" t="s">
-        <v>8490</v>
+        <v>8491</v>
       </c>
       <c r="F2292" s="0" t="s">
-        <v>8491</v>
+        <v>8492</v>
       </c>
     </row>
     <row r="2293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2293" s="0" t="s">
-        <v>8492</v>
+        <v>8493</v>
       </c>
       <c r="B2293" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2293" s="0" t="s">
-        <v>8493</v>
+        <v>8494</v>
       </c>
       <c r="E2293" s="0" t="s">
-        <v>8494</v>
+        <v>8495</v>
       </c>
       <c r="F2293" s="0" t="s">
-        <v>8495</v>
+        <v>8496</v>
       </c>
     </row>
     <row r="2294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2294" s="0" t="s">
-        <v>8496</v>
+        <v>8497</v>
       </c>
       <c r="B2294" s="0" t="s">
         <v>105</v>
@@ -71484,437 +71487,437 @@
         <v>905</v>
       </c>
       <c r="E2294" s="0" t="s">
-        <v>8497</v>
+        <v>8498</v>
       </c>
       <c r="F2294" s="0" t="s">
-        <v>8498</v>
+        <v>8499</v>
       </c>
     </row>
     <row r="2295" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2295" s="0" t="s">
-        <v>8499</v>
+        <v>8500</v>
       </c>
       <c r="B2295" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2295" s="0" t="s">
-        <v>8500</v>
+        <v>8501</v>
       </c>
       <c r="E2295" s="0" t="s">
-        <v>8501</v>
+        <v>8502</v>
       </c>
       <c r="F2295" s="0" t="s">
-        <v>8502</v>
+        <v>8503</v>
       </c>
     </row>
     <row r="2296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2296" s="0" t="s">
-        <v>8503</v>
+        <v>8504</v>
       </c>
       <c r="B2296" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2296" s="0" t="s">
-        <v>8504</v>
+        <v>8505</v>
       </c>
       <c r="E2296" s="0" t="s">
-        <v>8505</v>
+        <v>8506</v>
       </c>
       <c r="F2296" s="0" t="s">
-        <v>8506</v>
+        <v>8507</v>
       </c>
     </row>
     <row r="2297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2297" s="0" t="s">
-        <v>8507</v>
+        <v>8508</v>
       </c>
       <c r="B2297" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2297" s="0" t="s">
-        <v>8508</v>
+        <v>8509</v>
       </c>
       <c r="E2297" s="0" t="s">
-        <v>8509</v>
+        <v>8510</v>
       </c>
       <c r="F2297" s="0" t="s">
-        <v>8510</v>
+        <v>8511</v>
       </c>
     </row>
     <row r="2298" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2298" s="0" t="s">
-        <v>8511</v>
+        <v>8512</v>
       </c>
       <c r="B2298" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2298" s="0" t="s">
-        <v>8512</v>
+        <v>8513</v>
       </c>
       <c r="E2298" s="0" t="s">
-        <v>8513</v>
+        <v>8514</v>
       </c>
       <c r="F2298" s="0" t="s">
-        <v>8514</v>
+        <v>8515</v>
       </c>
     </row>
     <row r="2299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2299" s="0" t="s">
-        <v>8515</v>
+        <v>8516</v>
       </c>
       <c r="B2299" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2299" s="0" t="s">
-        <v>8516</v>
+        <v>8517</v>
       </c>
       <c r="E2299" s="0" t="s">
-        <v>8517</v>
+        <v>8518</v>
       </c>
       <c r="F2299" s="0" t="s">
-        <v>8518</v>
+        <v>8519</v>
       </c>
     </row>
     <row r="2300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2300" s="0" t="s">
-        <v>8519</v>
+        <v>8520</v>
       </c>
       <c r="B2300" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2300" s="0" t="s">
-        <v>8520</v>
+        <v>8521</v>
       </c>
       <c r="E2300" s="0" t="s">
-        <v>8521</v>
+        <v>8522</v>
       </c>
       <c r="F2300" s="0" t="s">
-        <v>8522</v>
+        <v>8523</v>
       </c>
     </row>
     <row r="2301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2301" s="0" t="s">
-        <v>8523</v>
+        <v>8524</v>
       </c>
       <c r="B2301" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2301" s="0" t="s">
-        <v>8524</v>
+        <v>8525</v>
       </c>
       <c r="E2301" s="0" t="s">
-        <v>8525</v>
+        <v>8526</v>
       </c>
       <c r="F2301" s="0" t="s">
-        <v>8526</v>
+        <v>8527</v>
       </c>
     </row>
     <row r="2302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2302" s="0" t="s">
-        <v>8527</v>
+        <v>8528</v>
       </c>
       <c r="B2302" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2302" s="0" t="s">
-        <v>8528</v>
+        <v>8529</v>
       </c>
       <c r="E2302" s="0" t="s">
-        <v>8529</v>
+        <v>8530</v>
       </c>
       <c r="F2302" s="0" t="s">
-        <v>8530</v>
+        <v>8531</v>
       </c>
     </row>
     <row r="2303" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2303" s="0" t="s">
-        <v>8531</v>
+        <v>8532</v>
       </c>
       <c r="B2303" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2303" s="0" t="s">
-        <v>8532</v>
+        <v>8533</v>
       </c>
       <c r="E2303" s="0" t="s">
-        <v>8533</v>
+        <v>8534</v>
       </c>
       <c r="F2303" s="0" t="s">
-        <v>8534</v>
+        <v>8535</v>
       </c>
     </row>
     <row r="2304" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2304" s="0" t="s">
-        <v>8535</v>
+        <v>8536</v>
       </c>
       <c r="B2304" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2304" s="0" t="s">
-        <v>8536</v>
+        <v>8537</v>
       </c>
       <c r="E2304" s="0" t="s">
-        <v>8537</v>
+        <v>8538</v>
       </c>
       <c r="F2304" s="0" t="s">
-        <v>8538</v>
+        <v>8539</v>
       </c>
     </row>
     <row r="2305" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2305" s="0" t="s">
-        <v>8539</v>
+        <v>8540</v>
       </c>
       <c r="B2305" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2305" s="0" t="s">
-        <v>8540</v>
+        <v>8541</v>
       </c>
       <c r="E2305" s="0" t="s">
-        <v>8541</v>
+        <v>8542</v>
       </c>
       <c r="F2305" s="0" t="s">
-        <v>8542</v>
+        <v>8543</v>
       </c>
     </row>
     <row r="2306" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2306" s="0" t="s">
-        <v>8543</v>
+        <v>8544</v>
       </c>
       <c r="B2306" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2306" s="0" t="s">
-        <v>8544</v>
+        <v>8545</v>
       </c>
       <c r="E2306" s="0" t="s">
-        <v>8545</v>
+        <v>8546</v>
       </c>
       <c r="F2306" s="0" t="s">
-        <v>8546</v>
+        <v>8547</v>
       </c>
     </row>
     <row r="2307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2307" s="0" t="s">
-        <v>8547</v>
+        <v>8548</v>
       </c>
       <c r="B2307" s="0" t="s">
         <v>465</v>
       </c>
       <c r="D2307" s="0" t="s">
-        <v>8548</v>
+        <v>8549</v>
       </c>
       <c r="E2307" s="0" t="s">
-        <v>8549</v>
+        <v>8550</v>
       </c>
       <c r="F2307" s="0" t="s">
-        <v>8550</v>
+        <v>8551</v>
       </c>
     </row>
     <row r="2308" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2308" s="0" t="s">
-        <v>8551</v>
+        <v>8552</v>
       </c>
       <c r="B2308" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2308" s="0" t="s">
-        <v>8552</v>
+        <v>8553</v>
       </c>
       <c r="E2308" s="0" t="s">
-        <v>8553</v>
+        <v>8554</v>
       </c>
       <c r="F2308" s="0" t="s">
-        <v>8554</v>
+        <v>8555</v>
       </c>
     </row>
     <row r="2309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2309" s="0" t="s">
-        <v>8555</v>
+        <v>8556</v>
       </c>
       <c r="B2309" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2309" s="0" t="s">
-        <v>8556</v>
+        <v>8557</v>
       </c>
       <c r="E2309" s="0" t="s">
-        <v>8557</v>
+        <v>8558</v>
       </c>
       <c r="F2309" s="0" t="s">
-        <v>8558</v>
+        <v>8559</v>
       </c>
     </row>
     <row r="2310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2310" s="0" t="s">
-        <v>8559</v>
+        <v>8560</v>
       </c>
       <c r="B2310" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2310" s="0" t="s">
-        <v>8560</v>
+        <v>8561</v>
       </c>
       <c r="E2310" s="0" t="s">
-        <v>8561</v>
+        <v>8562</v>
       </c>
       <c r="F2310" s="0" t="s">
-        <v>8562</v>
+        <v>8563</v>
       </c>
     </row>
     <row r="2311" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2311" s="0" t="s">
-        <v>8563</v>
+        <v>8564</v>
       </c>
       <c r="B2311" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2311" s="0" t="s">
-        <v>8564</v>
+        <v>8565</v>
       </c>
       <c r="E2311" s="0" t="s">
-        <v>8565</v>
+        <v>8566</v>
       </c>
       <c r="F2311" s="0" t="s">
-        <v>8566</v>
+        <v>8567</v>
       </c>
     </row>
     <row r="2312" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2312" s="0" t="s">
-        <v>8567</v>
+        <v>8568</v>
       </c>
       <c r="B2312" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2312" s="0" t="s">
-        <v>8568</v>
+        <v>8569</v>
       </c>
       <c r="E2312" s="0" t="s">
-        <v>8569</v>
+        <v>8570</v>
       </c>
       <c r="F2312" s="0" t="s">
-        <v>8570</v>
+        <v>8571</v>
       </c>
     </row>
     <row r="2313" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2313" s="0" t="s">
-        <v>8571</v>
+        <v>8572</v>
       </c>
       <c r="B2313" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2313" s="0" t="s">
-        <v>8572</v>
+        <v>8573</v>
       </c>
       <c r="E2313" s="0" t="s">
-        <v>8573</v>
+        <v>8574</v>
       </c>
       <c r="F2313" s="0" t="s">
-        <v>8574</v>
+        <v>8575</v>
       </c>
     </row>
     <row r="2314" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2314" s="0" t="s">
-        <v>8575</v>
+        <v>8576</v>
       </c>
       <c r="B2314" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2314" s="2" t="s">
-        <v>8576</v>
+        <v>8577</v>
       </c>
       <c r="E2314" s="2" t="s">
-        <v>8577</v>
+        <v>8578</v>
       </c>
       <c r="F2314" s="2" t="s">
-        <v>8578</v>
+        <v>8579</v>
       </c>
     </row>
     <row r="2315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2315" s="0" t="s">
-        <v>8579</v>
+        <v>8580</v>
       </c>
       <c r="B2315" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2315" s="0" t="s">
-        <v>8580</v>
+        <v>8581</v>
       </c>
       <c r="F2315" s="0" t="s">
-        <v>8581</v>
+        <v>8582</v>
       </c>
     </row>
     <row r="2316" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2316" s="0" t="s">
-        <v>8582</v>
+        <v>8583</v>
       </c>
       <c r="B2316" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2316" s="2" t="s">
-        <v>8583</v>
+        <v>8584</v>
       </c>
       <c r="E2316" s="2" t="s">
-        <v>8584</v>
+        <v>8585</v>
       </c>
       <c r="F2316" s="2" t="s">
-        <v>8585</v>
+        <v>8586</v>
       </c>
     </row>
     <row r="2317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2317" s="0" t="s">
-        <v>8586</v>
+        <v>8587</v>
       </c>
       <c r="B2317" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2317" s="0" t="s">
-        <v>8587</v>
+        <v>8588</v>
       </c>
       <c r="E2317" s="0" t="s">
-        <v>8588</v>
+        <v>8589</v>
       </c>
       <c r="F2317" s="0" t="s">
-        <v>8589</v>
+        <v>8590</v>
       </c>
     </row>
     <row r="2318" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2318" s="0" t="s">
-        <v>8590</v>
+        <v>8591</v>
       </c>
       <c r="B2318" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2318" s="0" t="s">
-        <v>8591</v>
+        <v>8592</v>
       </c>
       <c r="E2318" s="0" t="s">
-        <v>8592</v>
+        <v>8593</v>
       </c>
       <c r="F2318" s="0" t="s">
-        <v>8593</v>
+        <v>8594</v>
       </c>
     </row>
     <row r="2319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2319" s="0" t="s">
-        <v>8594</v>
+        <v>8595</v>
       </c>
       <c r="B2319" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2319" s="0" t="s">
-        <v>8595</v>
+        <v>8596</v>
       </c>
       <c r="E2319" s="0" t="s">
-        <v>8596</v>
+        <v>8597</v>
       </c>
       <c r="F2319" s="0" t="s">
-        <v>8597</v>
+        <v>8598</v>
       </c>
     </row>
     <row r="2320" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2320" s="0" t="s">
-        <v>8598</v>
+        <v>8599</v>
       </c>
       <c r="B2320" s="0" t="s">
         <v>257</v>
@@ -71922,619 +71925,619 @@
     </row>
     <row r="2321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2321" s="0" t="s">
-        <v>8599</v>
+        <v>8600</v>
       </c>
       <c r="B2321" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2321" s="0" t="s">
-        <v>8600</v>
+        <v>8601</v>
       </c>
       <c r="E2321" s="0" t="s">
-        <v>8601</v>
+        <v>8602</v>
       </c>
       <c r="F2321" s="0" t="s">
-        <v>8602</v>
+        <v>8603</v>
       </c>
     </row>
     <row r="2322" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2322" s="0" t="s">
-        <v>8603</v>
+        <v>8604</v>
       </c>
       <c r="B2322" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2322" s="0" t="s">
-        <v>8604</v>
+        <v>8605</v>
       </c>
       <c r="E2322" s="0" t="s">
-        <v>8605</v>
+        <v>8606</v>
       </c>
       <c r="F2322" s="0" t="s">
-        <v>8606</v>
+        <v>8607</v>
       </c>
     </row>
     <row r="2323" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2323" s="0" t="s">
-        <v>8607</v>
+        <v>8608</v>
       </c>
       <c r="B2323" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2323" s="0" t="s">
-        <v>8608</v>
+        <v>8609</v>
       </c>
       <c r="E2323" s="0" t="s">
-        <v>8609</v>
+        <v>8610</v>
       </c>
       <c r="F2323" s="0" t="s">
-        <v>8610</v>
+        <v>8611</v>
       </c>
     </row>
     <row r="2324" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2324" s="0" t="s">
-        <v>8611</v>
+        <v>8612</v>
       </c>
       <c r="B2324" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2324" s="0" t="s">
-        <v>8612</v>
+        <v>8613</v>
       </c>
       <c r="E2324" s="0" t="s">
-        <v>8613</v>
+        <v>8614</v>
       </c>
       <c r="F2324" s="0" t="s">
-        <v>8614</v>
+        <v>8615</v>
       </c>
     </row>
     <row r="2325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2325" s="0" t="s">
-        <v>8615</v>
+        <v>8616</v>
       </c>
       <c r="B2325" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2325" s="0" t="s">
-        <v>8616</v>
+        <v>8617</v>
       </c>
       <c r="E2325" s="0" t="s">
-        <v>8617</v>
+        <v>8618</v>
       </c>
       <c r="F2325" s="0" t="s">
-        <v>8618</v>
+        <v>8619</v>
       </c>
     </row>
     <row r="2326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2326" s="0" t="s">
-        <v>8619</v>
+        <v>8620</v>
       </c>
       <c r="B2326" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2326" s="0" t="s">
-        <v>8620</v>
+        <v>8621</v>
       </c>
       <c r="E2326" s="0" t="s">
-        <v>8621</v>
+        <v>8622</v>
       </c>
       <c r="F2326" s="0" t="s">
-        <v>8622</v>
+        <v>8623</v>
       </c>
     </row>
     <row r="2327" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2327" s="0" t="s">
-        <v>8623</v>
+        <v>8624</v>
       </c>
       <c r="B2327" s="0" t="s">
         <v>6551</v>
       </c>
       <c r="D2327" s="0" t="s">
-        <v>8624</v>
+        <v>8625</v>
       </c>
       <c r="E2327" s="0" t="s">
-        <v>8625</v>
+        <v>8626</v>
       </c>
       <c r="F2327" s="0" t="s">
-        <v>8626</v>
+        <v>8627</v>
       </c>
     </row>
     <row r="2328" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2328" s="0" t="s">
-        <v>8627</v>
+        <v>8628</v>
       </c>
       <c r="B2328" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2328" s="0" t="s">
-        <v>8628</v>
+        <v>8629</v>
       </c>
       <c r="E2328" s="0" t="s">
-        <v>8629</v>
+        <v>8630</v>
       </c>
       <c r="F2328" s="0" t="s">
-        <v>8630</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="2329" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2329" s="0" t="s">
-        <v>8631</v>
+        <v>8632</v>
       </c>
       <c r="B2329" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2329" s="0" t="s">
-        <v>8632</v>
+        <v>8633</v>
       </c>
       <c r="E2329" s="0" t="s">
-        <v>8633</v>
+        <v>8634</v>
       </c>
       <c r="F2329" s="0" t="s">
-        <v>8634</v>
+        <v>8635</v>
       </c>
     </row>
     <row r="2330" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2330" s="0" t="s">
-        <v>8635</v>
+        <v>8636</v>
       </c>
       <c r="B2330" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2330" s="0" t="s">
-        <v>8636</v>
+        <v>8637</v>
       </c>
       <c r="E2330" s="0" t="s">
-        <v>8637</v>
+        <v>8638</v>
       </c>
       <c r="F2330" s="0" t="s">
-        <v>8638</v>
+        <v>8639</v>
       </c>
     </row>
     <row r="2331" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2331" s="0" t="s">
-        <v>8639</v>
+        <v>8640</v>
       </c>
       <c r="B2331" s="0" t="s">
-        <v>8640</v>
+        <v>8641</v>
       </c>
       <c r="D2331" s="0" t="s">
-        <v>8641</v>
+        <v>8642</v>
       </c>
       <c r="E2331" s="0" t="s">
-        <v>8642</v>
+        <v>8643</v>
       </c>
       <c r="F2331" s="0" t="s">
-        <v>8643</v>
+        <v>8644</v>
       </c>
     </row>
     <row r="2332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2332" s="0" t="s">
-        <v>8644</v>
+        <v>8645</v>
       </c>
       <c r="B2332" s="0" t="s">
-        <v>8645</v>
+        <v>8646</v>
       </c>
       <c r="D2332" s="0" t="s">
-        <v>8646</v>
+        <v>8647</v>
       </c>
       <c r="E2332" s="0" t="s">
-        <v>8647</v>
+        <v>8648</v>
       </c>
       <c r="F2332" s="0" t="s">
-        <v>8648</v>
+        <v>8649</v>
       </c>
     </row>
     <row r="2333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2333" s="0" t="s">
-        <v>8649</v>
+        <v>8650</v>
       </c>
       <c r="B2333" s="0" t="s">
-        <v>8645</v>
+        <v>8646</v>
       </c>
       <c r="D2333" s="0" t="s">
-        <v>8650</v>
+        <v>8651</v>
       </c>
       <c r="E2333" s="0" t="s">
-        <v>8651</v>
+        <v>8652</v>
       </c>
       <c r="F2333" s="0" t="s">
-        <v>8652</v>
+        <v>8653</v>
       </c>
     </row>
     <row r="2334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2334" s="0" t="s">
-        <v>8653</v>
+        <v>8654</v>
       </c>
       <c r="B2334" s="0" t="s">
-        <v>8645</v>
+        <v>8646</v>
       </c>
       <c r="D2334" s="0" t="s">
         <v>4398</v>
       </c>
       <c r="E2334" s="0" t="s">
-        <v>8654</v>
+        <v>8655</v>
       </c>
       <c r="F2334" s="0" t="s">
-        <v>8655</v>
+        <v>8656</v>
       </c>
     </row>
     <row r="2335" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2335" s="0" t="s">
-        <v>8656</v>
+        <v>8657</v>
       </c>
       <c r="B2335" s="0" t="s">
-        <v>8645</v>
+        <v>8646</v>
       </c>
       <c r="D2335" s="0" t="s">
-        <v>8657</v>
+        <v>8658</v>
       </c>
       <c r="E2335" s="0" t="s">
-        <v>8658</v>
+        <v>8659</v>
       </c>
       <c r="F2335" s="0" t="s">
-        <v>8659</v>
+        <v>8660</v>
       </c>
     </row>
     <row r="2336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2336" s="0" t="s">
-        <v>8660</v>
+        <v>8661</v>
       </c>
       <c r="B2336" s="0" t="s">
-        <v>8645</v>
+        <v>8646</v>
       </c>
       <c r="D2336" s="0" t="s">
-        <v>8661</v>
+        <v>8662</v>
       </c>
       <c r="E2336" s="0" t="s">
-        <v>8662</v>
+        <v>8663</v>
       </c>
       <c r="F2336" s="0" t="s">
-        <v>8663</v>
+        <v>8664</v>
       </c>
     </row>
     <row r="2337" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2337" s="0" t="s">
-        <v>8664</v>
+        <v>8665</v>
       </c>
       <c r="B2337" s="0" t="s">
-        <v>8645</v>
+        <v>8646</v>
       </c>
       <c r="D2337" s="0" t="s">
-        <v>8665</v>
+        <v>8666</v>
       </c>
       <c r="E2337" s="0" t="s">
         <v>1403</v>
       </c>
       <c r="F2337" s="0" t="s">
-        <v>8666</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="2338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2338" s="0" t="s">
-        <v>8667</v>
+        <v>8668</v>
       </c>
       <c r="B2338" s="0" t="s">
-        <v>8645</v>
+        <v>8646</v>
       </c>
       <c r="D2338" s="0" t="s">
-        <v>8668</v>
+        <v>8669</v>
       </c>
       <c r="E2338" s="0" t="s">
-        <v>8669</v>
+        <v>8670</v>
       </c>
       <c r="F2338" s="0" t="s">
-        <v>8670</v>
+        <v>8671</v>
       </c>
     </row>
     <row r="2339" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2339" s="0" t="s">
-        <v>8671</v>
+        <v>8672</v>
       </c>
       <c r="B2339" s="0" t="s">
-        <v>8645</v>
+        <v>8646</v>
       </c>
       <c r="D2339" s="0" t="s">
-        <v>8672</v>
+        <v>8673</v>
       </c>
       <c r="E2339" s="0" t="s">
-        <v>8673</v>
+        <v>8674</v>
       </c>
       <c r="F2339" s="0" t="s">
-        <v>8674</v>
+        <v>8675</v>
       </c>
     </row>
     <row r="2340" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2340" s="0" t="s">
-        <v>8675</v>
+        <v>8676</v>
       </c>
       <c r="B2340" s="0" t="s">
-        <v>8645</v>
+        <v>8646</v>
       </c>
       <c r="D2340" s="0" t="s">
-        <v>8676</v>
+        <v>8677</v>
       </c>
       <c r="E2340" s="0" t="s">
-        <v>8677</v>
+        <v>8678</v>
       </c>
       <c r="F2340" s="0" t="s">
-        <v>8678</v>
+        <v>8679</v>
       </c>
     </row>
     <row r="2341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2341" s="0" t="s">
-        <v>8679</v>
+        <v>8680</v>
       </c>
       <c r="B2341" s="0" t="s">
-        <v>8645</v>
+        <v>8646</v>
       </c>
       <c r="D2341" s="0" t="s">
-        <v>8680</v>
+        <v>8681</v>
       </c>
       <c r="E2341" s="0" t="s">
-        <v>8681</v>
+        <v>8682</v>
       </c>
       <c r="F2341" s="0" t="s">
-        <v>8682</v>
+        <v>8683</v>
       </c>
     </row>
     <row r="2342" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2342" s="0" t="s">
-        <v>8683</v>
+        <v>8684</v>
       </c>
       <c r="B2342" s="0" t="s">
         <v>3833</v>
       </c>
       <c r="D2342" s="0" t="s">
-        <v>8684</v>
+        <v>8685</v>
       </c>
       <c r="E2342" s="0" t="s">
-        <v>8685</v>
+        <v>8686</v>
       </c>
       <c r="F2342" s="0" t="s">
-        <v>8686</v>
+        <v>8687</v>
       </c>
     </row>
     <row r="2343" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2343" s="0" t="s">
-        <v>8687</v>
+        <v>8688</v>
       </c>
       <c r="B2343" s="0" t="s">
         <v>3833</v>
       </c>
       <c r="D2343" s="0" t="s">
-        <v>8688</v>
+        <v>8689</v>
       </c>
       <c r="E2343" s="0" t="s">
-        <v>8689</v>
+        <v>8690</v>
       </c>
       <c r="F2343" s="0" t="s">
-        <v>8690</v>
+        <v>8691</v>
       </c>
     </row>
     <row r="2344" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2344" s="0" t="s">
-        <v>8691</v>
+        <v>8692</v>
       </c>
       <c r="B2344" s="0" t="s">
-        <v>8692</v>
+        <v>8693</v>
       </c>
       <c r="D2344" s="0" t="s">
-        <v>8693</v>
+        <v>8694</v>
       </c>
       <c r="E2344" s="0" t="s">
-        <v>8694</v>
+        <v>8695</v>
       </c>
       <c r="F2344" s="0" t="s">
-        <v>8695</v>
+        <v>8696</v>
       </c>
     </row>
     <row r="2345" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2345" s="0" t="s">
-        <v>8696</v>
+        <v>8697</v>
       </c>
       <c r="B2345" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D2345" s="0" t="s">
-        <v>8697</v>
+        <v>8698</v>
       </c>
       <c r="E2345" s="0" t="s">
-        <v>8698</v>
+        <v>8699</v>
       </c>
       <c r="F2345" s="0" t="s">
-        <v>8699</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="2346" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2346" s="0" t="s">
-        <v>8700</v>
+        <v>8701</v>
       </c>
       <c r="B2346" s="0" t="s">
         <v>302</v>
       </c>
       <c r="D2346" s="0" t="s">
-        <v>8701</v>
+        <v>8702</v>
       </c>
       <c r="E2346" s="0" t="s">
-        <v>8702</v>
+        <v>8703</v>
       </c>
       <c r="F2346" s="0" t="s">
-        <v>8703</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="2347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2347" s="0" t="s">
-        <v>8704</v>
+        <v>8705</v>
       </c>
       <c r="B2347" s="0" t="s">
         <v>302</v>
       </c>
       <c r="D2347" s="0" t="s">
-        <v>8705</v>
+        <v>8706</v>
       </c>
       <c r="E2347" s="0" t="s">
-        <v>8706</v>
+        <v>8707</v>
       </c>
       <c r="F2347" s="0" t="s">
-        <v>8707</v>
+        <v>8708</v>
       </c>
     </row>
     <row r="2348" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2348" s="0" t="s">
-        <v>8708</v>
+        <v>8709</v>
       </c>
       <c r="B2348" s="0" t="s">
         <v>302</v>
       </c>
       <c r="D2348" s="0" t="s">
-        <v>8709</v>
+        <v>8710</v>
       </c>
       <c r="E2348" s="0" t="s">
-        <v>8710</v>
+        <v>8711</v>
       </c>
       <c r="F2348" s="0" t="s">
-        <v>8711</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="2349" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2349" s="0" t="s">
-        <v>8712</v>
+        <v>8713</v>
       </c>
       <c r="B2349" s="0" t="s">
         <v>2450</v>
       </c>
       <c r="D2349" s="0" t="s">
-        <v>8713</v>
+        <v>8714</v>
       </c>
       <c r="E2349" s="0" t="s">
-        <v>8714</v>
+        <v>8715</v>
       </c>
       <c r="F2349" s="0" t="s">
-        <v>8715</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="2350" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2350" s="0" t="s">
-        <v>8716</v>
+        <v>8717</v>
       </c>
       <c r="B2350" s="0" t="s">
-        <v>8717</v>
+        <v>8718</v>
       </c>
       <c r="D2350" s="0" t="s">
-        <v>8718</v>
+        <v>8719</v>
       </c>
       <c r="E2350" s="0" t="s">
-        <v>8719</v>
+        <v>8720</v>
       </c>
       <c r="F2350" s="0" t="s">
-        <v>8720</v>
+        <v>8721</v>
       </c>
     </row>
     <row r="2351" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2351" s="0" t="s">
-        <v>8721</v>
+        <v>8722</v>
       </c>
       <c r="B2351" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D2351" s="0" t="s">
-        <v>8722</v>
+        <v>8723</v>
       </c>
       <c r="E2351" s="0" t="s">
-        <v>8723</v>
+        <v>8724</v>
       </c>
       <c r="F2351" s="0" t="s">
-        <v>8724</v>
+        <v>8725</v>
       </c>
     </row>
     <row r="2352" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2352" s="0" t="s">
-        <v>8725</v>
+        <v>8726</v>
       </c>
       <c r="B2352" s="0" t="s">
-        <v>8726</v>
+        <v>8727</v>
       </c>
       <c r="D2352" s="0" t="s">
-        <v>8727</v>
+        <v>8728</v>
       </c>
       <c r="E2352" s="0" t="s">
-        <v>8728</v>
+        <v>8729</v>
       </c>
       <c r="F2352" s="0" t="s">
-        <v>8729</v>
+        <v>8730</v>
       </c>
     </row>
     <row r="2353" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2353" s="0" t="s">
-        <v>8730</v>
+        <v>8731</v>
       </c>
       <c r="B2353" s="0" t="s">
         <v>6551</v>
       </c>
       <c r="D2353" s="0" t="s">
-        <v>8731</v>
+        <v>8732</v>
       </c>
       <c r="E2353" s="0" t="s">
-        <v>8732</v>
+        <v>8733</v>
       </c>
       <c r="F2353" s="0" t="s">
-        <v>8733</v>
+        <v>8734</v>
       </c>
     </row>
     <row r="2354" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2354" s="0" t="s">
-        <v>8734</v>
+        <v>8735</v>
       </c>
       <c r="B2354" s="0" t="s">
         <v>6551</v>
       </c>
       <c r="D2354" s="2" t="s">
-        <v>8735</v>
+        <v>8736</v>
       </c>
       <c r="E2354" s="2" t="s">
-        <v>8736</v>
+        <v>8737</v>
       </c>
       <c r="F2354" s="2" t="s">
-        <v>8737</v>
+        <v>8738</v>
       </c>
     </row>
     <row r="2355" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2355" s="0" t="s">
-        <v>8738</v>
+        <v>8739</v>
       </c>
       <c r="B2355" s="0" t="s">
         <v>1187</v>
       </c>
       <c r="D2355" s="0" t="s">
-        <v>8739</v>
+        <v>8740</v>
       </c>
       <c r="E2355" s="0" t="s">
-        <v>8740</v>
+        <v>8741</v>
       </c>
       <c r="F2355" s="0" t="s">
-        <v>8741</v>
+        <v>8742</v>
       </c>
     </row>
     <row r="2356" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2356" s="0" t="s">
-        <v>8742</v>
+        <v>8743</v>
       </c>
       <c r="B2356" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D2356" s="0" t="s">
-        <v>8743</v>
+        <v>8744</v>
       </c>
       <c r="E2356" s="0" t="s">
-        <v>8744</v>
+        <v>8745</v>
       </c>
       <c r="F2356" s="0" t="s">
-        <v>8745</v>
+        <v>8746</v>
       </c>
     </row>
     <row r="2357" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2357" s="0" t="s">
-        <v>8746</v>
+        <v>8747</v>
       </c>
       <c r="B2357" s="0" t="s">
         <v>44</v>
@@ -72543,18 +72546,18 @@
         <v>843</v>
       </c>
       <c r="D2357" s="0" t="s">
-        <v>8747</v>
+        <v>8748</v>
       </c>
       <c r="E2357" s="0" t="s">
-        <v>8748</v>
+        <v>8749</v>
       </c>
       <c r="F2357" s="0" t="s">
-        <v>8749</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="2358" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2358" s="0" t="s">
-        <v>8750</v>
+        <v>8751</v>
       </c>
       <c r="B2358" s="0" t="s">
         <v>44</v>
@@ -72574,7 +72577,7 @@
     </row>
     <row r="2359" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2359" s="0" t="s">
-        <v>8751</v>
+        <v>8752</v>
       </c>
       <c r="B2359" s="0" t="s">
         <v>44</v>
@@ -72594,7 +72597,7 @@
     </row>
     <row r="2360" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2360" s="0" t="s">
-        <v>8752</v>
+        <v>8753</v>
       </c>
       <c r="B2360" s="0" t="s">
         <v>44</v>
@@ -72603,178 +72606,178 @@
         <v>843</v>
       </c>
       <c r="D2360" s="0" t="s">
-        <v>8753</v>
+        <v>8754</v>
       </c>
       <c r="E2360" s="0" t="s">
-        <v>8754</v>
+        <v>8755</v>
       </c>
       <c r="F2360" s="0" t="s">
-        <v>8755</v>
+        <v>8756</v>
       </c>
     </row>
     <row r="2361" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2361" s="0" t="s">
-        <v>8756</v>
+        <v>8757</v>
       </c>
       <c r="B2361" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2361" s="0" t="s">
-        <v>8757</v>
+        <v>8758</v>
       </c>
       <c r="D2361" s="0" t="s">
-        <v>8758</v>
+        <v>8759</v>
       </c>
       <c r="E2361" s="0" t="s">
-        <v>8759</v>
+        <v>8760</v>
       </c>
       <c r="F2361" s="0" t="s">
-        <v>8760</v>
+        <v>8761</v>
       </c>
     </row>
     <row r="2362" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2362" s="0" t="s">
-        <v>8761</v>
+        <v>8762</v>
       </c>
       <c r="B2362" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2362" s="0" t="s">
-        <v>8757</v>
+        <v>8758</v>
       </c>
       <c r="D2362" s="0" t="s">
-        <v>8762</v>
+        <v>8763</v>
       </c>
       <c r="E2362" s="0" t="s">
-        <v>8763</v>
+        <v>8764</v>
       </c>
       <c r="F2362" s="0" t="s">
-        <v>8764</v>
+        <v>8765</v>
       </c>
     </row>
     <row r="2363" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2363" s="0" t="s">
-        <v>8765</v>
+        <v>8766</v>
       </c>
       <c r="B2363" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2363" s="0" t="s">
-        <v>8757</v>
+        <v>8758</v>
       </c>
       <c r="D2363" s="0" t="s">
-        <v>8766</v>
+        <v>8767</v>
       </c>
       <c r="E2363" s="0" t="s">
-        <v>8767</v>
+        <v>8768</v>
       </c>
       <c r="F2363" s="0" t="s">
-        <v>8768</v>
+        <v>8769</v>
       </c>
     </row>
     <row r="2364" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2364" s="0" t="s">
-        <v>8769</v>
+        <v>8770</v>
       </c>
       <c r="B2364" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2364" s="0" t="s">
-        <v>8757</v>
+        <v>8758</v>
       </c>
       <c r="D2364" s="0" t="s">
-        <v>8770</v>
+        <v>8771</v>
       </c>
       <c r="E2364" s="0" t="s">
         <v>5180</v>
       </c>
       <c r="F2364" s="0" t="s">
-        <v>8771</v>
+        <v>8772</v>
       </c>
     </row>
     <row r="2365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2365" s="0" t="s">
-        <v>8772</v>
+        <v>8773</v>
       </c>
       <c r="B2365" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2365" s="0" t="s">
-        <v>8757</v>
+        <v>8758</v>
       </c>
       <c r="D2365" s="0" t="s">
-        <v>8773</v>
+        <v>8774</v>
       </c>
       <c r="E2365" s="0" t="s">
-        <v>8774</v>
+        <v>8775</v>
       </c>
       <c r="F2365" s="0" t="s">
-        <v>8775</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="2366" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2366" s="0" t="s">
-        <v>8776</v>
+        <v>8777</v>
       </c>
       <c r="B2366" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2366" s="0" t="s">
-        <v>8757</v>
+        <v>8758</v>
       </c>
       <c r="D2366" s="0" t="s">
-        <v>8777</v>
+        <v>8778</v>
       </c>
       <c r="E2366" s="0" t="s">
-        <v>8778</v>
+        <v>8779</v>
       </c>
       <c r="F2366" s="0" t="s">
-        <v>8779</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="2367" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2367" s="0" t="s">
-        <v>8780</v>
+        <v>8781</v>
       </c>
       <c r="B2367" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2367" s="0" t="s">
-        <v>8757</v>
+        <v>8758</v>
       </c>
       <c r="D2367" s="0" t="s">
-        <v>8781</v>
+        <v>8782</v>
       </c>
       <c r="E2367" s="0" t="s">
-        <v>8782</v>
+        <v>8783</v>
       </c>
       <c r="F2367" s="0" t="s">
-        <v>8783</v>
+        <v>8784</v>
       </c>
     </row>
     <row r="2368" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2368" s="0" t="s">
-        <v>8784</v>
+        <v>8785</v>
       </c>
       <c r="B2368" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2368" s="0" t="s">
-        <v>8757</v>
+        <v>8758</v>
       </c>
       <c r="D2368" s="0" t="s">
-        <v>8785</v>
+        <v>8786</v>
       </c>
       <c r="E2368" s="0" t="s">
-        <v>8785</v>
+        <v>8786</v>
       </c>
       <c r="F2368" s="0" t="s">
-        <v>8785</v>
+        <v>8786</v>
       </c>
     </row>
     <row r="2369" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2369" s="0" t="s">
-        <v>8786</v>
+        <v>8787</v>
       </c>
       <c r="B2369" s="0" t="s">
         <v>1195</v>
@@ -72783,503 +72786,503 @@
         <v>1343</v>
       </c>
       <c r="E2369" s="0" t="s">
-        <v>8787</v>
+        <v>8788</v>
       </c>
       <c r="F2369" s="0" t="s">
-        <v>8788</v>
+        <v>8789</v>
       </c>
     </row>
     <row r="2370" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2370" s="0" t="s">
-        <v>8789</v>
+        <v>8790</v>
       </c>
       <c r="B2370" s="0" t="s">
         <v>4218</v>
       </c>
       <c r="D2370" s="0" t="s">
-        <v>8790</v>
+        <v>8791</v>
       </c>
       <c r="E2370" s="0" t="s">
-        <v>8791</v>
+        <v>8792</v>
       </c>
       <c r="F2370" s="0" t="s">
-        <v>8792</v>
+        <v>8793</v>
       </c>
     </row>
     <row r="2371" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2371" s="0" t="s">
-        <v>8793</v>
+        <v>8794</v>
       </c>
       <c r="B2371" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2371" s="0" t="s">
-        <v>8794</v>
+        <v>8795</v>
       </c>
       <c r="E2371" s="0" t="s">
-        <v>8795</v>
+        <v>8796</v>
       </c>
       <c r="F2371" s="0" t="s">
-        <v>8796</v>
+        <v>8797</v>
       </c>
     </row>
     <row r="2372" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2372" s="0" t="s">
-        <v>8797</v>
+        <v>8798</v>
       </c>
       <c r="B2372" s="0" t="s">
         <v>4218</v>
       </c>
       <c r="D2372" s="0" t="s">
-        <v>8798</v>
+        <v>8799</v>
       </c>
       <c r="E2372" s="0" t="s">
-        <v>8799</v>
+        <v>8800</v>
       </c>
       <c r="F2372" s="0" t="s">
-        <v>8800</v>
+        <v>8801</v>
       </c>
     </row>
     <row r="2373" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2373" s="0" t="s">
-        <v>8801</v>
+        <v>8802</v>
       </c>
       <c r="B2373" s="0" t="s">
         <v>4218</v>
       </c>
       <c r="D2373" s="0" t="s">
-        <v>8802</v>
+        <v>8803</v>
       </c>
       <c r="E2373" s="0" t="s">
-        <v>8803</v>
+        <v>8804</v>
       </c>
       <c r="F2373" s="0" t="s">
-        <v>8804</v>
+        <v>8805</v>
       </c>
     </row>
     <row r="2374" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2374" s="0" t="s">
-        <v>8805</v>
+        <v>8806</v>
       </c>
       <c r="B2374" s="0" t="s">
         <v>68</v>
       </c>
       <c r="D2374" s="0" t="s">
-        <v>8806</v>
+        <v>8807</v>
       </c>
       <c r="E2374" s="0" t="s">
-        <v>8807</v>
+        <v>8808</v>
       </c>
       <c r="F2374" s="0" t="s">
-        <v>8808</v>
+        <v>8809</v>
       </c>
     </row>
     <row r="2375" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2375" s="0" t="s">
-        <v>8809</v>
+        <v>8810</v>
       </c>
       <c r="B2375" s="0" t="s">
         <v>1073</v>
       </c>
       <c r="D2375" s="0" t="s">
-        <v>8810</v>
+        <v>8811</v>
       </c>
       <c r="E2375" s="0" t="s">
-        <v>8811</v>
+        <v>8812</v>
       </c>
       <c r="F2375" s="0" t="s">
-        <v>8812</v>
+        <v>8813</v>
       </c>
     </row>
     <row r="2376" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2376" s="0" t="s">
-        <v>8813</v>
+        <v>8814</v>
       </c>
       <c r="B2376" s="0" t="s">
         <v>1073</v>
       </c>
       <c r="D2376" s="0" t="s">
-        <v>8814</v>
+        <v>8815</v>
       </c>
       <c r="E2376" s="0" t="s">
-        <v>8815</v>
+        <v>8816</v>
       </c>
       <c r="F2376" s="0" t="s">
-        <v>8816</v>
+        <v>8817</v>
       </c>
     </row>
     <row r="2377" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2377" s="0" t="s">
-        <v>8817</v>
+        <v>8818</v>
       </c>
       <c r="B2377" s="0" t="s">
         <v>1073</v>
       </c>
       <c r="D2377" s="0" t="s">
-        <v>8818</v>
+        <v>8819</v>
       </c>
       <c r="E2377" s="0" t="s">
-        <v>8819</v>
+        <v>8820</v>
       </c>
       <c r="F2377" s="0" t="s">
-        <v>8820</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="2378" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2378" s="0" t="s">
-        <v>8821</v>
+        <v>8822</v>
       </c>
       <c r="B2378" s="0" t="s">
         <v>1192</v>
       </c>
       <c r="D2378" s="0" t="s">
-        <v>8822</v>
+        <v>8823</v>
       </c>
       <c r="E2378" s="0" t="s">
-        <v>8823</v>
+        <v>8824</v>
       </c>
       <c r="F2378" s="0" t="s">
-        <v>8824</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="2379" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2379" s="0" t="s">
-        <v>8825</v>
+        <v>8826</v>
       </c>
       <c r="B2379" s="0" t="s">
         <v>1281</v>
       </c>
       <c r="D2379" s="0" t="s">
-        <v>8826</v>
+        <v>8827</v>
       </c>
       <c r="E2379" s="0" t="s">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="F2379" s="0" t="s">
-        <v>8828</v>
+        <v>8829</v>
       </c>
     </row>
     <row r="2380" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2380" s="0" t="s">
-        <v>8829</v>
+        <v>8830</v>
       </c>
       <c r="B2380" s="0" t="s">
         <v>1187</v>
       </c>
       <c r="D2380" s="0" t="s">
-        <v>8830</v>
+        <v>8831</v>
       </c>
       <c r="E2380" s="0" t="s">
-        <v>8831</v>
+        <v>8832</v>
       </c>
       <c r="F2380" s="0" t="s">
-        <v>8832</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="2381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2381" s="0" t="s">
-        <v>8833</v>
+        <v>8834</v>
       </c>
       <c r="B2381" s="0" t="s">
         <v>297</v>
       </c>
       <c r="D2381" s="0" t="s">
-        <v>8834</v>
+        <v>8835</v>
       </c>
       <c r="E2381" s="0" t="s">
-        <v>8835</v>
+        <v>8836</v>
       </c>
       <c r="F2381" s="0" t="s">
-        <v>8836</v>
+        <v>8837</v>
       </c>
     </row>
     <row r="2382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2382" s="0" t="s">
-        <v>8837</v>
+        <v>8838</v>
       </c>
       <c r="B2382" s="0" t="s">
         <v>297</v>
       </c>
       <c r="D2382" s="0" t="s">
-        <v>8838</v>
+        <v>8839</v>
       </c>
       <c r="E2382" s="0" t="s">
-        <v>8839</v>
+        <v>8840</v>
       </c>
       <c r="F2382" s="0" t="s">
-        <v>8840</v>
+        <v>8841</v>
       </c>
     </row>
     <row r="2383" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2383" s="0" t="s">
-        <v>8841</v>
+        <v>8842</v>
       </c>
       <c r="B2383" s="0" t="s">
         <v>297</v>
       </c>
       <c r="D2383" s="0" t="s">
-        <v>8842</v>
+        <v>8843</v>
       </c>
       <c r="E2383" s="0" t="s">
-        <v>8843</v>
+        <v>8844</v>
       </c>
       <c r="F2383" s="0" t="s">
-        <v>8844</v>
+        <v>8845</v>
       </c>
     </row>
     <row r="2384" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2384" s="0" t="s">
-        <v>8845</v>
+        <v>8846</v>
       </c>
       <c r="B2384" s="0" t="s">
         <v>297</v>
       </c>
       <c r="D2384" s="0" t="s">
-        <v>8846</v>
+        <v>8847</v>
       </c>
       <c r="E2384" s="0" t="s">
-        <v>8847</v>
+        <v>8848</v>
       </c>
       <c r="F2384" s="0" t="s">
-        <v>8848</v>
+        <v>8849</v>
       </c>
     </row>
     <row r="2385" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2385" s="0" t="s">
-        <v>8849</v>
+        <v>8850</v>
       </c>
       <c r="B2385" s="0" t="s">
         <v>297</v>
       </c>
       <c r="D2385" s="0" t="s">
-        <v>8850</v>
+        <v>8851</v>
       </c>
       <c r="E2385" s="0" t="s">
         <v>2279</v>
       </c>
       <c r="F2385" s="0" t="s">
-        <v>8851</v>
+        <v>8852</v>
       </c>
     </row>
     <row r="2386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2386" s="0" t="s">
-        <v>8852</v>
+        <v>8853</v>
       </c>
       <c r="B2386" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2386" s="0" t="s">
-        <v>8853</v>
+        <v>8854</v>
       </c>
       <c r="E2386" s="0" t="s">
-        <v>8854</v>
+        <v>8855</v>
       </c>
       <c r="F2386" s="0" t="s">
-        <v>8855</v>
+        <v>8856</v>
       </c>
     </row>
     <row r="2387" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2387" s="0" t="s">
-        <v>8856</v>
+        <v>8857</v>
       </c>
       <c r="B2387" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2387" s="0" t="s">
-        <v>8857</v>
+        <v>8858</v>
       </c>
       <c r="E2387" s="0" t="s">
-        <v>8858</v>
+        <v>8859</v>
       </c>
       <c r="F2387" s="0" t="s">
-        <v>8859</v>
+        <v>8860</v>
       </c>
     </row>
     <row r="2388" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2388" s="0" t="s">
-        <v>8860</v>
+        <v>8861</v>
       </c>
       <c r="B2388" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2388" s="0" t="s">
-        <v>8861</v>
+        <v>8862</v>
       </c>
       <c r="E2388" s="0" t="s">
-        <v>8862</v>
+        <v>8863</v>
       </c>
       <c r="F2388" s="0" t="s">
-        <v>8863</v>
+        <v>8864</v>
       </c>
     </row>
     <row r="2389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2389" s="0" t="s">
-        <v>8864</v>
+        <v>8865</v>
       </c>
       <c r="B2389" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2389" s="0" t="s">
-        <v>8865</v>
+        <v>8866</v>
       </c>
       <c r="E2389" s="0" t="s">
-        <v>8866</v>
+        <v>8867</v>
       </c>
       <c r="F2389" s="0" t="s">
-        <v>8867</v>
+        <v>8868</v>
       </c>
     </row>
     <row r="2390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2390" s="0" t="s">
-        <v>8868</v>
+        <v>8869</v>
       </c>
       <c r="B2390" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2390" s="0" t="s">
-        <v>8869</v>
+        <v>8870</v>
       </c>
       <c r="E2390" s="0" t="s">
-        <v>8870</v>
+        <v>8871</v>
       </c>
       <c r="F2390" s="0" t="s">
-        <v>8871</v>
+        <v>8872</v>
       </c>
     </row>
     <row r="2391" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2391" s="0" t="s">
-        <v>8872</v>
+        <v>8873</v>
       </c>
       <c r="B2391" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2391" s="0" t="s">
-        <v>8873</v>
+        <v>8874</v>
       </c>
       <c r="E2391" s="0" t="s">
-        <v>8874</v>
+        <v>8875</v>
       </c>
       <c r="F2391" s="0" t="s">
-        <v>8875</v>
+        <v>8876</v>
       </c>
     </row>
     <row r="2392" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2392" s="0" t="s">
-        <v>8876</v>
+        <v>8877</v>
       </c>
       <c r="B2392" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2392" s="0" t="s">
-        <v>8877</v>
+        <v>8878</v>
       </c>
       <c r="E2392" s="0" t="s">
-        <v>8878</v>
+        <v>8879</v>
       </c>
       <c r="F2392" s="0" t="s">
-        <v>8879</v>
+        <v>8880</v>
       </c>
     </row>
     <row r="2393" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2393" s="0" t="s">
-        <v>8880</v>
+        <v>8881</v>
       </c>
       <c r="B2393" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2393" s="0" t="s">
-        <v>8869</v>
+        <v>8870</v>
       </c>
       <c r="E2393" s="0" t="s">
-        <v>8881</v>
+        <v>8882</v>
       </c>
       <c r="F2393" s="0" t="s">
-        <v>8871</v>
+        <v>8872</v>
       </c>
     </row>
     <row r="2394" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2394" s="0" t="s">
-        <v>8882</v>
+        <v>8883</v>
       </c>
       <c r="B2394" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2394" s="0" t="s">
-        <v>8883</v>
+        <v>8884</v>
       </c>
       <c r="E2394" s="0" t="s">
-        <v>8884</v>
+        <v>8885</v>
       </c>
       <c r="F2394" s="0" t="s">
-        <v>8885</v>
+        <v>8886</v>
       </c>
     </row>
     <row r="2395" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2395" s="0" t="s">
-        <v>8886</v>
+        <v>8887</v>
       </c>
       <c r="B2395" s="0" t="s">
-        <v>8887</v>
+        <v>8888</v>
       </c>
       <c r="D2395" s="0" t="s">
-        <v>8888</v>
+        <v>8889</v>
       </c>
       <c r="E2395" s="0" t="s">
-        <v>8889</v>
+        <v>8890</v>
       </c>
       <c r="F2395" s="0" t="s">
-        <v>8890</v>
+        <v>8891</v>
       </c>
     </row>
     <row r="2396" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2396" s="0" t="s">
-        <v>8891</v>
+        <v>8892</v>
       </c>
       <c r="B2396" s="0" t="s">
         <v>7061</v>
       </c>
       <c r="D2396" s="0" t="s">
-        <v>8892</v>
+        <v>8893</v>
       </c>
       <c r="E2396" s="0" t="s">
-        <v>8893</v>
+        <v>8894</v>
       </c>
       <c r="F2396" s="0" t="s">
-        <v>8894</v>
+        <v>8895</v>
       </c>
     </row>
     <row r="2397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2397" s="0" t="s">
-        <v>8895</v>
+        <v>8896</v>
       </c>
       <c r="B2397" s="0" t="s">
-        <v>8896</v>
+        <v>8897</v>
       </c>
       <c r="D2397" s="0" t="s">
-        <v>8897</v>
+        <v>8898</v>
       </c>
       <c r="E2397" s="0" t="s">
-        <v>8898</v>
+        <v>8899</v>
       </c>
       <c r="F2397" s="0" t="s">
-        <v>8899</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="2398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2398" s="0" t="s">
-        <v>8900</v>
+        <v>8901</v>
       </c>
       <c r="B2398" s="0" t="s">
-        <v>8896</v>
+        <v>8897</v>
       </c>
       <c r="D2398" s="0" t="s">
-        <v>8901</v>
+        <v>8902</v>
       </c>
       <c r="E2398" s="0" t="s">
-        <v>8902</v>
+        <v>8903</v>
       </c>
       <c r="F2398" s="0" t="s">
-        <v>8903</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="2399" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -73301,126 +73304,126 @@
     </row>
     <row r="2400" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2400" s="0" t="s">
-        <v>8904</v>
+        <v>8905</v>
       </c>
       <c r="B2400" s="0" t="s">
         <v>2693</v>
       </c>
       <c r="D2400" s="0" t="s">
-        <v>8905</v>
+        <v>8906</v>
       </c>
       <c r="E2400" s="0" t="s">
-        <v>8906</v>
+        <v>8907</v>
       </c>
       <c r="F2400" s="0" t="s">
-        <v>8907</v>
+        <v>8908</v>
       </c>
     </row>
     <row r="2401" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2401" s="0" t="s">
-        <v>8908</v>
+        <v>8909</v>
       </c>
       <c r="B2401" s="0" t="s">
         <v>2693</v>
       </c>
       <c r="D2401" s="0" t="s">
-        <v>8909</v>
+        <v>8910</v>
       </c>
       <c r="E2401" s="0" t="s">
-        <v>8910</v>
+        <v>8911</v>
       </c>
       <c r="F2401" s="0" t="s">
-        <v>8911</v>
+        <v>8912</v>
       </c>
     </row>
     <row r="2402" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2402" s="0" t="s">
-        <v>8912</v>
+        <v>8913</v>
       </c>
       <c r="B2402" s="0" t="s">
         <v>1064</v>
       </c>
       <c r="D2402" s="0" t="s">
-        <v>8913</v>
+        <v>8914</v>
       </c>
       <c r="E2402" s="0" t="s">
-        <v>8914</v>
+        <v>8915</v>
       </c>
       <c r="F2402" s="0" t="s">
-        <v>8915</v>
+        <v>8916</v>
       </c>
     </row>
     <row r="2403" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2403" s="0" t="s">
-        <v>8916</v>
+        <v>8917</v>
       </c>
       <c r="B2403" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2403" s="0" t="s">
-        <v>8917</v>
+        <v>8918</v>
       </c>
       <c r="E2403" s="0" t="s">
-        <v>8918</v>
+        <v>8919</v>
       </c>
       <c r="F2403" s="0" t="s">
-        <v>8919</v>
+        <v>8920</v>
       </c>
     </row>
     <row r="2404" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2404" s="0" t="s">
-        <v>8920</v>
+        <v>8921</v>
       </c>
       <c r="B2404" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2404" s="0" t="s">
-        <v>8921</v>
+        <v>8922</v>
       </c>
       <c r="E2404" s="0" t="s">
-        <v>8922</v>
+        <v>8923</v>
       </c>
       <c r="F2404" s="0" t="s">
-        <v>8923</v>
+        <v>8924</v>
       </c>
     </row>
     <row r="2405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2405" s="0" t="s">
-        <v>8924</v>
+        <v>8925</v>
       </c>
       <c r="B2405" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2405" s="0" t="s">
-        <v>8925</v>
+        <v>8926</v>
       </c>
       <c r="E2405" s="0" t="s">
-        <v>8926</v>
+        <v>8927</v>
       </c>
       <c r="F2405" s="0" t="s">
-        <v>8927</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="2406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2406" s="0" t="s">
-        <v>8928</v>
+        <v>8929</v>
       </c>
       <c r="B2406" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2406" s="0" t="s">
-        <v>8929</v>
+        <v>8930</v>
       </c>
       <c r="E2406" s="0" t="s">
-        <v>8930</v>
+        <v>8931</v>
       </c>
       <c r="F2406" s="0" t="s">
-        <v>8931</v>
+        <v>8932</v>
       </c>
     </row>
     <row r="2407" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2407" s="0" t="s">
-        <v>8932</v>
+        <v>8933</v>
       </c>
       <c r="B2407" s="0" t="s">
         <v>460</v>
@@ -73429,168 +73432,168 @@
         <v>7445</v>
       </c>
       <c r="E2407" s="0" t="s">
-        <v>8933</v>
+        <v>8934</v>
       </c>
       <c r="F2407" s="0" t="s">
-        <v>8934</v>
+        <v>8935</v>
       </c>
     </row>
     <row r="2408" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2408" s="0" t="s">
-        <v>8935</v>
+        <v>8936</v>
       </c>
       <c r="B2408" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2408" s="0" t="s">
-        <v>8936</v>
+        <v>8937</v>
       </c>
       <c r="E2408" s="0" t="s">
-        <v>8937</v>
+        <v>8938</v>
       </c>
       <c r="F2408" s="0" t="s">
-        <v>8938</v>
+        <v>8939</v>
       </c>
     </row>
     <row r="2409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2409" s="0" t="s">
-        <v>8939</v>
+        <v>8940</v>
       </c>
       <c r="B2409" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2409" s="0" t="s">
-        <v>8940</v>
+        <v>8941</v>
       </c>
       <c r="E2409" s="0" t="s">
-        <v>8941</v>
+        <v>8942</v>
       </c>
       <c r="F2409" s="0" t="s">
-        <v>8942</v>
+        <v>8943</v>
       </c>
     </row>
     <row r="2410" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2410" s="0" t="s">
-        <v>8943</v>
+        <v>8944</v>
       </c>
       <c r="B2410" s="0" t="s">
-        <v>8076</v>
+        <v>8077</v>
       </c>
       <c r="D2410" s="0" t="s">
-        <v>8944</v>
+        <v>8945</v>
       </c>
       <c r="E2410" s="0" t="s">
-        <v>8945</v>
+        <v>8946</v>
       </c>
       <c r="F2410" s="0" t="s">
-        <v>8946</v>
+        <v>8947</v>
       </c>
     </row>
     <row r="2411" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2411" s="0" t="s">
-        <v>8947</v>
+        <v>8948</v>
       </c>
       <c r="B2411" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2411" s="0" t="s">
-        <v>8948</v>
+        <v>8949</v>
       </c>
       <c r="E2411" s="0" t="s">
-        <v>8949</v>
+        <v>8950</v>
       </c>
       <c r="F2411" s="0" t="s">
-        <v>8950</v>
+        <v>8951</v>
       </c>
     </row>
     <row r="2412" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2412" s="0" t="s">
-        <v>8951</v>
+        <v>8952</v>
       </c>
       <c r="B2412" s="0" t="s">
         <v>3718</v>
       </c>
       <c r="D2412" s="0" t="s">
-        <v>8952</v>
+        <v>8953</v>
       </c>
       <c r="E2412" s="0" t="s">
-        <v>8953</v>
+        <v>8954</v>
       </c>
       <c r="F2412" s="0" t="s">
-        <v>8954</v>
+        <v>8955</v>
       </c>
     </row>
     <row r="2413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2413" s="0" t="s">
-        <v>8955</v>
+        <v>8956</v>
       </c>
       <c r="B2413" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2413" s="0" t="s">
-        <v>8956</v>
+        <v>8957</v>
       </c>
       <c r="E2413" s="0" t="s">
-        <v>8957</v>
+        <v>8958</v>
       </c>
       <c r="F2413" s="0" t="s">
-        <v>8958</v>
+        <v>8959</v>
       </c>
     </row>
     <row r="2414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2414" s="0" t="s">
-        <v>8959</v>
+        <v>8960</v>
       </c>
       <c r="B2414" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2414" s="0" t="s">
-        <v>8960</v>
+        <v>8961</v>
       </c>
       <c r="E2414" s="0" t="s">
-        <v>8961</v>
+        <v>8962</v>
       </c>
       <c r="F2414" s="0" t="s">
-        <v>8962</v>
+        <v>8963</v>
       </c>
     </row>
     <row r="2415" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2415" s="0" t="s">
-        <v>8963</v>
+        <v>8964</v>
       </c>
       <c r="B2415" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2415" s="0" t="s">
-        <v>8964</v>
+        <v>8965</v>
       </c>
       <c r="E2415" s="0" t="s">
         <v>4824</v>
       </c>
       <c r="F2415" s="0" t="s">
-        <v>8965</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="2416" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2416" s="0" t="s">
-        <v>8966</v>
+        <v>8967</v>
       </c>
       <c r="B2416" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2416" s="0" t="s">
-        <v>8967</v>
+        <v>8968</v>
       </c>
       <c r="E2416" s="0" t="s">
-        <v>8968</v>
+        <v>8969</v>
       </c>
       <c r="F2416" s="0" t="s">
-        <v>8969</v>
+        <v>8970</v>
       </c>
     </row>
     <row r="2417" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2417" s="0" t="s">
-        <v>8970</v>
+        <v>8971</v>
       </c>
       <c r="B2417" s="0" t="s">
         <v>547</v>
@@ -73599,18 +73602,18 @@
         <v>5555</v>
       </c>
       <c r="D2417" s="0" t="s">
-        <v>8971</v>
+        <v>8972</v>
       </c>
       <c r="E2417" s="0" t="s">
-        <v>8972</v>
+        <v>8973</v>
       </c>
       <c r="F2417" s="0" t="s">
-        <v>8973</v>
+        <v>8974</v>
       </c>
     </row>
     <row r="2418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2418" s="0" t="s">
-        <v>8974</v>
+        <v>8975</v>
       </c>
       <c r="B2418" s="0" t="s">
         <v>547</v>
@@ -73619,64 +73622,64 @@
         <v>5555</v>
       </c>
       <c r="D2418" s="0" t="s">
-        <v>8975</v>
+        <v>8976</v>
       </c>
       <c r="E2418" s="0" t="s">
-        <v>8975</v>
+        <v>8976</v>
       </c>
       <c r="F2418" s="0" t="s">
-        <v>8975</v>
+        <v>8976</v>
       </c>
     </row>
     <row r="2419" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2419" s="0" t="s">
-        <v>8976</v>
+        <v>8977</v>
       </c>
       <c r="B2419" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2419" s="0" t="s">
-        <v>8977</v>
+        <v>8978</v>
       </c>
       <c r="E2419" s="0" t="s">
-        <v>8978</v>
+        <v>8979</v>
       </c>
       <c r="F2419" s="0" t="s">
-        <v>8979</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="2420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2420" s="0" t="s">
-        <v>8980</v>
+        <v>8981</v>
       </c>
       <c r="B2420" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2420" s="0" t="s">
-        <v>8981</v>
+        <v>8982</v>
       </c>
       <c r="E2420" s="0" t="s">
-        <v>8982</v>
+        <v>8983</v>
       </c>
       <c r="F2420" s="0" t="s">
-        <v>8983</v>
+        <v>8984</v>
       </c>
     </row>
     <row r="2421" customFormat="false" ht="71.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2421" s="0" t="s">
-        <v>8984</v>
+        <v>8985</v>
       </c>
       <c r="B2421" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2421" s="2" t="s">
-        <v>8985</v>
+        <v>8986</v>
       </c>
       <c r="E2421" s="2" t="s">
-        <v>8986</v>
+        <v>8987</v>
       </c>
       <c r="F2421" s="2" t="s">
-        <v>8987</v>
+        <v>8988</v>
       </c>
     </row>
   </sheetData>

--- a/_Lang_Korean/Lang/KR/Game/General.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/General.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13818" uniqueCount="8989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13818" uniqueCount="8990">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -7264,7 +7264,7 @@
   </si>
   <si>
     <t xml:space="preserve">설정이 On 일 경우, 제작 대상의 소지 수가 지정 개수에 도달할 때까지 계속 만듭니다.
-또한, 이 작업은 제거할때까지 계속 남아 있습니다.</t>
+또한, 이 태스크는 제거할때까지 계속 남아 있습니다.</t>
   </si>
   <si>
     <t xml:space="preserve">When turned on, the item is crafted until  the stock reaches the designated number.
@@ -16223,7 +16223,7 @@
     <t xml:space="preserve">tUndo</t>
   </si>
   <si>
-    <t xml:space="preserve">마지막 테스크 취소(CTRL+z)</t>
+    <t xml:space="preserve">마지막 태스크 취소(CTRL+z)</t>
   </si>
   <si>
     <t xml:space="preserve">Cancel last tasks(CTRL+z)</t>
@@ -16235,7 +16235,7 @@
     <t xml:space="preserve">tUndoNone</t>
   </si>
   <si>
-    <t xml:space="preserve">마지막 테스크는 없다 </t>
+    <t xml:space="preserve">마지막 태스크가 없다 </t>
   </si>
   <si>
     <t xml:space="preserve">No last tasks</t>
@@ -18728,7 +18728,7 @@
     <t xml:space="preserve">cancelTask</t>
   </si>
   <si>
-    <t xml:space="preserve">테스크 취소</t>
+    <t xml:space="preserve">태스크 취소</t>
   </si>
   <si>
     <t xml:space="preserve">Cancel Task</t>
@@ -25758,6 +25758,9 @@
   </si>
   <si>
     <t xml:space="preserve">faction_task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">태스크</t>
   </si>
   <si>
     <t xml:space="preserve">Task</t>
@@ -27375,12 +27378,12 @@
   <dimension ref="A1:F2421"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A2089" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D2098" activeCellId="0" sqref="D2098"/>
+      <selection pane="bottomLeft" activeCell="D219" activeCellId="0" sqref="D219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="14.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.76"/>
@@ -39874,7 +39877,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="83.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
         <v>2392</v>
       </c>
@@ -71484,440 +71487,440 @@
         <v>105</v>
       </c>
       <c r="D2294" s="0" t="s">
-        <v>905</v>
+        <v>8498</v>
       </c>
       <c r="E2294" s="0" t="s">
-        <v>8498</v>
+        <v>8499</v>
       </c>
       <c r="F2294" s="0" t="s">
-        <v>8499</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="2295" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2295" s="0" t="s">
-        <v>8500</v>
+        <v>8501</v>
       </c>
       <c r="B2295" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2295" s="0" t="s">
-        <v>8501</v>
+        <v>8502</v>
       </c>
       <c r="E2295" s="0" t="s">
-        <v>8502</v>
+        <v>8503</v>
       </c>
       <c r="F2295" s="0" t="s">
-        <v>8503</v>
+        <v>8504</v>
       </c>
     </row>
     <row r="2296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2296" s="0" t="s">
-        <v>8504</v>
+        <v>8505</v>
       </c>
       <c r="B2296" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2296" s="0" t="s">
-        <v>8505</v>
+        <v>8506</v>
       </c>
       <c r="E2296" s="0" t="s">
-        <v>8506</v>
+        <v>8507</v>
       </c>
       <c r="F2296" s="0" t="s">
-        <v>8507</v>
+        <v>8508</v>
       </c>
     </row>
     <row r="2297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2297" s="0" t="s">
-        <v>8508</v>
+        <v>8509</v>
       </c>
       <c r="B2297" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2297" s="0" t="s">
-        <v>8509</v>
+        <v>8510</v>
       </c>
       <c r="E2297" s="0" t="s">
-        <v>8510</v>
+        <v>8511</v>
       </c>
       <c r="F2297" s="0" t="s">
-        <v>8511</v>
+        <v>8512</v>
       </c>
     </row>
     <row r="2298" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2298" s="0" t="s">
-        <v>8512</v>
+        <v>8513</v>
       </c>
       <c r="B2298" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2298" s="0" t="s">
-        <v>8513</v>
+        <v>8514</v>
       </c>
       <c r="E2298" s="0" t="s">
-        <v>8514</v>
+        <v>8515</v>
       </c>
       <c r="F2298" s="0" t="s">
-        <v>8515</v>
+        <v>8516</v>
       </c>
     </row>
     <row r="2299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2299" s="0" t="s">
-        <v>8516</v>
+        <v>8517</v>
       </c>
       <c r="B2299" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2299" s="0" t="s">
-        <v>8517</v>
+        <v>8518</v>
       </c>
       <c r="E2299" s="0" t="s">
-        <v>8518</v>
+        <v>8519</v>
       </c>
       <c r="F2299" s="0" t="s">
-        <v>8519</v>
+        <v>8520</v>
       </c>
     </row>
     <row r="2300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2300" s="0" t="s">
-        <v>8520</v>
+        <v>8521</v>
       </c>
       <c r="B2300" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2300" s="0" t="s">
-        <v>8521</v>
+        <v>8522</v>
       </c>
       <c r="E2300" s="0" t="s">
-        <v>8522</v>
+        <v>8523</v>
       </c>
       <c r="F2300" s="0" t="s">
-        <v>8523</v>
+        <v>8524</v>
       </c>
     </row>
     <row r="2301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2301" s="0" t="s">
-        <v>8524</v>
+        <v>8525</v>
       </c>
       <c r="B2301" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2301" s="0" t="s">
-        <v>8525</v>
+        <v>8526</v>
       </c>
       <c r="E2301" s="0" t="s">
-        <v>8526</v>
+        <v>8527</v>
       </c>
       <c r="F2301" s="0" t="s">
-        <v>8527</v>
+        <v>8528</v>
       </c>
     </row>
     <row r="2302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2302" s="0" t="s">
-        <v>8528</v>
+        <v>8529</v>
       </c>
       <c r="B2302" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2302" s="0" t="s">
-        <v>8529</v>
+        <v>8530</v>
       </c>
       <c r="E2302" s="0" t="s">
-        <v>8530</v>
+        <v>8531</v>
       </c>
       <c r="F2302" s="0" t="s">
-        <v>8531</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="2303" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2303" s="0" t="s">
-        <v>8532</v>
+        <v>8533</v>
       </c>
       <c r="B2303" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2303" s="0" t="s">
-        <v>8533</v>
+        <v>8534</v>
       </c>
       <c r="E2303" s="0" t="s">
-        <v>8534</v>
+        <v>8535</v>
       </c>
       <c r="F2303" s="0" t="s">
-        <v>8535</v>
+        <v>8536</v>
       </c>
     </row>
     <row r="2304" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2304" s="0" t="s">
-        <v>8536</v>
+        <v>8537</v>
       </c>
       <c r="B2304" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2304" s="0" t="s">
-        <v>8537</v>
+        <v>8538</v>
       </c>
       <c r="E2304" s="0" t="s">
-        <v>8538</v>
+        <v>8539</v>
       </c>
       <c r="F2304" s="0" t="s">
-        <v>8539</v>
+        <v>8540</v>
       </c>
     </row>
     <row r="2305" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2305" s="0" t="s">
-        <v>8540</v>
+        <v>8541</v>
       </c>
       <c r="B2305" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2305" s="0" t="s">
-        <v>8541</v>
+        <v>8542</v>
       </c>
       <c r="E2305" s="0" t="s">
-        <v>8542</v>
+        <v>8543</v>
       </c>
       <c r="F2305" s="0" t="s">
-        <v>8543</v>
+        <v>8544</v>
       </c>
     </row>
     <row r="2306" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2306" s="0" t="s">
-        <v>8544</v>
+        <v>8545</v>
       </c>
       <c r="B2306" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2306" s="0" t="s">
-        <v>8545</v>
+        <v>8546</v>
       </c>
       <c r="E2306" s="0" t="s">
-        <v>8546</v>
+        <v>8547</v>
       </c>
       <c r="F2306" s="0" t="s">
-        <v>8547</v>
+        <v>8548</v>
       </c>
     </row>
     <row r="2307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2307" s="0" t="s">
-        <v>8548</v>
+        <v>8549</v>
       </c>
       <c r="B2307" s="0" t="s">
         <v>465</v>
       </c>
       <c r="D2307" s="0" t="s">
-        <v>8549</v>
+        <v>8550</v>
       </c>
       <c r="E2307" s="0" t="s">
-        <v>8550</v>
+        <v>8551</v>
       </c>
       <c r="F2307" s="0" t="s">
-        <v>8551</v>
+        <v>8552</v>
       </c>
     </row>
     <row r="2308" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2308" s="0" t="s">
-        <v>8552</v>
+        <v>8553</v>
       </c>
       <c r="B2308" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2308" s="0" t="s">
-        <v>8553</v>
+        <v>8554</v>
       </c>
       <c r="E2308" s="0" t="s">
-        <v>8554</v>
+        <v>8555</v>
       </c>
       <c r="F2308" s="0" t="s">
-        <v>8555</v>
+        <v>8556</v>
       </c>
     </row>
     <row r="2309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2309" s="0" t="s">
-        <v>8556</v>
+        <v>8557</v>
       </c>
       <c r="B2309" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2309" s="0" t="s">
-        <v>8557</v>
+        <v>8558</v>
       </c>
       <c r="E2309" s="0" t="s">
-        <v>8558</v>
+        <v>8559</v>
       </c>
       <c r="F2309" s="0" t="s">
-        <v>8559</v>
+        <v>8560</v>
       </c>
     </row>
     <row r="2310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2310" s="0" t="s">
-        <v>8560</v>
+        <v>8561</v>
       </c>
       <c r="B2310" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2310" s="0" t="s">
-        <v>8561</v>
+        <v>8562</v>
       </c>
       <c r="E2310" s="0" t="s">
-        <v>8562</v>
+        <v>8563</v>
       </c>
       <c r="F2310" s="0" t="s">
-        <v>8563</v>
+        <v>8564</v>
       </c>
     </row>
     <row r="2311" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2311" s="0" t="s">
-        <v>8564</v>
+        <v>8565</v>
       </c>
       <c r="B2311" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D2311" s="0" t="s">
-        <v>8565</v>
+        <v>8566</v>
       </c>
       <c r="E2311" s="0" t="s">
-        <v>8566</v>
+        <v>8567</v>
       </c>
       <c r="F2311" s="0" t="s">
-        <v>8567</v>
+        <v>8568</v>
       </c>
     </row>
     <row r="2312" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2312" s="0" t="s">
-        <v>8568</v>
+        <v>8569</v>
       </c>
       <c r="B2312" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2312" s="0" t="s">
-        <v>8569</v>
+        <v>8570</v>
       </c>
       <c r="E2312" s="0" t="s">
-        <v>8570</v>
+        <v>8571</v>
       </c>
       <c r="F2312" s="0" t="s">
-        <v>8571</v>
+        <v>8572</v>
       </c>
     </row>
     <row r="2313" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2313" s="0" t="s">
-        <v>8572</v>
+        <v>8573</v>
       </c>
       <c r="B2313" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2313" s="0" t="s">
-        <v>8573</v>
+        <v>8574</v>
       </c>
       <c r="E2313" s="0" t="s">
-        <v>8574</v>
+        <v>8575</v>
       </c>
       <c r="F2313" s="0" t="s">
-        <v>8575</v>
+        <v>8576</v>
       </c>
     </row>
     <row r="2314" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2314" s="0" t="s">
-        <v>8576</v>
+        <v>8577</v>
       </c>
       <c r="B2314" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2314" s="2" t="s">
-        <v>8577</v>
+        <v>8578</v>
       </c>
       <c r="E2314" s="2" t="s">
-        <v>8578</v>
+        <v>8579</v>
       </c>
       <c r="F2314" s="2" t="s">
-        <v>8579</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="2315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2315" s="0" t="s">
-        <v>8580</v>
+        <v>8581</v>
       </c>
       <c r="B2315" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2315" s="0" t="s">
-        <v>8581</v>
+        <v>8582</v>
       </c>
       <c r="F2315" s="0" t="s">
-        <v>8582</v>
+        <v>8583</v>
       </c>
     </row>
     <row r="2316" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2316" s="0" t="s">
-        <v>8583</v>
+        <v>8584</v>
       </c>
       <c r="B2316" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2316" s="2" t="s">
-        <v>8584</v>
+        <v>8585</v>
       </c>
       <c r="E2316" s="2" t="s">
-        <v>8585</v>
+        <v>8586</v>
       </c>
       <c r="F2316" s="2" t="s">
-        <v>8586</v>
+        <v>8587</v>
       </c>
     </row>
     <row r="2317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2317" s="0" t="s">
-        <v>8587</v>
+        <v>8588</v>
       </c>
       <c r="B2317" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2317" s="0" t="s">
-        <v>8588</v>
+        <v>8589</v>
       </c>
       <c r="E2317" s="0" t="s">
-        <v>8589</v>
+        <v>8590</v>
       </c>
       <c r="F2317" s="0" t="s">
-        <v>8590</v>
+        <v>8591</v>
       </c>
     </row>
     <row r="2318" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2318" s="0" t="s">
-        <v>8591</v>
+        <v>8592</v>
       </c>
       <c r="B2318" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2318" s="0" t="s">
-        <v>8592</v>
+        <v>8593</v>
       </c>
       <c r="E2318" s="0" t="s">
-        <v>8593</v>
+        <v>8594</v>
       </c>
       <c r="F2318" s="0" t="s">
-        <v>8594</v>
+        <v>8595</v>
       </c>
     </row>
     <row r="2319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2319" s="0" t="s">
-        <v>8595</v>
+        <v>8596</v>
       </c>
       <c r="B2319" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2319" s="0" t="s">
-        <v>8596</v>
+        <v>8597</v>
       </c>
       <c r="E2319" s="0" t="s">
-        <v>8597</v>
+        <v>8598</v>
       </c>
       <c r="F2319" s="0" t="s">
-        <v>8598</v>
+        <v>8599</v>
       </c>
     </row>
     <row r="2320" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2320" s="0" t="s">
-        <v>8599</v>
+        <v>8600</v>
       </c>
       <c r="B2320" s="0" t="s">
         <v>257</v>
@@ -71925,619 +71928,619 @@
     </row>
     <row r="2321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2321" s="0" t="s">
-        <v>8600</v>
+        <v>8601</v>
       </c>
       <c r="B2321" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2321" s="0" t="s">
-        <v>8601</v>
+        <v>8602</v>
       </c>
       <c r="E2321" s="0" t="s">
-        <v>8602</v>
+        <v>8603</v>
       </c>
       <c r="F2321" s="0" t="s">
-        <v>8603</v>
+        <v>8604</v>
       </c>
     </row>
     <row r="2322" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2322" s="0" t="s">
-        <v>8604</v>
+        <v>8605</v>
       </c>
       <c r="B2322" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2322" s="0" t="s">
-        <v>8605</v>
+        <v>8606</v>
       </c>
       <c r="E2322" s="0" t="s">
-        <v>8606</v>
+        <v>8607</v>
       </c>
       <c r="F2322" s="0" t="s">
-        <v>8607</v>
+        <v>8608</v>
       </c>
     </row>
     <row r="2323" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2323" s="0" t="s">
-        <v>8608</v>
+        <v>8609</v>
       </c>
       <c r="B2323" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2323" s="0" t="s">
-        <v>8609</v>
+        <v>8610</v>
       </c>
       <c r="E2323" s="0" t="s">
-        <v>8610</v>
+        <v>8611</v>
       </c>
       <c r="F2323" s="0" t="s">
-        <v>8611</v>
+        <v>8612</v>
       </c>
     </row>
     <row r="2324" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2324" s="0" t="s">
-        <v>8612</v>
+        <v>8613</v>
       </c>
       <c r="B2324" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2324" s="0" t="s">
-        <v>8613</v>
+        <v>8614</v>
       </c>
       <c r="E2324" s="0" t="s">
-        <v>8614</v>
+        <v>8615</v>
       </c>
       <c r="F2324" s="0" t="s">
-        <v>8615</v>
+        <v>8616</v>
       </c>
     </row>
     <row r="2325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2325" s="0" t="s">
-        <v>8616</v>
+        <v>8617</v>
       </c>
       <c r="B2325" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2325" s="0" t="s">
-        <v>8617</v>
+        <v>8618</v>
       </c>
       <c r="E2325" s="0" t="s">
-        <v>8618</v>
+        <v>8619</v>
       </c>
       <c r="F2325" s="0" t="s">
-        <v>8619</v>
+        <v>8620</v>
       </c>
     </row>
     <row r="2326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2326" s="0" t="s">
-        <v>8620</v>
+        <v>8621</v>
       </c>
       <c r="B2326" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2326" s="0" t="s">
-        <v>8621</v>
+        <v>8622</v>
       </c>
       <c r="E2326" s="0" t="s">
-        <v>8622</v>
+        <v>8623</v>
       </c>
       <c r="F2326" s="0" t="s">
-        <v>8623</v>
+        <v>8624</v>
       </c>
     </row>
     <row r="2327" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2327" s="0" t="s">
-        <v>8624</v>
+        <v>8625</v>
       </c>
       <c r="B2327" s="0" t="s">
         <v>6551</v>
       </c>
       <c r="D2327" s="0" t="s">
-        <v>8625</v>
+        <v>8626</v>
       </c>
       <c r="E2327" s="0" t="s">
-        <v>8626</v>
+        <v>8627</v>
       </c>
       <c r="F2327" s="0" t="s">
-        <v>8627</v>
+        <v>8628</v>
       </c>
     </row>
     <row r="2328" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2328" s="0" t="s">
-        <v>8628</v>
+        <v>8629</v>
       </c>
       <c r="B2328" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2328" s="0" t="s">
-        <v>8629</v>
+        <v>8630</v>
       </c>
       <c r="E2328" s="0" t="s">
-        <v>8630</v>
+        <v>8631</v>
       </c>
       <c r="F2328" s="0" t="s">
-        <v>8631</v>
+        <v>8632</v>
       </c>
     </row>
     <row r="2329" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2329" s="0" t="s">
-        <v>8632</v>
+        <v>8633</v>
       </c>
       <c r="B2329" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2329" s="0" t="s">
-        <v>8633</v>
+        <v>8634</v>
       </c>
       <c r="E2329" s="0" t="s">
-        <v>8634</v>
+        <v>8635</v>
       </c>
       <c r="F2329" s="0" t="s">
-        <v>8635</v>
+        <v>8636</v>
       </c>
     </row>
     <row r="2330" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2330" s="0" t="s">
-        <v>8636</v>
+        <v>8637</v>
       </c>
       <c r="B2330" s="0" t="s">
         <v>257</v>
       </c>
       <c r="D2330" s="0" t="s">
-        <v>8637</v>
+        <v>8638</v>
       </c>
       <c r="E2330" s="0" t="s">
-        <v>8638</v>
+        <v>8639</v>
       </c>
       <c r="F2330" s="0" t="s">
-        <v>8639</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="2331" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2331" s="0" t="s">
-        <v>8640</v>
+        <v>8641</v>
       </c>
       <c r="B2331" s="0" t="s">
-        <v>8641</v>
+        <v>8642</v>
       </c>
       <c r="D2331" s="0" t="s">
-        <v>8642</v>
+        <v>8643</v>
       </c>
       <c r="E2331" s="0" t="s">
-        <v>8643</v>
+        <v>8644</v>
       </c>
       <c r="F2331" s="0" t="s">
-        <v>8644</v>
+        <v>8645</v>
       </c>
     </row>
     <row r="2332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2332" s="0" t="s">
-        <v>8645</v>
+        <v>8646</v>
       </c>
       <c r="B2332" s="0" t="s">
-        <v>8646</v>
+        <v>8647</v>
       </c>
       <c r="D2332" s="0" t="s">
-        <v>8647</v>
+        <v>8648</v>
       </c>
       <c r="E2332" s="0" t="s">
-        <v>8648</v>
+        <v>8649</v>
       </c>
       <c r="F2332" s="0" t="s">
-        <v>8649</v>
+        <v>8650</v>
       </c>
     </row>
     <row r="2333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2333" s="0" t="s">
-        <v>8650</v>
+        <v>8651</v>
       </c>
       <c r="B2333" s="0" t="s">
-        <v>8646</v>
+        <v>8647</v>
       </c>
       <c r="D2333" s="0" t="s">
-        <v>8651</v>
+        <v>8652</v>
       </c>
       <c r="E2333" s="0" t="s">
-        <v>8652</v>
+        <v>8653</v>
       </c>
       <c r="F2333" s="0" t="s">
-        <v>8653</v>
+        <v>8654</v>
       </c>
     </row>
     <row r="2334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2334" s="0" t="s">
-        <v>8654</v>
+        <v>8655</v>
       </c>
       <c r="B2334" s="0" t="s">
-        <v>8646</v>
+        <v>8647</v>
       </c>
       <c r="D2334" s="0" t="s">
         <v>4398</v>
       </c>
       <c r="E2334" s="0" t="s">
-        <v>8655</v>
+        <v>8656</v>
       </c>
       <c r="F2334" s="0" t="s">
-        <v>8656</v>
+        <v>8657</v>
       </c>
     </row>
     <row r="2335" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2335" s="0" t="s">
-        <v>8657</v>
+        <v>8658</v>
       </c>
       <c r="B2335" s="0" t="s">
-        <v>8646</v>
+        <v>8647</v>
       </c>
       <c r="D2335" s="0" t="s">
-        <v>8658</v>
+        <v>8659</v>
       </c>
       <c r="E2335" s="0" t="s">
-        <v>8659</v>
+        <v>8660</v>
       </c>
       <c r="F2335" s="0" t="s">
-        <v>8660</v>
+        <v>8661</v>
       </c>
     </row>
     <row r="2336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2336" s="0" t="s">
-        <v>8661</v>
+        <v>8662</v>
       </c>
       <c r="B2336" s="0" t="s">
-        <v>8646</v>
+        <v>8647</v>
       </c>
       <c r="D2336" s="0" t="s">
-        <v>8662</v>
+        <v>8663</v>
       </c>
       <c r="E2336" s="0" t="s">
-        <v>8663</v>
+        <v>8664</v>
       </c>
       <c r="F2336" s="0" t="s">
-        <v>8664</v>
+        <v>8665</v>
       </c>
     </row>
     <row r="2337" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2337" s="0" t="s">
-        <v>8665</v>
+        <v>8666</v>
       </c>
       <c r="B2337" s="0" t="s">
-        <v>8646</v>
+        <v>8647</v>
       </c>
       <c r="D2337" s="0" t="s">
-        <v>8666</v>
+        <v>8667</v>
       </c>
       <c r="E2337" s="0" t="s">
         <v>1403</v>
       </c>
       <c r="F2337" s="0" t="s">
-        <v>8667</v>
+        <v>8668</v>
       </c>
     </row>
     <row r="2338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2338" s="0" t="s">
-        <v>8668</v>
+        <v>8669</v>
       </c>
       <c r="B2338" s="0" t="s">
-        <v>8646</v>
+        <v>8647</v>
       </c>
       <c r="D2338" s="0" t="s">
-        <v>8669</v>
+        <v>8670</v>
       </c>
       <c r="E2338" s="0" t="s">
-        <v>8670</v>
+        <v>8671</v>
       </c>
       <c r="F2338" s="0" t="s">
-        <v>8671</v>
+        <v>8672</v>
       </c>
     </row>
     <row r="2339" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2339" s="0" t="s">
-        <v>8672</v>
+        <v>8673</v>
       </c>
       <c r="B2339" s="0" t="s">
-        <v>8646</v>
+        <v>8647</v>
       </c>
       <c r="D2339" s="0" t="s">
-        <v>8673</v>
+        <v>8674</v>
       </c>
       <c r="E2339" s="0" t="s">
-        <v>8674</v>
+        <v>8675</v>
       </c>
       <c r="F2339" s="0" t="s">
-        <v>8675</v>
+        <v>8676</v>
       </c>
     </row>
     <row r="2340" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2340" s="0" t="s">
-        <v>8676</v>
+        <v>8677</v>
       </c>
       <c r="B2340" s="0" t="s">
-        <v>8646</v>
+        <v>8647</v>
       </c>
       <c r="D2340" s="0" t="s">
-        <v>8677</v>
+        <v>8678</v>
       </c>
       <c r="E2340" s="0" t="s">
-        <v>8678</v>
+        <v>8679</v>
       </c>
       <c r="F2340" s="0" t="s">
-        <v>8679</v>
+        <v>8680</v>
       </c>
     </row>
     <row r="2341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2341" s="0" t="s">
-        <v>8680</v>
+        <v>8681</v>
       </c>
       <c r="B2341" s="0" t="s">
-        <v>8646</v>
+        <v>8647</v>
       </c>
       <c r="D2341" s="0" t="s">
-        <v>8681</v>
+        <v>8682</v>
       </c>
       <c r="E2341" s="0" t="s">
-        <v>8682</v>
+        <v>8683</v>
       </c>
       <c r="F2341" s="0" t="s">
-        <v>8683</v>
+        <v>8684</v>
       </c>
     </row>
     <row r="2342" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2342" s="0" t="s">
-        <v>8684</v>
+        <v>8685</v>
       </c>
       <c r="B2342" s="0" t="s">
         <v>3833</v>
       </c>
       <c r="D2342" s="0" t="s">
-        <v>8685</v>
+        <v>8686</v>
       </c>
       <c r="E2342" s="0" t="s">
-        <v>8686</v>
+        <v>8687</v>
       </c>
       <c r="F2342" s="0" t="s">
-        <v>8687</v>
+        <v>8688</v>
       </c>
     </row>
     <row r="2343" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2343" s="0" t="s">
-        <v>8688</v>
+        <v>8689</v>
       </c>
       <c r="B2343" s="0" t="s">
         <v>3833</v>
       </c>
       <c r="D2343" s="0" t="s">
-        <v>8689</v>
+        <v>8690</v>
       </c>
       <c r="E2343" s="0" t="s">
-        <v>8690</v>
+        <v>8691</v>
       </c>
       <c r="F2343" s="0" t="s">
-        <v>8691</v>
+        <v>8692</v>
       </c>
     </row>
     <row r="2344" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2344" s="0" t="s">
-        <v>8692</v>
+        <v>8693</v>
       </c>
       <c r="B2344" s="0" t="s">
-        <v>8693</v>
+        <v>8694</v>
       </c>
       <c r="D2344" s="0" t="s">
-        <v>8694</v>
+        <v>8695</v>
       </c>
       <c r="E2344" s="0" t="s">
-        <v>8695</v>
+        <v>8696</v>
       </c>
       <c r="F2344" s="0" t="s">
-        <v>8696</v>
+        <v>8697</v>
       </c>
     </row>
     <row r="2345" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2345" s="0" t="s">
-        <v>8697</v>
+        <v>8698</v>
       </c>
       <c r="B2345" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D2345" s="0" t="s">
-        <v>8698</v>
+        <v>8699</v>
       </c>
       <c r="E2345" s="0" t="s">
-        <v>8699</v>
+        <v>8700</v>
       </c>
       <c r="F2345" s="0" t="s">
-        <v>8700</v>
+        <v>8701</v>
       </c>
     </row>
     <row r="2346" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2346" s="0" t="s">
-        <v>8701</v>
+        <v>8702</v>
       </c>
       <c r="B2346" s="0" t="s">
         <v>302</v>
       </c>
       <c r="D2346" s="0" t="s">
-        <v>8702</v>
+        <v>8703</v>
       </c>
       <c r="E2346" s="0" t="s">
-        <v>8703</v>
+        <v>8704</v>
       </c>
       <c r="F2346" s="0" t="s">
-        <v>8704</v>
+        <v>8705</v>
       </c>
     </row>
     <row r="2347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2347" s="0" t="s">
-        <v>8705</v>
+        <v>8706</v>
       </c>
       <c r="B2347" s="0" t="s">
         <v>302</v>
       </c>
       <c r="D2347" s="0" t="s">
-        <v>8706</v>
+        <v>8707</v>
       </c>
       <c r="E2347" s="0" t="s">
-        <v>8707</v>
+        <v>8708</v>
       </c>
       <c r="F2347" s="0" t="s">
-        <v>8708</v>
+        <v>8709</v>
       </c>
     </row>
     <row r="2348" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2348" s="0" t="s">
-        <v>8709</v>
+        <v>8710</v>
       </c>
       <c r="B2348" s="0" t="s">
         <v>302</v>
       </c>
       <c r="D2348" s="0" t="s">
-        <v>8710</v>
+        <v>8711</v>
       </c>
       <c r="E2348" s="0" t="s">
-        <v>8711</v>
+        <v>8712</v>
       </c>
       <c r="F2348" s="0" t="s">
-        <v>8712</v>
+        <v>8713</v>
       </c>
     </row>
     <row r="2349" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2349" s="0" t="s">
-        <v>8713</v>
+        <v>8714</v>
       </c>
       <c r="B2349" s="0" t="s">
         <v>2450</v>
       </c>
       <c r="D2349" s="0" t="s">
-        <v>8714</v>
+        <v>8715</v>
       </c>
       <c r="E2349" s="0" t="s">
-        <v>8715</v>
+        <v>8716</v>
       </c>
       <c r="F2349" s="0" t="s">
-        <v>8716</v>
+        <v>8717</v>
       </c>
     </row>
     <row r="2350" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2350" s="0" t="s">
-        <v>8717</v>
+        <v>8718</v>
       </c>
       <c r="B2350" s="0" t="s">
-        <v>8718</v>
+        <v>8719</v>
       </c>
       <c r="D2350" s="0" t="s">
-        <v>8719</v>
+        <v>8720</v>
       </c>
       <c r="E2350" s="0" t="s">
-        <v>8720</v>
+        <v>8721</v>
       </c>
       <c r="F2350" s="0" t="s">
-        <v>8721</v>
+        <v>8722</v>
       </c>
     </row>
     <row r="2351" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2351" s="0" t="s">
-        <v>8722</v>
+        <v>8723</v>
       </c>
       <c r="B2351" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D2351" s="0" t="s">
-        <v>8723</v>
+        <v>8724</v>
       </c>
       <c r="E2351" s="0" t="s">
-        <v>8724</v>
+        <v>8725</v>
       </c>
       <c r="F2351" s="0" t="s">
-        <v>8725</v>
+        <v>8726</v>
       </c>
     </row>
     <row r="2352" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2352" s="0" t="s">
-        <v>8726</v>
+        <v>8727</v>
       </c>
       <c r="B2352" s="0" t="s">
-        <v>8727</v>
+        <v>8728</v>
       </c>
       <c r="D2352" s="0" t="s">
-        <v>8728</v>
+        <v>8729</v>
       </c>
       <c r="E2352" s="0" t="s">
-        <v>8729</v>
+        <v>8730</v>
       </c>
       <c r="F2352" s="0" t="s">
-        <v>8730</v>
+        <v>8731</v>
       </c>
     </row>
     <row r="2353" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2353" s="0" t="s">
-        <v>8731</v>
+        <v>8732</v>
       </c>
       <c r="B2353" s="0" t="s">
         <v>6551</v>
       </c>
       <c r="D2353" s="0" t="s">
-        <v>8732</v>
+        <v>8733</v>
       </c>
       <c r="E2353" s="0" t="s">
-        <v>8733</v>
+        <v>8734</v>
       </c>
       <c r="F2353" s="0" t="s">
-        <v>8734</v>
+        <v>8735</v>
       </c>
     </row>
     <row r="2354" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2354" s="0" t="s">
-        <v>8735</v>
+        <v>8736</v>
       </c>
       <c r="B2354" s="0" t="s">
         <v>6551</v>
       </c>
       <c r="D2354" s="2" t="s">
-        <v>8736</v>
+        <v>8737</v>
       </c>
       <c r="E2354" s="2" t="s">
-        <v>8737</v>
+        <v>8738</v>
       </c>
       <c r="F2354" s="2" t="s">
-        <v>8738</v>
+        <v>8739</v>
       </c>
     </row>
     <row r="2355" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2355" s="0" t="s">
-        <v>8739</v>
+        <v>8740</v>
       </c>
       <c r="B2355" s="0" t="s">
         <v>1187</v>
       </c>
       <c r="D2355" s="0" t="s">
-        <v>8740</v>
+        <v>8741</v>
       </c>
       <c r="E2355" s="0" t="s">
-        <v>8741</v>
+        <v>8742</v>
       </c>
       <c r="F2355" s="0" t="s">
-        <v>8742</v>
+        <v>8743</v>
       </c>
     </row>
     <row r="2356" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2356" s="0" t="s">
-        <v>8743</v>
+        <v>8744</v>
       </c>
       <c r="B2356" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D2356" s="0" t="s">
-        <v>8744</v>
+        <v>8745</v>
       </c>
       <c r="E2356" s="0" t="s">
-        <v>8745</v>
+        <v>8746</v>
       </c>
       <c r="F2356" s="0" t="s">
-        <v>8746</v>
+        <v>8747</v>
       </c>
     </row>
     <row r="2357" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2357" s="0" t="s">
-        <v>8747</v>
+        <v>8748</v>
       </c>
       <c r="B2357" s="0" t="s">
         <v>44</v>
@@ -72546,18 +72549,18 @@
         <v>843</v>
       </c>
       <c r="D2357" s="0" t="s">
-        <v>8748</v>
+        <v>8749</v>
       </c>
       <c r="E2357" s="0" t="s">
-        <v>8749</v>
+        <v>8750</v>
       </c>
       <c r="F2357" s="0" t="s">
-        <v>8750</v>
+        <v>8751</v>
       </c>
     </row>
     <row r="2358" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2358" s="0" t="s">
-        <v>8751</v>
+        <v>8752</v>
       </c>
       <c r="B2358" s="0" t="s">
         <v>44</v>
@@ -72577,7 +72580,7 @@
     </row>
     <row r="2359" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2359" s="0" t="s">
-        <v>8752</v>
+        <v>8753</v>
       </c>
       <c r="B2359" s="0" t="s">
         <v>44</v>
@@ -72597,7 +72600,7 @@
     </row>
     <row r="2360" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2360" s="0" t="s">
-        <v>8753</v>
+        <v>8754</v>
       </c>
       <c r="B2360" s="0" t="s">
         <v>44</v>
@@ -72606,178 +72609,178 @@
         <v>843</v>
       </c>
       <c r="D2360" s="0" t="s">
-        <v>8754</v>
+        <v>8755</v>
       </c>
       <c r="E2360" s="0" t="s">
-        <v>8755</v>
+        <v>8756</v>
       </c>
       <c r="F2360" s="0" t="s">
-        <v>8756</v>
+        <v>8757</v>
       </c>
     </row>
     <row r="2361" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2361" s="0" t="s">
-        <v>8757</v>
+        <v>8758</v>
       </c>
       <c r="B2361" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2361" s="0" t="s">
-        <v>8758</v>
+        <v>8759</v>
       </c>
       <c r="D2361" s="0" t="s">
-        <v>8759</v>
+        <v>8760</v>
       </c>
       <c r="E2361" s="0" t="s">
-        <v>8760</v>
+        <v>8761</v>
       </c>
       <c r="F2361" s="0" t="s">
-        <v>8761</v>
+        <v>8762</v>
       </c>
     </row>
     <row r="2362" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2362" s="0" t="s">
-        <v>8762</v>
+        <v>8763</v>
       </c>
       <c r="B2362" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2362" s="0" t="s">
-        <v>8758</v>
+        <v>8759</v>
       </c>
       <c r="D2362" s="0" t="s">
-        <v>8763</v>
+        <v>8764</v>
       </c>
       <c r="E2362" s="0" t="s">
-        <v>8764</v>
+        <v>8765</v>
       </c>
       <c r="F2362" s="0" t="s">
-        <v>8765</v>
+        <v>8766</v>
       </c>
     </row>
     <row r="2363" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2363" s="0" t="s">
-        <v>8766</v>
+        <v>8767</v>
       </c>
       <c r="B2363" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2363" s="0" t="s">
-        <v>8758</v>
+        <v>8759</v>
       </c>
       <c r="D2363" s="0" t="s">
-        <v>8767</v>
+        <v>8768</v>
       </c>
       <c r="E2363" s="0" t="s">
-        <v>8768</v>
+        <v>8769</v>
       </c>
       <c r="F2363" s="0" t="s">
-        <v>8769</v>
+        <v>8770</v>
       </c>
     </row>
     <row r="2364" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2364" s="0" t="s">
-        <v>8770</v>
+        <v>8771</v>
       </c>
       <c r="B2364" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2364" s="0" t="s">
-        <v>8758</v>
+        <v>8759</v>
       </c>
       <c r="D2364" s="0" t="s">
-        <v>8771</v>
+        <v>8772</v>
       </c>
       <c r="E2364" s="0" t="s">
         <v>5180</v>
       </c>
       <c r="F2364" s="0" t="s">
-        <v>8772</v>
+        <v>8773</v>
       </c>
     </row>
     <row r="2365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2365" s="0" t="s">
-        <v>8773</v>
+        <v>8774</v>
       </c>
       <c r="B2365" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2365" s="0" t="s">
-        <v>8758</v>
+        <v>8759</v>
       </c>
       <c r="D2365" s="0" t="s">
-        <v>8774</v>
+        <v>8775</v>
       </c>
       <c r="E2365" s="0" t="s">
-        <v>8775</v>
+        <v>8776</v>
       </c>
       <c r="F2365" s="0" t="s">
-        <v>8776</v>
+        <v>8777</v>
       </c>
     </row>
     <row r="2366" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2366" s="0" t="s">
-        <v>8777</v>
+        <v>8778</v>
       </c>
       <c r="B2366" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2366" s="0" t="s">
-        <v>8758</v>
+        <v>8759</v>
       </c>
       <c r="D2366" s="0" t="s">
-        <v>8778</v>
+        <v>8779</v>
       </c>
       <c r="E2366" s="0" t="s">
-        <v>8779</v>
+        <v>8780</v>
       </c>
       <c r="F2366" s="0" t="s">
-        <v>8780</v>
+        <v>8781</v>
       </c>
     </row>
     <row r="2367" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2367" s="0" t="s">
-        <v>8781</v>
+        <v>8782</v>
       </c>
       <c r="B2367" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2367" s="0" t="s">
-        <v>8758</v>
+        <v>8759</v>
       </c>
       <c r="D2367" s="0" t="s">
-        <v>8782</v>
+        <v>8783</v>
       </c>
       <c r="E2367" s="0" t="s">
-        <v>8783</v>
+        <v>8784</v>
       </c>
       <c r="F2367" s="0" t="s">
-        <v>8784</v>
+        <v>8785</v>
       </c>
     </row>
     <row r="2368" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2368" s="0" t="s">
-        <v>8785</v>
+        <v>8786</v>
       </c>
       <c r="B2368" s="0" t="s">
         <v>1673</v>
       </c>
       <c r="C2368" s="0" t="s">
-        <v>8758</v>
+        <v>8759</v>
       </c>
       <c r="D2368" s="0" t="s">
-        <v>8786</v>
+        <v>8787</v>
       </c>
       <c r="E2368" s="0" t="s">
-        <v>8786</v>
+        <v>8787</v>
       </c>
       <c r="F2368" s="0" t="s">
-        <v>8786</v>
+        <v>8787</v>
       </c>
     </row>
     <row r="2369" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2369" s="0" t="s">
-        <v>8787</v>
+        <v>8788</v>
       </c>
       <c r="B2369" s="0" t="s">
         <v>1195</v>
@@ -72786,503 +72789,503 @@
         <v>1343</v>
       </c>
       <c r="E2369" s="0" t="s">
-        <v>8788</v>
+        <v>8789</v>
       </c>
       <c r="F2369" s="0" t="s">
-        <v>8789</v>
+        <v>8790</v>
       </c>
     </row>
     <row r="2370" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2370" s="0" t="s">
-        <v>8790</v>
+        <v>8791</v>
       </c>
       <c r="B2370" s="0" t="s">
         <v>4218</v>
       </c>
       <c r="D2370" s="0" t="s">
-        <v>8791</v>
+        <v>8792</v>
       </c>
       <c r="E2370" s="0" t="s">
-        <v>8792</v>
+        <v>8793</v>
       </c>
       <c r="F2370" s="0" t="s">
-        <v>8793</v>
+        <v>8794</v>
       </c>
     </row>
     <row r="2371" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2371" s="0" t="s">
-        <v>8794</v>
+        <v>8795</v>
       </c>
       <c r="B2371" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2371" s="0" t="s">
-        <v>8795</v>
+        <v>8796</v>
       </c>
       <c r="E2371" s="0" t="s">
-        <v>8796</v>
+        <v>8797</v>
       </c>
       <c r="F2371" s="0" t="s">
-        <v>8797</v>
+        <v>8798</v>
       </c>
     </row>
     <row r="2372" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2372" s="0" t="s">
-        <v>8798</v>
+        <v>8799</v>
       </c>
       <c r="B2372" s="0" t="s">
         <v>4218</v>
       </c>
       <c r="D2372" s="0" t="s">
-        <v>8799</v>
+        <v>8800</v>
       </c>
       <c r="E2372" s="0" t="s">
-        <v>8800</v>
+        <v>8801</v>
       </c>
       <c r="F2372" s="0" t="s">
-        <v>8801</v>
+        <v>8802</v>
       </c>
     </row>
     <row r="2373" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2373" s="0" t="s">
-        <v>8802</v>
+        <v>8803</v>
       </c>
       <c r="B2373" s="0" t="s">
         <v>4218</v>
       </c>
       <c r="D2373" s="0" t="s">
-        <v>8803</v>
+        <v>8804</v>
       </c>
       <c r="E2373" s="0" t="s">
-        <v>8804</v>
+        <v>8805</v>
       </c>
       <c r="F2373" s="0" t="s">
-        <v>8805</v>
+        <v>8806</v>
       </c>
     </row>
     <row r="2374" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2374" s="0" t="s">
-        <v>8806</v>
+        <v>8807</v>
       </c>
       <c r="B2374" s="0" t="s">
         <v>68</v>
       </c>
       <c r="D2374" s="0" t="s">
-        <v>8807</v>
+        <v>8808</v>
       </c>
       <c r="E2374" s="0" t="s">
-        <v>8808</v>
+        <v>8809</v>
       </c>
       <c r="F2374" s="0" t="s">
-        <v>8809</v>
+        <v>8810</v>
       </c>
     </row>
     <row r="2375" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2375" s="0" t="s">
-        <v>8810</v>
+        <v>8811</v>
       </c>
       <c r="B2375" s="0" t="s">
         <v>1073</v>
       </c>
       <c r="D2375" s="0" t="s">
-        <v>8811</v>
+        <v>8812</v>
       </c>
       <c r="E2375" s="0" t="s">
-        <v>8812</v>
+        <v>8813</v>
       </c>
       <c r="F2375" s="0" t="s">
-        <v>8813</v>
+        <v>8814</v>
       </c>
     </row>
     <row r="2376" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2376" s="0" t="s">
-        <v>8814</v>
+        <v>8815</v>
       </c>
       <c r="B2376" s="0" t="s">
         <v>1073</v>
       </c>
       <c r="D2376" s="0" t="s">
-        <v>8815</v>
+        <v>8816</v>
       </c>
       <c r="E2376" s="0" t="s">
-        <v>8816</v>
+        <v>8817</v>
       </c>
       <c r="F2376" s="0" t="s">
-        <v>8817</v>
+        <v>8818</v>
       </c>
     </row>
     <row r="2377" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2377" s="0" t="s">
-        <v>8818</v>
+        <v>8819</v>
       </c>
       <c r="B2377" s="0" t="s">
         <v>1073</v>
       </c>
       <c r="D2377" s="0" t="s">
-        <v>8819</v>
+        <v>8820</v>
       </c>
       <c r="E2377" s="0" t="s">
-        <v>8820</v>
+        <v>8821</v>
       </c>
       <c r="F2377" s="0" t="s">
-        <v>8821</v>
+        <v>8822</v>
       </c>
     </row>
     <row r="2378" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2378" s="0" t="s">
-        <v>8822</v>
+        <v>8823</v>
       </c>
       <c r="B2378" s="0" t="s">
         <v>1192</v>
       </c>
       <c r="D2378" s="0" t="s">
-        <v>8823</v>
+        <v>8824</v>
       </c>
       <c r="E2378" s="0" t="s">
-        <v>8824</v>
+        <v>8825</v>
       </c>
       <c r="F2378" s="0" t="s">
-        <v>8825</v>
+        <v>8826</v>
       </c>
     </row>
     <row r="2379" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2379" s="0" t="s">
-        <v>8826</v>
+        <v>8827</v>
       </c>
       <c r="B2379" s="0" t="s">
         <v>1281</v>
       </c>
       <c r="D2379" s="0" t="s">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="E2379" s="0" t="s">
-        <v>8828</v>
+        <v>8829</v>
       </c>
       <c r="F2379" s="0" t="s">
-        <v>8829</v>
+        <v>8830</v>
       </c>
     </row>
     <row r="2380" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2380" s="0" t="s">
-        <v>8830</v>
+        <v>8831</v>
       </c>
       <c r="B2380" s="0" t="s">
         <v>1187</v>
       </c>
       <c r="D2380" s="0" t="s">
-        <v>8831</v>
+        <v>8832</v>
       </c>
       <c r="E2380" s="0" t="s">
-        <v>8832</v>
+        <v>8833</v>
       </c>
       <c r="F2380" s="0" t="s">
-        <v>8833</v>
+        <v>8834</v>
       </c>
     </row>
     <row r="2381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2381" s="0" t="s">
-        <v>8834</v>
+        <v>8835</v>
       </c>
       <c r="B2381" s="0" t="s">
         <v>297</v>
       </c>
       <c r="D2381" s="0" t="s">
-        <v>8835</v>
+        <v>8836</v>
       </c>
       <c r="E2381" s="0" t="s">
-        <v>8836</v>
+        <v>8837</v>
       </c>
       <c r="F2381" s="0" t="s">
-        <v>8837</v>
+        <v>8838</v>
       </c>
     </row>
     <row r="2382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2382" s="0" t="s">
-        <v>8838</v>
+        <v>8839</v>
       </c>
       <c r="B2382" s="0" t="s">
         <v>297</v>
       </c>
       <c r="D2382" s="0" t="s">
-        <v>8839</v>
+        <v>8840</v>
       </c>
       <c r="E2382" s="0" t="s">
-        <v>8840</v>
+        <v>8841</v>
       </c>
       <c r="F2382" s="0" t="s">
-        <v>8841</v>
+        <v>8842</v>
       </c>
     </row>
     <row r="2383" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2383" s="0" t="s">
-        <v>8842</v>
+        <v>8843</v>
       </c>
       <c r="B2383" s="0" t="s">
         <v>297</v>
       </c>
       <c r="D2383" s="0" t="s">
-        <v>8843</v>
+        <v>8844</v>
       </c>
       <c r="E2383" s="0" t="s">
-        <v>8844</v>
+        <v>8845</v>
       </c>
       <c r="F2383" s="0" t="s">
-        <v>8845</v>
+        <v>8846</v>
       </c>
     </row>
     <row r="2384" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2384" s="0" t="s">
-        <v>8846</v>
+        <v>8847</v>
       </c>
       <c r="B2384" s="0" t="s">
         <v>297</v>
       </c>
       <c r="D2384" s="0" t="s">
-        <v>8847</v>
+        <v>8848</v>
       </c>
       <c r="E2384" s="0" t="s">
-        <v>8848</v>
+        <v>8849</v>
       </c>
       <c r="F2384" s="0" t="s">
-        <v>8849</v>
+        <v>8850</v>
       </c>
     </row>
     <row r="2385" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2385" s="0" t="s">
-        <v>8850</v>
+        <v>8851</v>
       </c>
       <c r="B2385" s="0" t="s">
         <v>297</v>
       </c>
       <c r="D2385" s="0" t="s">
-        <v>8851</v>
+        <v>8852</v>
       </c>
       <c r="E2385" s="0" t="s">
         <v>2279</v>
       </c>
       <c r="F2385" s="0" t="s">
-        <v>8852</v>
+        <v>8853</v>
       </c>
     </row>
     <row r="2386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2386" s="0" t="s">
-        <v>8853</v>
+        <v>8854</v>
       </c>
       <c r="B2386" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2386" s="0" t="s">
-        <v>8854</v>
+        <v>8855</v>
       </c>
       <c r="E2386" s="0" t="s">
-        <v>8855</v>
+        <v>8856</v>
       </c>
       <c r="F2386" s="0" t="s">
-        <v>8856</v>
+        <v>8857</v>
       </c>
     </row>
     <row r="2387" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2387" s="0" t="s">
-        <v>8857</v>
+        <v>8858</v>
       </c>
       <c r="B2387" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2387" s="0" t="s">
-        <v>8858</v>
+        <v>8859</v>
       </c>
       <c r="E2387" s="0" t="s">
-        <v>8859</v>
+        <v>8860</v>
       </c>
       <c r="F2387" s="0" t="s">
-        <v>8860</v>
+        <v>8861</v>
       </c>
     </row>
     <row r="2388" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2388" s="0" t="s">
-        <v>8861</v>
+        <v>8862</v>
       </c>
       <c r="B2388" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2388" s="0" t="s">
-        <v>8862</v>
+        <v>8863</v>
       </c>
       <c r="E2388" s="0" t="s">
-        <v>8863</v>
+        <v>8864</v>
       </c>
       <c r="F2388" s="0" t="s">
-        <v>8864</v>
+        <v>8865</v>
       </c>
     </row>
     <row r="2389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2389" s="0" t="s">
-        <v>8865</v>
+        <v>8866</v>
       </c>
       <c r="B2389" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2389" s="0" t="s">
-        <v>8866</v>
+        <v>8867</v>
       </c>
       <c r="E2389" s="0" t="s">
-        <v>8867</v>
+        <v>8868</v>
       </c>
       <c r="F2389" s="0" t="s">
-        <v>8868</v>
+        <v>8869</v>
       </c>
     </row>
     <row r="2390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2390" s="0" t="s">
-        <v>8869</v>
+        <v>8870</v>
       </c>
       <c r="B2390" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2390" s="0" t="s">
-        <v>8870</v>
+        <v>8871</v>
       </c>
       <c r="E2390" s="0" t="s">
-        <v>8871</v>
+        <v>8872</v>
       </c>
       <c r="F2390" s="0" t="s">
-        <v>8872</v>
+        <v>8873</v>
       </c>
     </row>
     <row r="2391" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2391" s="0" t="s">
-        <v>8873</v>
+        <v>8874</v>
       </c>
       <c r="B2391" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2391" s="0" t="s">
-        <v>8874</v>
+        <v>8875</v>
       </c>
       <c r="E2391" s="0" t="s">
-        <v>8875</v>
+        <v>8876</v>
       </c>
       <c r="F2391" s="0" t="s">
-        <v>8876</v>
+        <v>8877</v>
       </c>
     </row>
     <row r="2392" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2392" s="0" t="s">
-        <v>8877</v>
+        <v>8878</v>
       </c>
       <c r="B2392" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2392" s="0" t="s">
-        <v>8878</v>
+        <v>8879</v>
       </c>
       <c r="E2392" s="0" t="s">
-        <v>8879</v>
+        <v>8880</v>
       </c>
       <c r="F2392" s="0" t="s">
-        <v>8880</v>
+        <v>8881</v>
       </c>
     </row>
     <row r="2393" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2393" s="0" t="s">
-        <v>8881</v>
+        <v>8882</v>
       </c>
       <c r="B2393" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2393" s="0" t="s">
-        <v>8870</v>
+        <v>8871</v>
       </c>
       <c r="E2393" s="0" t="s">
-        <v>8882</v>
+        <v>8883</v>
       </c>
       <c r="F2393" s="0" t="s">
-        <v>8872</v>
+        <v>8873</v>
       </c>
     </row>
     <row r="2394" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2394" s="0" t="s">
-        <v>8883</v>
+        <v>8884</v>
       </c>
       <c r="B2394" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="D2394" s="0" t="s">
-        <v>8884</v>
+        <v>8885</v>
       </c>
       <c r="E2394" s="0" t="s">
-        <v>8885</v>
+        <v>8886</v>
       </c>
       <c r="F2394" s="0" t="s">
-        <v>8886</v>
+        <v>8887</v>
       </c>
     </row>
     <row r="2395" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2395" s="0" t="s">
-        <v>8887</v>
+        <v>8888</v>
       </c>
       <c r="B2395" s="0" t="s">
-        <v>8888</v>
+        <v>8889</v>
       </c>
       <c r="D2395" s="0" t="s">
-        <v>8889</v>
+        <v>8890</v>
       </c>
       <c r="E2395" s="0" t="s">
-        <v>8890</v>
+        <v>8891</v>
       </c>
       <c r="F2395" s="0" t="s">
-        <v>8891</v>
+        <v>8892</v>
       </c>
     </row>
     <row r="2396" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2396" s="0" t="s">
-        <v>8892</v>
+        <v>8893</v>
       </c>
       <c r="B2396" s="0" t="s">
         <v>7061</v>
       </c>
       <c r="D2396" s="0" t="s">
-        <v>8893</v>
+        <v>8894</v>
       </c>
       <c r="E2396" s="0" t="s">
-        <v>8894</v>
+        <v>8895</v>
       </c>
       <c r="F2396" s="0" t="s">
-        <v>8895</v>
+        <v>8896</v>
       </c>
     </row>
     <row r="2397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2397" s="0" t="s">
-        <v>8896</v>
+        <v>8897</v>
       </c>
       <c r="B2397" s="0" t="s">
-        <v>8897</v>
+        <v>8898</v>
       </c>
       <c r="D2397" s="0" t="s">
-        <v>8898</v>
+        <v>8899</v>
       </c>
       <c r="E2397" s="0" t="s">
-        <v>8899</v>
+        <v>8900</v>
       </c>
       <c r="F2397" s="0" t="s">
-        <v>8900</v>
+        <v>8901</v>
       </c>
     </row>
     <row r="2398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2398" s="0" t="s">
-        <v>8901</v>
+        <v>8902</v>
       </c>
       <c r="B2398" s="0" t="s">
-        <v>8897</v>
+        <v>8898</v>
       </c>
       <c r="D2398" s="0" t="s">
-        <v>8902</v>
+        <v>8903</v>
       </c>
       <c r="E2398" s="0" t="s">
-        <v>8903</v>
+        <v>8904</v>
       </c>
       <c r="F2398" s="0" t="s">
-        <v>8904</v>
+        <v>8905</v>
       </c>
     </row>
     <row r="2399" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -73304,126 +73307,126 @@
     </row>
     <row r="2400" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2400" s="0" t="s">
-        <v>8905</v>
+        <v>8906</v>
       </c>
       <c r="B2400" s="0" t="s">
         <v>2693</v>
       </c>
       <c r="D2400" s="0" t="s">
-        <v>8906</v>
+        <v>8907</v>
       </c>
       <c r="E2400" s="0" t="s">
-        <v>8907</v>
+        <v>8908</v>
       </c>
       <c r="F2400" s="0" t="s">
-        <v>8908</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="2401" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2401" s="0" t="s">
-        <v>8909</v>
+        <v>8910</v>
       </c>
       <c r="B2401" s="0" t="s">
         <v>2693</v>
       </c>
       <c r="D2401" s="0" t="s">
-        <v>8910</v>
+        <v>8911</v>
       </c>
       <c r="E2401" s="0" t="s">
-        <v>8911</v>
+        <v>8912</v>
       </c>
       <c r="F2401" s="0" t="s">
-        <v>8912</v>
+        <v>8913</v>
       </c>
     </row>
     <row r="2402" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2402" s="0" t="s">
-        <v>8913</v>
+        <v>8914</v>
       </c>
       <c r="B2402" s="0" t="s">
         <v>1064</v>
       </c>
       <c r="D2402" s="0" t="s">
-        <v>8914</v>
+        <v>8915</v>
       </c>
       <c r="E2402" s="0" t="s">
-        <v>8915</v>
+        <v>8916</v>
       </c>
       <c r="F2402" s="0" t="s">
-        <v>8916</v>
+        <v>8917</v>
       </c>
     </row>
     <row r="2403" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2403" s="0" t="s">
-        <v>8917</v>
+        <v>8918</v>
       </c>
       <c r="B2403" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2403" s="0" t="s">
-        <v>8918</v>
+        <v>8919</v>
       </c>
       <c r="E2403" s="0" t="s">
-        <v>8919</v>
+        <v>8920</v>
       </c>
       <c r="F2403" s="0" t="s">
-        <v>8920</v>
+        <v>8921</v>
       </c>
     </row>
     <row r="2404" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2404" s="0" t="s">
-        <v>8921</v>
+        <v>8922</v>
       </c>
       <c r="B2404" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2404" s="0" t="s">
-        <v>8922</v>
+        <v>8923</v>
       </c>
       <c r="E2404" s="0" t="s">
-        <v>8923</v>
+        <v>8924</v>
       </c>
       <c r="F2404" s="0" t="s">
-        <v>8924</v>
+        <v>8925</v>
       </c>
     </row>
     <row r="2405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2405" s="0" t="s">
-        <v>8925</v>
+        <v>8926</v>
       </c>
       <c r="B2405" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2405" s="0" t="s">
-        <v>8926</v>
+        <v>8927</v>
       </c>
       <c r="E2405" s="0" t="s">
-        <v>8927</v>
+        <v>8928</v>
       </c>
       <c r="F2405" s="0" t="s">
-        <v>8928</v>
+        <v>8929</v>
       </c>
     </row>
     <row r="2406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2406" s="0" t="s">
-        <v>8929</v>
+        <v>8930</v>
       </c>
       <c r="B2406" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2406" s="0" t="s">
-        <v>8930</v>
+        <v>8931</v>
       </c>
       <c r="E2406" s="0" t="s">
-        <v>8931</v>
+        <v>8932</v>
       </c>
       <c r="F2406" s="0" t="s">
-        <v>8932</v>
+        <v>8933</v>
       </c>
     </row>
     <row r="2407" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2407" s="0" t="s">
-        <v>8933</v>
+        <v>8934</v>
       </c>
       <c r="B2407" s="0" t="s">
         <v>460</v>
@@ -73432,168 +73435,168 @@
         <v>7445</v>
       </c>
       <c r="E2407" s="0" t="s">
-        <v>8934</v>
+        <v>8935</v>
       </c>
       <c r="F2407" s="0" t="s">
-        <v>8935</v>
+        <v>8936</v>
       </c>
     </row>
     <row r="2408" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2408" s="0" t="s">
-        <v>8936</v>
+        <v>8937</v>
       </c>
       <c r="B2408" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2408" s="0" t="s">
-        <v>8937</v>
+        <v>8938</v>
       </c>
       <c r="E2408" s="0" t="s">
-        <v>8938</v>
+        <v>8939</v>
       </c>
       <c r="F2408" s="0" t="s">
-        <v>8939</v>
+        <v>8940</v>
       </c>
     </row>
     <row r="2409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2409" s="0" t="s">
-        <v>8940</v>
+        <v>8941</v>
       </c>
       <c r="B2409" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2409" s="0" t="s">
-        <v>8941</v>
+        <v>8942</v>
       </c>
       <c r="E2409" s="0" t="s">
-        <v>8942</v>
+        <v>8943</v>
       </c>
       <c r="F2409" s="0" t="s">
-        <v>8943</v>
+        <v>8944</v>
       </c>
     </row>
     <row r="2410" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2410" s="0" t="s">
-        <v>8944</v>
+        <v>8945</v>
       </c>
       <c r="B2410" s="0" t="s">
         <v>8077</v>
       </c>
       <c r="D2410" s="0" t="s">
-        <v>8945</v>
+        <v>8946</v>
       </c>
       <c r="E2410" s="0" t="s">
-        <v>8946</v>
+        <v>8947</v>
       </c>
       <c r="F2410" s="0" t="s">
-        <v>8947</v>
+        <v>8948</v>
       </c>
     </row>
     <row r="2411" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2411" s="0" t="s">
-        <v>8948</v>
+        <v>8949</v>
       </c>
       <c r="B2411" s="0" t="s">
         <v>460</v>
       </c>
       <c r="D2411" s="0" t="s">
-        <v>8949</v>
+        <v>8950</v>
       </c>
       <c r="E2411" s="0" t="s">
-        <v>8950</v>
+        <v>8951</v>
       </c>
       <c r="F2411" s="0" t="s">
-        <v>8951</v>
+        <v>8952</v>
       </c>
     </row>
     <row r="2412" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2412" s="0" t="s">
-        <v>8952</v>
+        <v>8953</v>
       </c>
       <c r="B2412" s="0" t="s">
         <v>3718</v>
       </c>
       <c r="D2412" s="0" t="s">
-        <v>8953</v>
+        <v>8954</v>
       </c>
       <c r="E2412" s="0" t="s">
-        <v>8954</v>
+        <v>8955</v>
       </c>
       <c r="F2412" s="0" t="s">
-        <v>8955</v>
+        <v>8956</v>
       </c>
     </row>
     <row r="2413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2413" s="0" t="s">
-        <v>8956</v>
+        <v>8957</v>
       </c>
       <c r="B2413" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2413" s="0" t="s">
-        <v>8957</v>
+        <v>8958</v>
       </c>
       <c r="E2413" s="0" t="s">
-        <v>8958</v>
+        <v>8959</v>
       </c>
       <c r="F2413" s="0" t="s">
-        <v>8959</v>
+        <v>8960</v>
       </c>
     </row>
     <row r="2414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2414" s="0" t="s">
-        <v>8960</v>
+        <v>8961</v>
       </c>
       <c r="B2414" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2414" s="0" t="s">
-        <v>8961</v>
+        <v>8962</v>
       </c>
       <c r="E2414" s="0" t="s">
-        <v>8962</v>
+        <v>8963</v>
       </c>
       <c r="F2414" s="0" t="s">
-        <v>8963</v>
+        <v>8964</v>
       </c>
     </row>
     <row r="2415" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2415" s="0" t="s">
-        <v>8964</v>
+        <v>8965</v>
       </c>
       <c r="B2415" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2415" s="0" t="s">
-        <v>8965</v>
+        <v>8966</v>
       </c>
       <c r="E2415" s="0" t="s">
         <v>4824</v>
       </c>
       <c r="F2415" s="0" t="s">
-        <v>8966</v>
+        <v>8967</v>
       </c>
     </row>
     <row r="2416" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2416" s="0" t="s">
-        <v>8967</v>
+        <v>8968</v>
       </c>
       <c r="B2416" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2416" s="0" t="s">
-        <v>8968</v>
+        <v>8969</v>
       </c>
       <c r="E2416" s="0" t="s">
-        <v>8969</v>
+        <v>8970</v>
       </c>
       <c r="F2416" s="0" t="s">
-        <v>8970</v>
+        <v>8971</v>
       </c>
     </row>
     <row r="2417" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2417" s="0" t="s">
-        <v>8971</v>
+        <v>8972</v>
       </c>
       <c r="B2417" s="0" t="s">
         <v>547</v>
@@ -73602,18 +73605,18 @@
         <v>5555</v>
       </c>
       <c r="D2417" s="0" t="s">
-        <v>8972</v>
+        <v>8973</v>
       </c>
       <c r="E2417" s="0" t="s">
-        <v>8973</v>
+        <v>8974</v>
       </c>
       <c r="F2417" s="0" t="s">
-        <v>8974</v>
+        <v>8975</v>
       </c>
     </row>
     <row r="2418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2418" s="0" t="s">
-        <v>8975</v>
+        <v>8976</v>
       </c>
       <c r="B2418" s="0" t="s">
         <v>547</v>
@@ -73622,64 +73625,64 @@
         <v>5555</v>
       </c>
       <c r="D2418" s="0" t="s">
-        <v>8976</v>
+        <v>8977</v>
       </c>
       <c r="E2418" s="0" t="s">
-        <v>8976</v>
+        <v>8977</v>
       </c>
       <c r="F2418" s="0" t="s">
-        <v>8976</v>
+        <v>8977</v>
       </c>
     </row>
     <row r="2419" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2419" s="0" t="s">
-        <v>8977</v>
+        <v>8978</v>
       </c>
       <c r="B2419" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2419" s="0" t="s">
-        <v>8978</v>
+        <v>8979</v>
       </c>
       <c r="E2419" s="0" t="s">
-        <v>8979</v>
+        <v>8980</v>
       </c>
       <c r="F2419" s="0" t="s">
-        <v>8980</v>
+        <v>8981</v>
       </c>
     </row>
     <row r="2420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2420" s="0" t="s">
-        <v>8981</v>
+        <v>8982</v>
       </c>
       <c r="B2420" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2420" s="0" t="s">
-        <v>8982</v>
+        <v>8983</v>
       </c>
       <c r="E2420" s="0" t="s">
-        <v>8983</v>
+        <v>8984</v>
       </c>
       <c r="F2420" s="0" t="s">
-        <v>8984</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="2421" customFormat="false" ht="71.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2421" s="0" t="s">
-        <v>8985</v>
+        <v>8986</v>
       </c>
       <c r="B2421" s="0" t="s">
         <v>547</v>
       </c>
       <c r="D2421" s="2" t="s">
-        <v>8986</v>
+        <v>8987</v>
       </c>
       <c r="E2421" s="2" t="s">
-        <v>8987</v>
+        <v>8988</v>
       </c>
       <c r="F2421" s="2" t="s">
-        <v>8988</v>
+        <v>8989</v>
       </c>
     </row>
   </sheetData>

--- a/_Lang_Korean/Lang/KR/Game/General.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/General.xlsx
@@ -110,7 +110,7 @@
     <t xml:space="preserve">_and</t>
   </si>
   <si>
-    <t xml:space="preserve">#1과 #2</t>
+    <t xml:space="preserve">#1와(과) #2</t>
   </si>
   <si>
     <t xml:space="preserve">#1 and #2</t>
@@ -11630,7 +11630,7 @@
     <t xml:space="preserve">isCategorized</t>
   </si>
   <si>
-    <t xml:space="preserve">그것은 #1으로 분류된다.</t>
+    <t xml:space="preserve">그것은 #1으(로) 분류된다.</t>
   </si>
   <si>
     <t xml:space="preserve">It is categorized as #1.</t>
@@ -11645,7 +11645,7 @@
     <t xml:space="preserve">Beta 22.48</t>
   </si>
   <si>
-    <t xml:space="preserve">그것은 #1과 #2 기술을 사용한다.</t>
+    <t xml:space="preserve">그것은 #1와(과) #2 기술을 사용한다.</t>
   </si>
   <si>
     <t xml:space="preserve">It uses #1 and #2 skills.</t>
@@ -11975,7 +11975,7 @@
     <t xml:space="preserve">isMadeOf</t>
   </si>
   <si>
-    <t xml:space="preserve">그것은 #1로 되어있다.</t>
+    <t xml:space="preserve">그것은 #1으(로) 되어있다.</t>
   </si>
   <si>
     <t xml:space="preserve">It is made of #1.</t>
@@ -14912,7 +14912,7 @@
     <t xml:space="preserve">lvHome</t>
   </si>
   <si>
-    <t xml:space="preserve">홈 랭크가 #1으로 올랐다！</t>
+    <t xml:space="preserve">홈 랭크가 #1으(로) 올랐다！</t>
   </si>
   <si>
     <t xml:space="preserve">Our home rank is now #1!</t>
@@ -24041,7 +24041,7 @@
     <t xml:space="preserve">net_mapSaved</t>
   </si>
   <si>
-    <t xml:space="preserve">#1으로 맵을 저장했다</t>
+    <t xml:space="preserve">#1으(로) 맵을 저장했다</t>
   </si>
   <si>
     <t xml:space="preserve">Saved as #1.</t>
@@ -27378,12 +27378,12 @@
   <dimension ref="A1:F2421"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A975" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D219" activeCellId="0" sqref="D219"/>
+      <selection pane="bottomLeft" activeCell="D991" activeCellId="0" sqref="D991"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="14.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.76"/>

--- a/_Lang_Korean/Lang/KR/Game/General.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/General.xlsx
@@ -2870,7 +2870,7 @@
     <t xml:space="preserve">cat_junk</t>
   </si>
   <si>
-    <t xml:space="preserve">정크</t>
+    <t xml:space="preserve">고물</t>
   </si>
   <si>
     <t xml:space="preserve">Junk</t>
@@ -27378,12 +27378,12 @@
   <dimension ref="A1:F2421"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A975" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D991" activeCellId="0" sqref="D991"/>
+      <selection pane="bottomLeft" activeCell="D257" activeCellId="0" sqref="D257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.5390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="14.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.76"/>

--- a/_Lang_Korean/Lang/KR/Game/General.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/General.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Elin_KR\_Lang_Korean\Lang\KR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33758C29-4B38-40AA-9168-59EE44018D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D162A0-6E27-4B48-BE8B-A34186ADD5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13822" uniqueCount="8995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13822" uniqueCount="8996">
   <si>
     <t>id</t>
   </si>
@@ -27280,6 +27280,10 @@
   </si>
   <si>
     <t>방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 #2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -27652,8 +27656,8 @@
   <dimension ref="A1:F2422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2082" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2105" sqref="H2105"/>
+      <pane ySplit="2" topLeftCell="A1981" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1996" sqref="D1996"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27746,7 +27750,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>6860</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -27766,10 +27770,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>8995</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -27786,7 +27790,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -27980,7 +27984,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
@@ -28120,7 +28124,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
         <v>62</v>
@@ -28274,7 +28278,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
         <v>81</v>
@@ -28534,7 +28538,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
@@ -66277,7 +66281,7 @@
         <v>6751</v>
       </c>
       <c r="D1996" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1996" t="s">
         <v>19</v>

--- a/_Lang_Korean/Lang/KR/Game/General.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/General.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Elin_KR\_Lang_Korean\Lang\KR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D162A0-6E27-4B48-BE8B-A34186ADD5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06FE309-FBEB-4023-AF46-2E50883CB07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26860,9 +26860,6 @@
     <t>제단《투쟁》</t>
   </si>
   <si>
-    <t>제단《#의 망치》</t>
-  </si>
-  <si>
     <t>제단《물건》</t>
   </si>
   <si>
@@ -27284,6 +27281,10 @@
   </si>
   <si>
     <t>#1 #2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제단《#1의 망치》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -27656,8 +27657,8 @@
   <dimension ref="A1:F2422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1981" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1996" sqref="D1996"/>
+      <pane ySplit="2" topLeftCell="A2271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2284" sqref="I2284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27773,7 +27774,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>8995</v>
+        <v>8994</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -53076,7 +53077,7 @@
         <v>3602</v>
       </c>
       <c r="D1275" t="s">
-        <v>8988</v>
+        <v>8987</v>
       </c>
       <c r="E1275" t="s">
         <v>3615</v>
@@ -53236,7 +53237,7 @@
         <v>3602</v>
       </c>
       <c r="D1283" t="s">
-        <v>8989</v>
+        <v>8988</v>
       </c>
       <c r="E1283" t="s">
         <v>3637</v>
@@ -62014,7 +62015,7 @@
         <v>6751</v>
       </c>
       <c r="D1745" t="s">
-        <v>8990</v>
+        <v>8989</v>
       </c>
       <c r="E1745" t="s">
         <v>4890</v>
@@ -62031,7 +62032,7 @@
         <v>6751</v>
       </c>
       <c r="D1746" t="s">
-        <v>8991</v>
+        <v>8990</v>
       </c>
       <c r="E1746" t="s">
         <v>4893</v>
@@ -62830,7 +62831,7 @@
         <v>6751</v>
       </c>
       <c r="D1793" t="s">
-        <v>8992</v>
+        <v>8991</v>
       </c>
       <c r="E1793" t="s">
         <v>5024</v>
@@ -62847,7 +62848,7 @@
         <v>6751</v>
       </c>
       <c r="D1794" t="s">
-        <v>8993</v>
+        <v>8992</v>
       </c>
       <c r="E1794" t="s">
         <v>5027</v>
@@ -67888,7 +67889,7 @@
         <v>5763</v>
       </c>
       <c r="D2087" t="s">
-        <v>8987</v>
+        <v>8986</v>
       </c>
       <c r="E2087" t="s">
         <v>151</v>
@@ -67908,7 +67909,7 @@
         <v>5763</v>
       </c>
       <c r="D2088" t="s">
-        <v>8986</v>
+        <v>8985</v>
       </c>
       <c r="E2088" t="s">
         <v>5796</v>
@@ -68099,7 +68100,7 @@
         <v>6757</v>
       </c>
       <c r="D2098" t="s">
-        <v>8994</v>
+        <v>8993</v>
       </c>
       <c r="E2098" t="s">
         <v>5823</v>
@@ -71639,7 +71640,7 @@
         <v>6829</v>
       </c>
       <c r="D2287" t="s">
-        <v>8860</v>
+        <v>8995</v>
       </c>
       <c r="E2287" t="s">
         <v>6360</v>
@@ -71656,7 +71657,7 @@
         <v>6829</v>
       </c>
       <c r="D2288" t="s">
-        <v>8861</v>
+        <v>8860</v>
       </c>
       <c r="E2288" t="s">
         <v>6363</v>
@@ -71673,7 +71674,7 @@
         <v>6761</v>
       </c>
       <c r="D2289" t="s">
-        <v>8862</v>
+        <v>8861</v>
       </c>
       <c r="E2289" t="s">
         <v>6366</v>
@@ -71690,7 +71691,7 @@
         <v>6761</v>
       </c>
       <c r="D2290" t="s">
-        <v>8863</v>
+        <v>8862</v>
       </c>
       <c r="E2290" t="s">
         <v>6369</v>
@@ -71707,7 +71708,7 @@
         <v>6761</v>
       </c>
       <c r="D2291" t="s">
-        <v>8864</v>
+        <v>8863</v>
       </c>
       <c r="E2291" t="s">
         <v>6372</v>
@@ -71724,7 +71725,7 @@
         <v>6761</v>
       </c>
       <c r="D2292" t="s">
-        <v>8865</v>
+        <v>8864</v>
       </c>
       <c r="E2292" t="s">
         <v>6375</v>
@@ -71741,7 +71742,7 @@
         <v>6761</v>
       </c>
       <c r="D2293" t="s">
-        <v>8866</v>
+        <v>8865</v>
       </c>
       <c r="E2293" t="s">
         <v>6378</v>
@@ -71758,7 +71759,7 @@
         <v>6761</v>
       </c>
       <c r="D2294" t="s">
-        <v>8867</v>
+        <v>8866</v>
       </c>
       <c r="E2294" t="s">
         <v>6381</v>
@@ -71775,7 +71776,7 @@
         <v>6761</v>
       </c>
       <c r="D2295" t="s">
-        <v>8868</v>
+        <v>8867</v>
       </c>
       <c r="E2295" t="s">
         <v>6384</v>
@@ -71792,7 +71793,7 @@
         <v>6761</v>
       </c>
       <c r="D2296" t="s">
-        <v>8869</v>
+        <v>8868</v>
       </c>
       <c r="E2296" t="s">
         <v>6387</v>
@@ -71809,7 +71810,7 @@
         <v>6761</v>
       </c>
       <c r="D2297" t="s">
-        <v>8870</v>
+        <v>8869</v>
       </c>
       <c r="E2297" t="s">
         <v>6390</v>
@@ -71826,7 +71827,7 @@
         <v>6761</v>
       </c>
       <c r="D2298" t="s">
-        <v>8871</v>
+        <v>8870</v>
       </c>
       <c r="E2298" t="s">
         <v>6393</v>
@@ -71843,7 +71844,7 @@
         <v>6761</v>
       </c>
       <c r="D2299" t="s">
-        <v>8872</v>
+        <v>8871</v>
       </c>
       <c r="E2299" t="s">
         <v>6396</v>
@@ -71860,7 +71861,7 @@
         <v>6761</v>
       </c>
       <c r="D2300" t="s">
-        <v>8873</v>
+        <v>8872</v>
       </c>
       <c r="E2300" t="s">
         <v>6399</v>
@@ -71877,7 +71878,7 @@
         <v>6761</v>
       </c>
       <c r="D2301" t="s">
-        <v>8874</v>
+        <v>8873</v>
       </c>
       <c r="E2301" t="s">
         <v>6402</v>
@@ -71894,7 +71895,7 @@
         <v>6761</v>
       </c>
       <c r="D2302" t="s">
-        <v>8875</v>
+        <v>8874</v>
       </c>
       <c r="E2302" t="s">
         <v>6405</v>
@@ -71911,7 +71912,7 @@
         <v>6761</v>
       </c>
       <c r="D2303" t="s">
-        <v>8876</v>
+        <v>8875</v>
       </c>
       <c r="E2303" t="s">
         <v>6408</v>
@@ -71928,7 +71929,7 @@
         <v>6761</v>
       </c>
       <c r="D2304" t="s">
-        <v>8877</v>
+        <v>8876</v>
       </c>
       <c r="E2304" t="s">
         <v>6411</v>
@@ -71945,7 +71946,7 @@
         <v>6761</v>
       </c>
       <c r="D2305" t="s">
-        <v>8878</v>
+        <v>8877</v>
       </c>
       <c r="E2305" t="s">
         <v>6414</v>
@@ -71962,7 +71963,7 @@
         <v>6761</v>
       </c>
       <c r="D2306" t="s">
-        <v>8879</v>
+        <v>8878</v>
       </c>
       <c r="E2306" t="s">
         <v>6417</v>
@@ -71979,7 +71980,7 @@
         <v>6761</v>
       </c>
       <c r="D2307" t="s">
-        <v>8880</v>
+        <v>8879</v>
       </c>
       <c r="E2307" t="s">
         <v>6420</v>
@@ -71996,7 +71997,7 @@
         <v>6782</v>
       </c>
       <c r="D2308" t="s">
-        <v>8881</v>
+        <v>8880</v>
       </c>
       <c r="E2308" t="s">
         <v>6423</v>
@@ -72013,7 +72014,7 @@
         <v>6761</v>
       </c>
       <c r="D2309" t="s">
-        <v>8882</v>
+        <v>8881</v>
       </c>
       <c r="E2309" t="s">
         <v>6426</v>
@@ -72030,7 +72031,7 @@
         <v>6761</v>
       </c>
       <c r="D2310" t="s">
-        <v>8883</v>
+        <v>8882</v>
       </c>
       <c r="E2310" t="s">
         <v>6429</v>
@@ -72047,7 +72048,7 @@
         <v>6761</v>
       </c>
       <c r="D2311" t="s">
-        <v>8884</v>
+        <v>8883</v>
       </c>
       <c r="E2311" t="s">
         <v>6432</v>
@@ -72064,7 +72065,7 @@
         <v>6761</v>
       </c>
       <c r="D2312" t="s">
-        <v>8885</v>
+        <v>8884</v>
       </c>
       <c r="E2312" t="s">
         <v>6435</v>
@@ -72081,7 +72082,7 @@
         <v>6771</v>
       </c>
       <c r="D2313" t="s">
-        <v>8886</v>
+        <v>8885</v>
       </c>
       <c r="E2313" t="s">
         <v>6438</v>
@@ -72098,7 +72099,7 @@
         <v>6771</v>
       </c>
       <c r="D2314" t="s">
-        <v>8887</v>
+        <v>8886</v>
       </c>
       <c r="E2314" t="s">
         <v>6441</v>
@@ -72115,7 +72116,7 @@
         <v>6771</v>
       </c>
       <c r="D2315" t="s">
-        <v>8888</v>
+        <v>8887</v>
       </c>
       <c r="E2315" t="s">
         <v>6444</v>
@@ -72132,7 +72133,7 @@
         <v>6771</v>
       </c>
       <c r="D2316" t="s">
-        <v>8889</v>
+        <v>8888</v>
       </c>
       <c r="F2316" t="s">
         <v>6447</v>
@@ -72146,7 +72147,7 @@
         <v>6771</v>
       </c>
       <c r="D2317" t="s">
-        <v>8890</v>
+        <v>8889</v>
       </c>
       <c r="E2317" t="s">
         <v>6449</v>
@@ -72163,7 +72164,7 @@
         <v>6771</v>
       </c>
       <c r="D2318" t="s">
-        <v>8891</v>
+        <v>8890</v>
       </c>
       <c r="E2318" t="s">
         <v>6452</v>
@@ -72180,7 +72181,7 @@
         <v>6771</v>
       </c>
       <c r="D2319" t="s">
-        <v>8892</v>
+        <v>8891</v>
       </c>
       <c r="E2319" t="s">
         <v>6455</v>
@@ -72197,7 +72198,7 @@
         <v>6771</v>
       </c>
       <c r="D2320" t="s">
-        <v>8893</v>
+        <v>8892</v>
       </c>
       <c r="E2320" t="s">
         <v>6458</v>
@@ -72222,7 +72223,7 @@
         <v>6771</v>
       </c>
       <c r="D2322" t="s">
-        <v>8894</v>
+        <v>8893</v>
       </c>
       <c r="E2322" t="s">
         <v>6462</v>
@@ -72239,7 +72240,7 @@
         <v>6771</v>
       </c>
       <c r="D2323" t="s">
-        <v>8895</v>
+        <v>8894</v>
       </c>
       <c r="E2323" t="s">
         <v>6465</v>
@@ -72256,7 +72257,7 @@
         <v>6771</v>
       </c>
       <c r="D2324" t="s">
-        <v>8896</v>
+        <v>8895</v>
       </c>
       <c r="E2324" t="s">
         <v>6468</v>
@@ -72273,7 +72274,7 @@
         <v>6771</v>
       </c>
       <c r="D2325" t="s">
-        <v>8897</v>
+        <v>8896</v>
       </c>
       <c r="E2325" t="s">
         <v>6471</v>
@@ -72290,7 +72291,7 @@
         <v>6771</v>
       </c>
       <c r="D2326" t="s">
-        <v>8898</v>
+        <v>8897</v>
       </c>
       <c r="E2326" t="s">
         <v>6474</v>
@@ -72307,7 +72308,7 @@
         <v>6771</v>
       </c>
       <c r="D2327" t="s">
-        <v>8899</v>
+        <v>8898</v>
       </c>
       <c r="E2327" t="s">
         <v>6477</v>
@@ -72324,7 +72325,7 @@
         <v>6845</v>
       </c>
       <c r="D2328" t="s">
-        <v>8900</v>
+        <v>8899</v>
       </c>
       <c r="E2328" t="s">
         <v>6480</v>
@@ -72341,7 +72342,7 @@
         <v>6771</v>
       </c>
       <c r="D2329" t="s">
-        <v>8901</v>
+        <v>8900</v>
       </c>
       <c r="E2329" t="s">
         <v>6483</v>
@@ -72358,7 +72359,7 @@
         <v>6771</v>
       </c>
       <c r="D2330" t="s">
-        <v>8902</v>
+        <v>8901</v>
       </c>
       <c r="E2330" t="s">
         <v>6486</v>
@@ -72375,7 +72376,7 @@
         <v>6771</v>
       </c>
       <c r="D2331" t="s">
-        <v>8903</v>
+        <v>8902</v>
       </c>
       <c r="E2331" t="s">
         <v>6489</v>
@@ -72392,7 +72393,7 @@
         <v>6853</v>
       </c>
       <c r="D2332" t="s">
-        <v>8904</v>
+        <v>8903</v>
       </c>
       <c r="E2332" t="s">
         <v>6492</v>
@@ -72409,7 +72410,7 @@
         <v>6854</v>
       </c>
       <c r="D2333" t="s">
-        <v>8905</v>
+        <v>8904</v>
       </c>
       <c r="E2333" t="s">
         <v>6495</v>
@@ -72426,7 +72427,7 @@
         <v>6854</v>
       </c>
       <c r="D2334" t="s">
-        <v>8906</v>
+        <v>8905</v>
       </c>
       <c r="E2334" t="s">
         <v>6498</v>
@@ -72460,7 +72461,7 @@
         <v>6854</v>
       </c>
       <c r="D2336" t="s">
-        <v>8907</v>
+        <v>8906</v>
       </c>
       <c r="E2336" t="s">
         <v>6504</v>
@@ -72477,7 +72478,7 @@
         <v>6854</v>
       </c>
       <c r="D2337" t="s">
-        <v>8908</v>
+        <v>8907</v>
       </c>
       <c r="E2337" t="s">
         <v>6507</v>
@@ -72494,7 +72495,7 @@
         <v>6854</v>
       </c>
       <c r="D2338" t="s">
-        <v>8909</v>
+        <v>8908</v>
       </c>
       <c r="E2338" t="s">
         <v>1040</v>
@@ -72511,7 +72512,7 @@
         <v>6854</v>
       </c>
       <c r="D2339" t="s">
-        <v>8910</v>
+        <v>8909</v>
       </c>
       <c r="E2339" t="s">
         <v>6512</v>
@@ -72528,7 +72529,7 @@
         <v>6854</v>
       </c>
       <c r="D2340" t="s">
-        <v>8911</v>
+        <v>8910</v>
       </c>
       <c r="E2340" t="s">
         <v>6515</v>
@@ -72545,7 +72546,7 @@
         <v>6854</v>
       </c>
       <c r="D2341" t="s">
-        <v>8912</v>
+        <v>8911</v>
       </c>
       <c r="E2341" t="s">
         <v>6518</v>
@@ -72562,7 +72563,7 @@
         <v>6854</v>
       </c>
       <c r="D2342" t="s">
-        <v>8913</v>
+        <v>8912</v>
       </c>
       <c r="E2342" t="s">
         <v>6521</v>
@@ -72579,7 +72580,7 @@
         <v>6826</v>
       </c>
       <c r="D2343" t="s">
-        <v>8914</v>
+        <v>8913</v>
       </c>
       <c r="E2343" t="s">
         <v>6524</v>
@@ -72596,7 +72597,7 @@
         <v>6826</v>
       </c>
       <c r="D2344" t="s">
-        <v>8915</v>
+        <v>8914</v>
       </c>
       <c r="E2344" t="s">
         <v>6527</v>
@@ -72613,7 +72614,7 @@
         <v>6855</v>
       </c>
       <c r="D2345" t="s">
-        <v>8916</v>
+        <v>8915</v>
       </c>
       <c r="E2345" t="s">
         <v>6530</v>
@@ -72630,7 +72631,7 @@
         <v>6756</v>
       </c>
       <c r="D2346" t="s">
-        <v>8917</v>
+        <v>8916</v>
       </c>
       <c r="E2346" t="s">
         <v>6533</v>
@@ -72647,7 +72648,7 @@
         <v>6775</v>
       </c>
       <c r="D2347" t="s">
-        <v>8918</v>
+        <v>8917</v>
       </c>
       <c r="E2347" t="s">
         <v>6536</v>
@@ -72664,7 +72665,7 @@
         <v>6775</v>
       </c>
       <c r="D2348" t="s">
-        <v>8919</v>
+        <v>8918</v>
       </c>
       <c r="E2348" t="s">
         <v>6539</v>
@@ -72681,7 +72682,7 @@
         <v>6775</v>
       </c>
       <c r="D2349" t="s">
-        <v>8920</v>
+        <v>8919</v>
       </c>
       <c r="E2349" t="s">
         <v>6542</v>
@@ -72698,7 +72699,7 @@
         <v>6810</v>
       </c>
       <c r="D2350" t="s">
-        <v>8921</v>
+        <v>8920</v>
       </c>
       <c r="E2350" t="s">
         <v>6545</v>
@@ -72715,7 +72716,7 @@
         <v>6856</v>
       </c>
       <c r="D2351" t="s">
-        <v>8922</v>
+        <v>8921</v>
       </c>
       <c r="E2351" t="s">
         <v>6548</v>
@@ -72732,7 +72733,7 @@
         <v>6756</v>
       </c>
       <c r="D2352" t="s">
-        <v>8923</v>
+        <v>8922</v>
       </c>
       <c r="E2352" t="s">
         <v>6551</v>
@@ -72749,7 +72750,7 @@
         <v>6857</v>
       </c>
       <c r="D2353" t="s">
-        <v>8924</v>
+        <v>8923</v>
       </c>
       <c r="E2353" t="s">
         <v>6554</v>
@@ -72766,7 +72767,7 @@
         <v>6845</v>
       </c>
       <c r="D2354" t="s">
-        <v>8925</v>
+        <v>8924</v>
       </c>
       <c r="E2354" t="s">
         <v>6557</v>
@@ -72783,7 +72784,7 @@
         <v>6845</v>
       </c>
       <c r="D2355" t="s">
-        <v>8926</v>
+        <v>8925</v>
       </c>
       <c r="E2355" t="s">
         <v>6560</v>
@@ -72800,7 +72801,7 @@
         <v>6791</v>
       </c>
       <c r="D2356" t="s">
-        <v>8927</v>
+        <v>8926</v>
       </c>
       <c r="E2356" t="s">
         <v>6563</v>
@@ -72817,7 +72818,7 @@
         <v>6756</v>
       </c>
       <c r="D2357" t="s">
-        <v>8928</v>
+        <v>8927</v>
       </c>
       <c r="E2357" t="s">
         <v>6566</v>
@@ -72837,7 +72838,7 @@
         <v>620</v>
       </c>
       <c r="D2358" t="s">
-        <v>8929</v>
+        <v>8928</v>
       </c>
       <c r="E2358" t="s">
         <v>6569</v>
@@ -72897,7 +72898,7 @@
         <v>620</v>
       </c>
       <c r="D2361" t="s">
-        <v>8930</v>
+        <v>8929</v>
       </c>
       <c r="E2361" t="s">
         <v>6574</v>
@@ -72917,7 +72918,7 @@
         <v>6577</v>
       </c>
       <c r="D2362" t="s">
-        <v>8931</v>
+        <v>8930</v>
       </c>
       <c r="E2362" t="s">
         <v>6578</v>
@@ -72937,7 +72938,7 @@
         <v>6577</v>
       </c>
       <c r="D2363" t="s">
-        <v>8932</v>
+        <v>8931</v>
       </c>
       <c r="E2363" t="s">
         <v>6581</v>
@@ -72957,7 +72958,7 @@
         <v>6577</v>
       </c>
       <c r="D2364" t="s">
-        <v>8933</v>
+        <v>8932</v>
       </c>
       <c r="E2364" t="s">
         <v>6584</v>
@@ -72977,7 +72978,7 @@
         <v>6577</v>
       </c>
       <c r="D2365" t="s">
-        <v>8934</v>
+        <v>8933</v>
       </c>
       <c r="E2365" t="s">
         <v>3869</v>
@@ -72997,7 +72998,7 @@
         <v>6577</v>
       </c>
       <c r="D2366" t="s">
-        <v>8935</v>
+        <v>8934</v>
       </c>
       <c r="E2366" t="s">
         <v>6589</v>
@@ -73017,7 +73018,7 @@
         <v>6577</v>
       </c>
       <c r="D2367" t="s">
-        <v>8936</v>
+        <v>8935</v>
       </c>
       <c r="E2367" t="s">
         <v>6592</v>
@@ -73037,7 +73038,7 @@
         <v>6577</v>
       </c>
       <c r="D2368" t="s">
-        <v>8937</v>
+        <v>8936</v>
       </c>
       <c r="E2368" t="s">
         <v>6595</v>
@@ -73091,7 +73092,7 @@
         <v>6833</v>
       </c>
       <c r="D2371" t="s">
-        <v>8938</v>
+        <v>8937</v>
       </c>
       <c r="E2371" t="s">
         <v>6603</v>
@@ -73108,7 +73109,7 @@
         <v>6781</v>
       </c>
       <c r="D2372" t="s">
-        <v>8939</v>
+        <v>8938</v>
       </c>
       <c r="E2372" t="s">
         <v>6606</v>
@@ -73125,7 +73126,7 @@
         <v>6833</v>
       </c>
       <c r="D2373" t="s">
-        <v>8940</v>
+        <v>8939</v>
       </c>
       <c r="E2373" t="s">
         <v>6609</v>
@@ -73142,7 +73143,7 @@
         <v>6833</v>
       </c>
       <c r="D2374" t="s">
-        <v>8941</v>
+        <v>8940</v>
       </c>
       <c r="E2374" t="s">
         <v>6612</v>
@@ -73159,7 +73160,7 @@
         <v>6759</v>
       </c>
       <c r="D2375" t="s">
-        <v>8942</v>
+        <v>8941</v>
       </c>
       <c r="E2375" t="s">
         <v>6615</v>
@@ -73176,7 +73177,7 @@
         <v>6790</v>
       </c>
       <c r="D2376" t="s">
-        <v>8943</v>
+        <v>8942</v>
       </c>
       <c r="E2376" t="s">
         <v>6618</v>
@@ -73193,7 +73194,7 @@
         <v>6790</v>
       </c>
       <c r="D2377" t="s">
-        <v>8944</v>
+        <v>8943</v>
       </c>
       <c r="E2377" t="s">
         <v>6621</v>
@@ -73210,7 +73211,7 @@
         <v>6790</v>
       </c>
       <c r="D2378" t="s">
-        <v>8945</v>
+        <v>8944</v>
       </c>
       <c r="E2378" t="s">
         <v>6624</v>
@@ -73227,7 +73228,7 @@
         <v>6792</v>
       </c>
       <c r="D2379" t="s">
-        <v>8946</v>
+        <v>8945</v>
       </c>
       <c r="E2379" t="s">
         <v>6627</v>
@@ -73244,7 +73245,7 @@
         <v>6795</v>
       </c>
       <c r="D2380" t="s">
-        <v>8947</v>
+        <v>8946</v>
       </c>
       <c r="E2380" t="s">
         <v>6630</v>
@@ -73261,7 +73262,7 @@
         <v>6791</v>
       </c>
       <c r="D2381" t="s">
-        <v>8948</v>
+        <v>8947</v>
       </c>
       <c r="E2381" t="s">
         <v>6633</v>
@@ -73278,7 +73279,7 @@
         <v>6774</v>
       </c>
       <c r="D2382" t="s">
-        <v>8949</v>
+        <v>8948</v>
       </c>
       <c r="E2382" t="s">
         <v>6636</v>
@@ -73295,7 +73296,7 @@
         <v>6774</v>
       </c>
       <c r="D2383" t="s">
-        <v>8950</v>
+        <v>8949</v>
       </c>
       <c r="E2383" t="s">
         <v>6639</v>
@@ -73312,7 +73313,7 @@
         <v>6774</v>
       </c>
       <c r="D2384" t="s">
-        <v>8951</v>
+        <v>8950</v>
       </c>
       <c r="E2384" t="s">
         <v>6642</v>
@@ -73329,7 +73330,7 @@
         <v>6774</v>
       </c>
       <c r="D2385" t="s">
-        <v>8952</v>
+        <v>8951</v>
       </c>
       <c r="E2385" t="s">
         <v>6645</v>
@@ -73346,7 +73347,7 @@
         <v>6774</v>
       </c>
       <c r="D2386" t="s">
-        <v>8953</v>
+        <v>8952</v>
       </c>
       <c r="E2386" t="s">
         <v>1690</v>
@@ -73363,7 +73364,7 @@
         <v>6794</v>
       </c>
       <c r="D2387" t="s">
-        <v>8954</v>
+        <v>8953</v>
       </c>
       <c r="E2387" t="s">
         <v>6650</v>
@@ -73380,7 +73381,7 @@
         <v>6794</v>
       </c>
       <c r="D2388" t="s">
-        <v>8955</v>
+        <v>8954</v>
       </c>
       <c r="E2388" t="s">
         <v>6653</v>
@@ -73397,7 +73398,7 @@
         <v>6794</v>
       </c>
       <c r="D2389" t="s">
-        <v>8956</v>
+        <v>8955</v>
       </c>
       <c r="E2389" t="s">
         <v>6656</v>
@@ -73414,7 +73415,7 @@
         <v>6794</v>
       </c>
       <c r="D2390" t="s">
-        <v>8957</v>
+        <v>8956</v>
       </c>
       <c r="E2390" t="s">
         <v>6659</v>
@@ -73431,7 +73432,7 @@
         <v>6794</v>
       </c>
       <c r="D2391" t="s">
-        <v>8958</v>
+        <v>8957</v>
       </c>
       <c r="E2391" t="s">
         <v>6662</v>
@@ -73448,7 +73449,7 @@
         <v>6794</v>
       </c>
       <c r="D2392" t="s">
-        <v>8959</v>
+        <v>8958</v>
       </c>
       <c r="E2392" t="s">
         <v>6665</v>
@@ -73465,7 +73466,7 @@
         <v>6794</v>
       </c>
       <c r="D2393" t="s">
-        <v>8960</v>
+        <v>8959</v>
       </c>
       <c r="E2393" t="s">
         <v>6668</v>
@@ -73482,7 +73483,7 @@
         <v>6794</v>
       </c>
       <c r="D2394" t="s">
-        <v>8958</v>
+        <v>8957</v>
       </c>
       <c r="E2394" t="s">
         <v>6671</v>
@@ -73499,7 +73500,7 @@
         <v>6794</v>
       </c>
       <c r="D2395" t="s">
-        <v>8961</v>
+        <v>8960</v>
       </c>
       <c r="E2395" t="s">
         <v>6673</v>
@@ -73516,7 +73517,7 @@
         <v>6858</v>
       </c>
       <c r="D2396" t="s">
-        <v>8962</v>
+        <v>8961</v>
       </c>
       <c r="E2396" t="s">
         <v>6676</v>
@@ -73533,7 +73534,7 @@
         <v>6846</v>
       </c>
       <c r="D2397" t="s">
-        <v>8963</v>
+        <v>8962</v>
       </c>
       <c r="E2397" t="s">
         <v>6679</v>
@@ -73550,7 +73551,7 @@
         <v>6859</v>
       </c>
       <c r="D2398" t="s">
-        <v>8964</v>
+        <v>8963</v>
       </c>
       <c r="E2398" t="s">
         <v>6682</v>
@@ -73567,7 +73568,7 @@
         <v>6859</v>
       </c>
       <c r="D2399" t="s">
-        <v>8965</v>
+        <v>8964</v>
       </c>
       <c r="E2399" t="s">
         <v>6685</v>
@@ -73601,7 +73602,7 @@
         <v>6819</v>
       </c>
       <c r="D2401" t="s">
-        <v>8966</v>
+        <v>8965</v>
       </c>
       <c r="E2401" t="s">
         <v>6688</v>
@@ -73618,7 +73619,7 @@
         <v>6819</v>
       </c>
       <c r="D2402" t="s">
-        <v>8967</v>
+        <v>8966</v>
       </c>
       <c r="E2402" t="s">
         <v>6691</v>
@@ -73635,7 +73636,7 @@
         <v>6789</v>
       </c>
       <c r="D2403" t="s">
-        <v>8968</v>
+        <v>8967</v>
       </c>
       <c r="E2403" t="s">
         <v>6694</v>
@@ -73652,7 +73653,7 @@
         <v>6781</v>
       </c>
       <c r="D2404" t="s">
-        <v>8969</v>
+        <v>8968</v>
       </c>
       <c r="E2404" t="s">
         <v>6697</v>
@@ -73669,7 +73670,7 @@
         <v>6781</v>
       </c>
       <c r="D2405" t="s">
-        <v>8970</v>
+        <v>8969</v>
       </c>
       <c r="E2405" t="s">
         <v>6700</v>
@@ -73686,7 +73687,7 @@
         <v>6781</v>
       </c>
       <c r="D2406" t="s">
-        <v>8971</v>
+        <v>8970</v>
       </c>
       <c r="E2406" t="s">
         <v>6703</v>
@@ -73703,7 +73704,7 @@
         <v>6781</v>
       </c>
       <c r="D2407" t="s">
-        <v>8972</v>
+        <v>8971</v>
       </c>
       <c r="E2407" t="s">
         <v>6706</v>
@@ -73737,7 +73738,7 @@
         <v>6781</v>
       </c>
       <c r="D2409" t="s">
-        <v>8973</v>
+        <v>8972</v>
       </c>
       <c r="E2409" t="s">
         <v>6712</v>
@@ -73754,7 +73755,7 @@
         <v>6781</v>
       </c>
       <c r="D2410" t="s">
-        <v>8974</v>
+        <v>8973</v>
       </c>
       <c r="E2410" t="s">
         <v>6715</v>
@@ -73771,7 +73772,7 @@
         <v>6850</v>
       </c>
       <c r="D2411" t="s">
-        <v>8975</v>
+        <v>8974</v>
       </c>
       <c r="E2411" t="s">
         <v>6718</v>
@@ -73788,7 +73789,7 @@
         <v>6781</v>
       </c>
       <c r="D2412" t="s">
-        <v>8976</v>
+        <v>8975</v>
       </c>
       <c r="E2412" t="s">
         <v>6721</v>
@@ -73805,7 +73806,7 @@
         <v>6823</v>
       </c>
       <c r="D2413" t="s">
-        <v>8977</v>
+        <v>8976</v>
       </c>
       <c r="E2413" t="s">
         <v>6724</v>
@@ -73822,7 +73823,7 @@
         <v>6785</v>
       </c>
       <c r="D2414" t="s">
-        <v>8978</v>
+        <v>8977</v>
       </c>
       <c r="E2414" t="s">
         <v>6727</v>
@@ -73839,7 +73840,7 @@
         <v>6785</v>
       </c>
       <c r="D2415" t="s">
-        <v>8979</v>
+        <v>8978</v>
       </c>
       <c r="E2415" t="s">
         <v>6730</v>
@@ -73856,7 +73857,7 @@
         <v>6785</v>
       </c>
       <c r="D2416" t="s">
-        <v>8980</v>
+        <v>8979</v>
       </c>
       <c r="E2416" t="s">
         <v>3598</v>
@@ -73873,7 +73874,7 @@
         <v>6785</v>
       </c>
       <c r="D2417" t="s">
-        <v>8981</v>
+        <v>8980</v>
       </c>
       <c r="E2417" t="s">
         <v>6735</v>
@@ -73893,7 +73894,7 @@
         <v>4159</v>
       </c>
       <c r="D2418" t="s">
-        <v>8982</v>
+        <v>8981</v>
       </c>
       <c r="E2418" t="s">
         <v>6738</v>
@@ -73930,7 +73931,7 @@
         <v>6785</v>
       </c>
       <c r="D2420" t="s">
-        <v>8983</v>
+        <v>8982</v>
       </c>
       <c r="E2420" t="s">
         <v>6743</v>
@@ -73947,7 +73948,7 @@
         <v>6785</v>
       </c>
       <c r="D2421" t="s">
-        <v>8984</v>
+        <v>8983</v>
       </c>
       <c r="E2421" t="s">
         <v>6746</v>
@@ -73964,7 +73965,7 @@
         <v>6785</v>
       </c>
       <c r="D2422" t="s">
-        <v>8985</v>
+        <v>8984</v>
       </c>
       <c r="E2422" t="s">
         <v>6749</v>

--- a/_Lang_Korean/Lang/KR/Game/General.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/General.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Elin_KR\_Lang_Korean\Lang\KR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06FE309-FBEB-4023-AF46-2E50883CB07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF9276C-3E24-46A6-899D-3537D1D6329D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27111,9 +27111,6 @@
     <t>성장을 보류한다</t>
   </si>
   <si>
-    <t>#1 &lt;size=14&gt;(다음번 입하 #1후)&lt;/size&gt;</t>
-  </si>
-  <si>
     <t>중요한 물건으로 지정한다</t>
   </si>
   <si>
@@ -27285,6 +27282,10 @@
   </si>
   <si>
     <t>제단《#1의 망치》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 &lt;size=14&gt;(다음번 입하 #2후)&lt;/size&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -27657,8 +27658,8 @@
   <dimension ref="A1:F2422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2284" sqref="I2284"/>
+      <pane ySplit="2" topLeftCell="A2359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2376" sqref="D2376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27774,7 +27775,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>8994</v>
+        <v>8993</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -53077,7 +53078,7 @@
         <v>3602</v>
       </c>
       <c r="D1275" t="s">
-        <v>8987</v>
+        <v>8986</v>
       </c>
       <c r="E1275" t="s">
         <v>3615</v>
@@ -53237,7 +53238,7 @@
         <v>3602</v>
       </c>
       <c r="D1283" t="s">
-        <v>8988</v>
+        <v>8987</v>
       </c>
       <c r="E1283" t="s">
         <v>3637</v>
@@ -62015,7 +62016,7 @@
         <v>6751</v>
       </c>
       <c r="D1745" t="s">
-        <v>8989</v>
+        <v>8988</v>
       </c>
       <c r="E1745" t="s">
         <v>4890</v>
@@ -62032,7 +62033,7 @@
         <v>6751</v>
       </c>
       <c r="D1746" t="s">
-        <v>8990</v>
+        <v>8989</v>
       </c>
       <c r="E1746" t="s">
         <v>4893</v>
@@ -62831,7 +62832,7 @@
         <v>6751</v>
       </c>
       <c r="D1793" t="s">
-        <v>8991</v>
+        <v>8990</v>
       </c>
       <c r="E1793" t="s">
         <v>5024</v>
@@ -62848,7 +62849,7 @@
         <v>6751</v>
       </c>
       <c r="D1794" t="s">
-        <v>8992</v>
+        <v>8991</v>
       </c>
       <c r="E1794" t="s">
         <v>5027</v>
@@ -67889,7 +67890,7 @@
         <v>5763</v>
       </c>
       <c r="D2087" t="s">
-        <v>8986</v>
+        <v>8985</v>
       </c>
       <c r="E2087" t="s">
         <v>151</v>
@@ -67909,7 +67910,7 @@
         <v>5763</v>
       </c>
       <c r="D2088" t="s">
-        <v>8985</v>
+        <v>8984</v>
       </c>
       <c r="E2088" t="s">
         <v>5796</v>
@@ -68100,7 +68101,7 @@
         <v>6757</v>
       </c>
       <c r="D2098" t="s">
-        <v>8993</v>
+        <v>8992</v>
       </c>
       <c r="E2098" t="s">
         <v>5823</v>
@@ -71640,7 +71641,7 @@
         <v>6829</v>
       </c>
       <c r="D2287" t="s">
-        <v>8995</v>
+        <v>8994</v>
       </c>
       <c r="E2287" t="s">
         <v>6360</v>
@@ -73160,7 +73161,7 @@
         <v>6759</v>
       </c>
       <c r="D2375" t="s">
-        <v>8941</v>
+        <v>8995</v>
       </c>
       <c r="E2375" t="s">
         <v>6615</v>
@@ -73177,7 +73178,7 @@
         <v>6790</v>
       </c>
       <c r="D2376" t="s">
-        <v>8942</v>
+        <v>8941</v>
       </c>
       <c r="E2376" t="s">
         <v>6618</v>
@@ -73194,7 +73195,7 @@
         <v>6790</v>
       </c>
       <c r="D2377" t="s">
-        <v>8943</v>
+        <v>8942</v>
       </c>
       <c r="E2377" t="s">
         <v>6621</v>
@@ -73211,7 +73212,7 @@
         <v>6790</v>
       </c>
       <c r="D2378" t="s">
-        <v>8944</v>
+        <v>8943</v>
       </c>
       <c r="E2378" t="s">
         <v>6624</v>
@@ -73228,7 +73229,7 @@
         <v>6792</v>
       </c>
       <c r="D2379" t="s">
-        <v>8945</v>
+        <v>8944</v>
       </c>
       <c r="E2379" t="s">
         <v>6627</v>
@@ -73245,7 +73246,7 @@
         <v>6795</v>
       </c>
       <c r="D2380" t="s">
-        <v>8946</v>
+        <v>8945</v>
       </c>
       <c r="E2380" t="s">
         <v>6630</v>
@@ -73262,7 +73263,7 @@
         <v>6791</v>
       </c>
       <c r="D2381" t="s">
-        <v>8947</v>
+        <v>8946</v>
       </c>
       <c r="E2381" t="s">
         <v>6633</v>
@@ -73279,7 +73280,7 @@
         <v>6774</v>
       </c>
       <c r="D2382" t="s">
-        <v>8948</v>
+        <v>8947</v>
       </c>
       <c r="E2382" t="s">
         <v>6636</v>
@@ -73296,7 +73297,7 @@
         <v>6774</v>
       </c>
       <c r="D2383" t="s">
-        <v>8949</v>
+        <v>8948</v>
       </c>
       <c r="E2383" t="s">
         <v>6639</v>
@@ -73313,7 +73314,7 @@
         <v>6774</v>
       </c>
       <c r="D2384" t="s">
-        <v>8950</v>
+        <v>8949</v>
       </c>
       <c r="E2384" t="s">
         <v>6642</v>
@@ -73330,7 +73331,7 @@
         <v>6774</v>
       </c>
       <c r="D2385" t="s">
-        <v>8951</v>
+        <v>8950</v>
       </c>
       <c r="E2385" t="s">
         <v>6645</v>
@@ -73347,7 +73348,7 @@
         <v>6774</v>
       </c>
       <c r="D2386" t="s">
-        <v>8952</v>
+        <v>8951</v>
       </c>
       <c r="E2386" t="s">
         <v>1690</v>
@@ -73364,7 +73365,7 @@
         <v>6794</v>
       </c>
       <c r="D2387" t="s">
-        <v>8953</v>
+        <v>8952</v>
       </c>
       <c r="E2387" t="s">
         <v>6650</v>
@@ -73381,7 +73382,7 @@
         <v>6794</v>
       </c>
       <c r="D2388" t="s">
-        <v>8954</v>
+        <v>8953</v>
       </c>
       <c r="E2388" t="s">
         <v>6653</v>
@@ -73398,7 +73399,7 @@
         <v>6794</v>
       </c>
       <c r="D2389" t="s">
-        <v>8955</v>
+        <v>8954</v>
       </c>
       <c r="E2389" t="s">
         <v>6656</v>
@@ -73415,7 +73416,7 @@
         <v>6794</v>
       </c>
       <c r="D2390" t="s">
-        <v>8956</v>
+        <v>8955</v>
       </c>
       <c r="E2390" t="s">
         <v>6659</v>
@@ -73432,7 +73433,7 @@
         <v>6794</v>
       </c>
       <c r="D2391" t="s">
-        <v>8957</v>
+        <v>8956</v>
       </c>
       <c r="E2391" t="s">
         <v>6662</v>
@@ -73449,7 +73450,7 @@
         <v>6794</v>
       </c>
       <c r="D2392" t="s">
-        <v>8958</v>
+        <v>8957</v>
       </c>
       <c r="E2392" t="s">
         <v>6665</v>
@@ -73466,7 +73467,7 @@
         <v>6794</v>
       </c>
       <c r="D2393" t="s">
-        <v>8959</v>
+        <v>8958</v>
       </c>
       <c r="E2393" t="s">
         <v>6668</v>
@@ -73483,7 +73484,7 @@
         <v>6794</v>
       </c>
       <c r="D2394" t="s">
-        <v>8957</v>
+        <v>8956</v>
       </c>
       <c r="E2394" t="s">
         <v>6671</v>
@@ -73500,7 +73501,7 @@
         <v>6794</v>
       </c>
       <c r="D2395" t="s">
-        <v>8960</v>
+        <v>8959</v>
       </c>
       <c r="E2395" t="s">
         <v>6673</v>
@@ -73517,7 +73518,7 @@
         <v>6858</v>
       </c>
       <c r="D2396" t="s">
-        <v>8961</v>
+        <v>8960</v>
       </c>
       <c r="E2396" t="s">
         <v>6676</v>
@@ -73534,7 +73535,7 @@
         <v>6846</v>
       </c>
       <c r="D2397" t="s">
-        <v>8962</v>
+        <v>8961</v>
       </c>
       <c r="E2397" t="s">
         <v>6679</v>
@@ -73551,7 +73552,7 @@
         <v>6859</v>
       </c>
       <c r="D2398" t="s">
-        <v>8963</v>
+        <v>8962</v>
       </c>
       <c r="E2398" t="s">
         <v>6682</v>
@@ -73568,7 +73569,7 @@
         <v>6859</v>
       </c>
       <c r="D2399" t="s">
-        <v>8964</v>
+        <v>8963</v>
       </c>
       <c r="E2399" t="s">
         <v>6685</v>
@@ -73602,7 +73603,7 @@
         <v>6819</v>
       </c>
       <c r="D2401" t="s">
-        <v>8965</v>
+        <v>8964</v>
       </c>
       <c r="E2401" t="s">
         <v>6688</v>
@@ -73619,7 +73620,7 @@
         <v>6819</v>
       </c>
       <c r="D2402" t="s">
-        <v>8966</v>
+        <v>8965</v>
       </c>
       <c r="E2402" t="s">
         <v>6691</v>
@@ -73636,7 +73637,7 @@
         <v>6789</v>
       </c>
       <c r="D2403" t="s">
-        <v>8967</v>
+        <v>8966</v>
       </c>
       <c r="E2403" t="s">
         <v>6694</v>
@@ -73653,7 +73654,7 @@
         <v>6781</v>
       </c>
       <c r="D2404" t="s">
-        <v>8968</v>
+        <v>8967</v>
       </c>
       <c r="E2404" t="s">
         <v>6697</v>
@@ -73670,7 +73671,7 @@
         <v>6781</v>
       </c>
       <c r="D2405" t="s">
-        <v>8969</v>
+        <v>8968</v>
       </c>
       <c r="E2405" t="s">
         <v>6700</v>
@@ -73687,7 +73688,7 @@
         <v>6781</v>
       </c>
       <c r="D2406" t="s">
-        <v>8970</v>
+        <v>8969</v>
       </c>
       <c r="E2406" t="s">
         <v>6703</v>
@@ -73704,7 +73705,7 @@
         <v>6781</v>
       </c>
       <c r="D2407" t="s">
-        <v>8971</v>
+        <v>8970</v>
       </c>
       <c r="E2407" t="s">
         <v>6706</v>
@@ -73738,7 +73739,7 @@
         <v>6781</v>
       </c>
       <c r="D2409" t="s">
-        <v>8972</v>
+        <v>8971</v>
       </c>
       <c r="E2409" t="s">
         <v>6712</v>
@@ -73755,7 +73756,7 @@
         <v>6781</v>
       </c>
       <c r="D2410" t="s">
-        <v>8973</v>
+        <v>8972</v>
       </c>
       <c r="E2410" t="s">
         <v>6715</v>
@@ -73772,7 +73773,7 @@
         <v>6850</v>
       </c>
       <c r="D2411" t="s">
-        <v>8974</v>
+        <v>8973</v>
       </c>
       <c r="E2411" t="s">
         <v>6718</v>
@@ -73789,7 +73790,7 @@
         <v>6781</v>
       </c>
       <c r="D2412" t="s">
-        <v>8975</v>
+        <v>8974</v>
       </c>
       <c r="E2412" t="s">
         <v>6721</v>
@@ -73806,7 +73807,7 @@
         <v>6823</v>
       </c>
       <c r="D2413" t="s">
-        <v>8976</v>
+        <v>8975</v>
       </c>
       <c r="E2413" t="s">
         <v>6724</v>
@@ -73823,7 +73824,7 @@
         <v>6785</v>
       </c>
       <c r="D2414" t="s">
-        <v>8977</v>
+        <v>8976</v>
       </c>
       <c r="E2414" t="s">
         <v>6727</v>
@@ -73840,7 +73841,7 @@
         <v>6785</v>
       </c>
       <c r="D2415" t="s">
-        <v>8978</v>
+        <v>8977</v>
       </c>
       <c r="E2415" t="s">
         <v>6730</v>
@@ -73857,7 +73858,7 @@
         <v>6785</v>
       </c>
       <c r="D2416" t="s">
-        <v>8979</v>
+        <v>8978</v>
       </c>
       <c r="E2416" t="s">
         <v>3598</v>
@@ -73874,7 +73875,7 @@
         <v>6785</v>
       </c>
       <c r="D2417" t="s">
-        <v>8980</v>
+        <v>8979</v>
       </c>
       <c r="E2417" t="s">
         <v>6735</v>
@@ -73894,7 +73895,7 @@
         <v>4159</v>
       </c>
       <c r="D2418" t="s">
-        <v>8981</v>
+        <v>8980</v>
       </c>
       <c r="E2418" t="s">
         <v>6738</v>
@@ -73931,7 +73932,7 @@
         <v>6785</v>
       </c>
       <c r="D2420" t="s">
-        <v>8982</v>
+        <v>8981</v>
       </c>
       <c r="E2420" t="s">
         <v>6743</v>
@@ -73948,7 +73949,7 @@
         <v>6785</v>
       </c>
       <c r="D2421" t="s">
-        <v>8983</v>
+        <v>8982</v>
       </c>
       <c r="E2421" t="s">
         <v>6746</v>
@@ -73965,7 +73966,7 @@
         <v>6785</v>
       </c>
       <c r="D2422" t="s">
-        <v>8984</v>
+        <v>8983</v>
       </c>
       <c r="E2422" t="s">
         <v>6749</v>

--- a/_Lang_Korean/Lang/KR/Game/General.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/General.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Elin_KR\_Lang_Korean\Lang\KR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49587751-9A7C-4E8D-A96F-083143A1E384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFF9A2C-B14A-4538-B88C-D3F4DE362538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27105,9 +27105,6 @@
     <t>중요한 물건에서 제외한다</t>
   </si>
   <si>
-    <t xml:space="preserve"> *교환용이 아님</t>
-  </si>
-  <si>
     <t>(#1 키로 상세 설명 표시)</t>
   </si>
   <si>
@@ -27290,6 +27287,10 @@
   </si>
   <si>
     <t>共有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> *교환 비추천</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -27662,8 +27663,8 @@
   <dimension ref="A1:F2422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1966" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1986" sqref="G1986"/>
+      <pane ySplit="2" topLeftCell="A2362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2379" sqref="D2379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27779,7 +27780,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>8989</v>
+        <v>8988</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -42268,7 +42269,7 @@
         <v>1924</v>
       </c>
       <c r="D734" t="s">
-        <v>8992</v>
+        <v>8991</v>
       </c>
       <c r="E734" t="s">
         <v>2089</v>
@@ -53082,7 +53083,7 @@
         <v>3602</v>
       </c>
       <c r="D1275" t="s">
-        <v>8982</v>
+        <v>8981</v>
       </c>
       <c r="E1275" t="s">
         <v>3615</v>
@@ -53242,7 +53243,7 @@
         <v>3602</v>
       </c>
       <c r="D1283" t="s">
-        <v>8983</v>
+        <v>8982</v>
       </c>
       <c r="E1283" t="s">
         <v>3637</v>
@@ -59565,7 +59566,7 @@
         <v>6759</v>
       </c>
       <c r="D1602" t="s">
-        <v>8993</v>
+        <v>8992</v>
       </c>
       <c r="E1602" t="s">
         <v>4506</v>
@@ -62020,7 +62021,7 @@
         <v>6750</v>
       </c>
       <c r="D1745" t="s">
-        <v>8984</v>
+        <v>8983</v>
       </c>
       <c r="E1745" t="s">
         <v>4890</v>
@@ -62037,7 +62038,7 @@
         <v>6750</v>
       </c>
       <c r="D1746" t="s">
-        <v>8985</v>
+        <v>8984</v>
       </c>
       <c r="E1746" t="s">
         <v>4893</v>
@@ -62836,7 +62837,7 @@
         <v>6750</v>
       </c>
       <c r="D1793" t="s">
-        <v>8986</v>
+        <v>8985</v>
       </c>
       <c r="E1793" t="s">
         <v>5024</v>
@@ -62853,7 +62854,7 @@
         <v>6750</v>
       </c>
       <c r="D1794" t="s">
-        <v>8987</v>
+        <v>8986</v>
       </c>
       <c r="E1794" t="s">
         <v>5027</v>
@@ -66049,13 +66050,13 @@
         <v>6750</v>
       </c>
       <c r="D1982" t="s">
-        <v>8994</v>
+        <v>8993</v>
       </c>
       <c r="E1982" t="s">
         <v>5515</v>
       </c>
       <c r="F1982" t="s">
-        <v>8995</v>
+        <v>8994</v>
       </c>
     </row>
     <row r="1983" spans="1:6" x14ac:dyDescent="0.3">
@@ -67894,7 +67895,7 @@
         <v>5762</v>
       </c>
       <c r="D2087" t="s">
-        <v>8981</v>
+        <v>8980</v>
       </c>
       <c r="E2087" t="s">
         <v>151</v>
@@ -67914,7 +67915,7 @@
         <v>5762</v>
       </c>
       <c r="D2088" t="s">
-        <v>8980</v>
+        <v>8979</v>
       </c>
       <c r="E2088" t="s">
         <v>5795</v>
@@ -68105,7 +68106,7 @@
         <v>6756</v>
       </c>
       <c r="D2098" t="s">
-        <v>8988</v>
+        <v>8987</v>
       </c>
       <c r="E2098" t="s">
         <v>5822</v>
@@ -71645,7 +71646,7 @@
         <v>6828</v>
       </c>
       <c r="D2287" t="s">
-        <v>8990</v>
+        <v>8989</v>
       </c>
       <c r="E2287" t="s">
         <v>6359</v>
@@ -73165,7 +73166,7 @@
         <v>6758</v>
       </c>
       <c r="D2375" t="s">
-        <v>8991</v>
+        <v>8990</v>
       </c>
       <c r="E2375" t="s">
         <v>6614</v>
@@ -73216,7 +73217,7 @@
         <v>6789</v>
       </c>
       <c r="D2378" t="s">
-        <v>8939</v>
+        <v>8995</v>
       </c>
       <c r="E2378" t="s">
         <v>6623</v>
@@ -73233,7 +73234,7 @@
         <v>6791</v>
       </c>
       <c r="D2379" t="s">
-        <v>8940</v>
+        <v>8939</v>
       </c>
       <c r="E2379" t="s">
         <v>6626</v>
@@ -73250,7 +73251,7 @@
         <v>6794</v>
       </c>
       <c r="D2380" t="s">
-        <v>8941</v>
+        <v>8940</v>
       </c>
       <c r="E2380" t="s">
         <v>6629</v>
@@ -73267,7 +73268,7 @@
         <v>6790</v>
       </c>
       <c r="D2381" t="s">
-        <v>8942</v>
+        <v>8941</v>
       </c>
       <c r="E2381" t="s">
         <v>6632</v>
@@ -73284,7 +73285,7 @@
         <v>6773</v>
       </c>
       <c r="D2382" t="s">
-        <v>8943</v>
+        <v>8942</v>
       </c>
       <c r="E2382" t="s">
         <v>6635</v>
@@ -73301,7 +73302,7 @@
         <v>6773</v>
       </c>
       <c r="D2383" t="s">
-        <v>8944</v>
+        <v>8943</v>
       </c>
       <c r="E2383" t="s">
         <v>6638</v>
@@ -73318,7 +73319,7 @@
         <v>6773</v>
       </c>
       <c r="D2384" t="s">
-        <v>8945</v>
+        <v>8944</v>
       </c>
       <c r="E2384" t="s">
         <v>6641</v>
@@ -73335,7 +73336,7 @@
         <v>6773</v>
       </c>
       <c r="D2385" t="s">
-        <v>8946</v>
+        <v>8945</v>
       </c>
       <c r="E2385" t="s">
         <v>6644</v>
@@ -73352,7 +73353,7 @@
         <v>6773</v>
       </c>
       <c r="D2386" t="s">
-        <v>8947</v>
+        <v>8946</v>
       </c>
       <c r="E2386" t="s">
         <v>1690</v>
@@ -73369,7 +73370,7 @@
         <v>6793</v>
       </c>
       <c r="D2387" t="s">
-        <v>8948</v>
+        <v>8947</v>
       </c>
       <c r="E2387" t="s">
         <v>6649</v>
@@ -73386,7 +73387,7 @@
         <v>6793</v>
       </c>
       <c r="D2388" t="s">
-        <v>8949</v>
+        <v>8948</v>
       </c>
       <c r="E2388" t="s">
         <v>6652</v>
@@ -73403,7 +73404,7 @@
         <v>6793</v>
       </c>
       <c r="D2389" t="s">
-        <v>8950</v>
+        <v>8949</v>
       </c>
       <c r="E2389" t="s">
         <v>6655</v>
@@ -73420,7 +73421,7 @@
         <v>6793</v>
       </c>
       <c r="D2390" t="s">
-        <v>8951</v>
+        <v>8950</v>
       </c>
       <c r="E2390" t="s">
         <v>6658</v>
@@ -73437,7 +73438,7 @@
         <v>6793</v>
       </c>
       <c r="D2391" t="s">
-        <v>8952</v>
+        <v>8951</v>
       </c>
       <c r="E2391" t="s">
         <v>6661</v>
@@ -73454,7 +73455,7 @@
         <v>6793</v>
       </c>
       <c r="D2392" t="s">
-        <v>8953</v>
+        <v>8952</v>
       </c>
       <c r="E2392" t="s">
         <v>6664</v>
@@ -73471,7 +73472,7 @@
         <v>6793</v>
       </c>
       <c r="D2393" t="s">
-        <v>8954</v>
+        <v>8953</v>
       </c>
       <c r="E2393" t="s">
         <v>6667</v>
@@ -73488,7 +73489,7 @@
         <v>6793</v>
       </c>
       <c r="D2394" t="s">
-        <v>8952</v>
+        <v>8951</v>
       </c>
       <c r="E2394" t="s">
         <v>6670</v>
@@ -73505,7 +73506,7 @@
         <v>6793</v>
       </c>
       <c r="D2395" t="s">
-        <v>8955</v>
+        <v>8954</v>
       </c>
       <c r="E2395" t="s">
         <v>6672</v>
@@ -73522,7 +73523,7 @@
         <v>6857</v>
       </c>
       <c r="D2396" t="s">
-        <v>8956</v>
+        <v>8955</v>
       </c>
       <c r="E2396" t="s">
         <v>6675</v>
@@ -73539,7 +73540,7 @@
         <v>6845</v>
       </c>
       <c r="D2397" t="s">
-        <v>8957</v>
+        <v>8956</v>
       </c>
       <c r="E2397" t="s">
         <v>6678</v>
@@ -73556,7 +73557,7 @@
         <v>6858</v>
       </c>
       <c r="D2398" t="s">
-        <v>8958</v>
+        <v>8957</v>
       </c>
       <c r="E2398" t="s">
         <v>6681</v>
@@ -73573,7 +73574,7 @@
         <v>6858</v>
       </c>
       <c r="D2399" t="s">
-        <v>8959</v>
+        <v>8958</v>
       </c>
       <c r="E2399" t="s">
         <v>6684</v>
@@ -73607,7 +73608,7 @@
         <v>6818</v>
       </c>
       <c r="D2401" t="s">
-        <v>8960</v>
+        <v>8959</v>
       </c>
       <c r="E2401" t="s">
         <v>6687</v>
@@ -73624,7 +73625,7 @@
         <v>6818</v>
       </c>
       <c r="D2402" t="s">
-        <v>8961</v>
+        <v>8960</v>
       </c>
       <c r="E2402" t="s">
         <v>6690</v>
@@ -73641,7 +73642,7 @@
         <v>6788</v>
       </c>
       <c r="D2403" t="s">
-        <v>8962</v>
+        <v>8961</v>
       </c>
       <c r="E2403" t="s">
         <v>6693</v>
@@ -73658,7 +73659,7 @@
         <v>6780</v>
       </c>
       <c r="D2404" t="s">
-        <v>8963</v>
+        <v>8962</v>
       </c>
       <c r="E2404" t="s">
         <v>6696</v>
@@ -73675,7 +73676,7 @@
         <v>6780</v>
       </c>
       <c r="D2405" t="s">
-        <v>8964</v>
+        <v>8963</v>
       </c>
       <c r="E2405" t="s">
         <v>6699</v>
@@ -73692,7 +73693,7 @@
         <v>6780</v>
       </c>
       <c r="D2406" t="s">
-        <v>8965</v>
+        <v>8964</v>
       </c>
       <c r="E2406" t="s">
         <v>6702</v>
@@ -73709,7 +73710,7 @@
         <v>6780</v>
       </c>
       <c r="D2407" t="s">
-        <v>8966</v>
+        <v>8965</v>
       </c>
       <c r="E2407" t="s">
         <v>6705</v>
@@ -73743,7 +73744,7 @@
         <v>6780</v>
       </c>
       <c r="D2409" t="s">
-        <v>8967</v>
+        <v>8966</v>
       </c>
       <c r="E2409" t="s">
         <v>6711</v>
@@ -73760,7 +73761,7 @@
         <v>6780</v>
       </c>
       <c r="D2410" t="s">
-        <v>8968</v>
+        <v>8967</v>
       </c>
       <c r="E2410" t="s">
         <v>6714</v>
@@ -73777,7 +73778,7 @@
         <v>6849</v>
       </c>
       <c r="D2411" t="s">
-        <v>8969</v>
+        <v>8968</v>
       </c>
       <c r="E2411" t="s">
         <v>6717</v>
@@ -73794,7 +73795,7 @@
         <v>6780</v>
       </c>
       <c r="D2412" t="s">
-        <v>8970</v>
+        <v>8969</v>
       </c>
       <c r="E2412" t="s">
         <v>6720</v>
@@ -73811,7 +73812,7 @@
         <v>6822</v>
       </c>
       <c r="D2413" t="s">
-        <v>8971</v>
+        <v>8970</v>
       </c>
       <c r="E2413" t="s">
         <v>6723</v>
@@ -73828,7 +73829,7 @@
         <v>6784</v>
       </c>
       <c r="D2414" t="s">
-        <v>8972</v>
+        <v>8971</v>
       </c>
       <c r="E2414" t="s">
         <v>6726</v>
@@ -73845,7 +73846,7 @@
         <v>6784</v>
       </c>
       <c r="D2415" t="s">
-        <v>8973</v>
+        <v>8972</v>
       </c>
       <c r="E2415" t="s">
         <v>6729</v>
@@ -73862,7 +73863,7 @@
         <v>6784</v>
       </c>
       <c r="D2416" t="s">
-        <v>8974</v>
+        <v>8973</v>
       </c>
       <c r="E2416" t="s">
         <v>3598</v>
@@ -73879,7 +73880,7 @@
         <v>6784</v>
       </c>
       <c r="D2417" t="s">
-        <v>8975</v>
+        <v>8974</v>
       </c>
       <c r="E2417" t="s">
         <v>6734</v>
@@ -73899,7 +73900,7 @@
         <v>4159</v>
       </c>
       <c r="D2418" t="s">
-        <v>8976</v>
+        <v>8975</v>
       </c>
       <c r="E2418" t="s">
         <v>6737</v>
@@ -73936,7 +73937,7 @@
         <v>6784</v>
       </c>
       <c r="D2420" t="s">
-        <v>8977</v>
+        <v>8976</v>
       </c>
       <c r="E2420" t="s">
         <v>6742</v>
@@ -73953,7 +73954,7 @@
         <v>6784</v>
       </c>
       <c r="D2421" t="s">
-        <v>8978</v>
+        <v>8977</v>
       </c>
       <c r="E2421" t="s">
         <v>6745</v>
@@ -73970,7 +73971,7 @@
         <v>6784</v>
       </c>
       <c r="D2422" t="s">
-        <v>8979</v>
+        <v>8978</v>
       </c>
       <c r="E2422" t="s">
         <v>6748</v>

--- a/_Lang_Korean/Lang/KR/Game/General.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/General.xlsx
@@ -958,7 +958,7 @@
     <t xml:space="preserve">actCallReserve</t>
   </si>
   <si>
-    <t xml:space="preserve">다시 부른다</t>
+    <t xml:space="preserve">호출한다</t>
   </si>
   <si>
     <t xml:space="preserve">Recall</t>
@@ -12226,7 +12226,7 @@
     <t xml:space="preserve">rotting</t>
   </si>
   <si>
-    <t xml:space="preserve">썩고있는</t>
+    <t xml:space="preserve">썩고 있는</t>
   </si>
   <si>
     <t xml:space="preserve">stale </t>
@@ -13030,7 +13030,7 @@
     <t xml:space="preserve">Beta 22.62</t>
   </si>
   <si>
-    <t xml:space="preserve">모두 가저간다 (#1)</t>
+    <t xml:space="preserve">모두 가져간다 (#1)</t>
   </si>
   <si>
     <t xml:space="preserve">Take All (#1)</t>
@@ -13672,7 +13672,7 @@
     <t xml:space="preserve">key_GetAll</t>
   </si>
   <si>
-    <t xml:space="preserve">아이템을 모두 가저간다.</t>
+    <t xml:space="preserve">아이템을 모두 가져간다.</t>
   </si>
   <si>
     <t xml:space="preserve">Take All Items</t>
@@ -26463,7 +26463,7 @@
     <t xml:space="preserve">overflowing</t>
   </si>
   <si>
-    <t xml:space="preserve">아이템이 넘처 흐른다 !</t>
+    <t xml:space="preserve">아이템이 넘쳐 흐른다 !</t>
   </si>
   <si>
     <t xml:space="preserve">Overflowing!</t>
@@ -27390,12 +27390,12 @@
   <dimension ref="A1:F2422"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A1727" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A2358" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1742" activeCellId="0" sqref="A1742"/>
+      <selection pane="bottomLeft" activeCell="D2371" activeCellId="0" sqref="D2371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.29296875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2421875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="16"/>
   </cols>

--- a/_Lang_Korean/Lang/KR/Game/General.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/General.xlsx
@@ -27390,12 +27390,12 @@
   <dimension ref="A1:F2422"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A2358" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A1727" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D2371" activeCellId="0" sqref="D2371"/>
+      <selection pane="bottomLeft" activeCell="D1740" activeCellId="0" sqref="D1740"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2421875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.234375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="16"/>
   </cols>

--- a/_Lang_Korean/Lang/KR/Game/General.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/General.xlsx
@@ -6991,7 +6991,7 @@
     <t xml:space="preserve">extraRace_tip</t>
   </si>
   <si>
-    <t xml:space="preserve">숙련 모험자를 위한 엑스트라 종족과 직업을 선택할 수 있게 됩니다.
+    <t xml:space="preserve">숙련 모험가를 위한 엑스트라 종족과 직업을 선택할 수 있게 됩니다.
 특수한 직업도 많기 때문에, 먼저 초기 종족과 직업으로 모험에 익숙해지는 것을 추천합니다.</t>
   </si>
   <si>
@@ -13477,7 +13477,7 @@
     <t xml:space="preserve">advRanking</t>
   </si>
   <si>
-    <t xml:space="preserve">모험자 랭킹</t>
+    <t xml:space="preserve">모험가 랭킹</t>
   </si>
   <si>
     <t xml:space="preserve">Adventure Ranking</t>
@@ -20968,7 +20968,7 @@
     <t xml:space="preserve">newgame</t>
   </si>
   <si>
-    <t xml:space="preserve">모험자를 작성한다</t>
+    <t xml:space="preserve">모험가를 작성한다</t>
   </si>
   <si>
     <t xml:space="preserve">Create an adventurer</t>
@@ -23893,7 +23893,7 @@
     <t xml:space="preserve">news_news</t>
   </si>
   <si>
-    <t xml:space="preserve">모험자의 풍문</t>
+    <t xml:space="preserve">모험가의 풍문</t>
   </si>
   <si>
     <t xml:space="preserve">Wind's Whisper</t>
@@ -23974,7 +23974,7 @@
     <t xml:space="preserve">news_feedflavor</t>
   </si>
   <si>
-    <t xml:space="preserve">티리스 속보 - 모험자의 비극과 희극</t>
+    <t xml:space="preserve">티리스 속보 - 모험가의 비극과 희극</t>
   </si>
   <si>
     <t xml:space="preserve">Tidings of Adventurers - Tragedies and Triumphs</t>
@@ -24289,7 +24289,7 @@
     <t xml:space="preserve">filteredBacker</t>
   </si>
   <si>
-    <t xml:space="preserve">이름 없는 모험자</t>
+    <t xml:space="preserve">이름 없는 모험가</t>
   </si>
   <si>
     <t xml:space="preserve">a forgotten adventurer</t>
@@ -27390,12 +27390,12 @@
   <dimension ref="A1:F2422"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A1727" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A1735" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D1740" activeCellId="0" sqref="D1740"/>
+      <selection pane="bottomLeft" activeCell="K1751" activeCellId="0" sqref="K1751"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.234375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="16"/>
   </cols>

--- a/_Lang_Korean/Lang/KR/Game/General.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/General.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13836" uniqueCount="9005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13837" uniqueCount="9006">
   <si>
     <t>id</t>
   </si>
@@ -405,7 +405,7 @@
     <t>_written</t>
   </si>
   <si>
-    <t>「#1」라고 적혀진 #2</t>
+    <t>「#1」라고 적힌 #2</t>
   </si>
   <si>
     <t>#2 labelled "#1"</t>
@@ -432,7 +432,7 @@
     <t>Alpha 13.1</t>
   </si>
   <si>
-    <t>#1라고 새겨진 #2</t>
+    <t>#1이(라)고 새겨진 #2</t>
   </si>
   <si>
     <t>#2 engraved #1</t>
@@ -7411,7 +7411,7 @@
     <t>dialog_abandonQuest</t>
   </si>
   <si>
-    <t>정말로 의뢰를 포기할까요 ?</t>
+    <t>정말로 의뢰를 포기할까요?</t>
   </si>
   <si>
     <t>Really abandon this quest?</t>
@@ -7423,7 +7423,7 @@
     <t>dialog_deleteMapPiece</t>
   </si>
   <si>
-    <t>정말로 이 건축도를 지울까요 ?</t>
+    <t>정말로 이 건축도를 지울까요?</t>
   </si>
   <si>
     <t>Really delete this building blueprint?</t>
@@ -7435,7 +7435,7 @@
     <t>dialog_removeGene</t>
   </si>
   <si>
-    <t>정말로 이 유전자를 지울까요 ?</t>
+    <t>정말로 이 유전자를 지울까요?</t>
   </si>
   <si>
     <t>Really remove this gene?</t>
@@ -7456,7 +7456,7 @@
     <t>Beta 22.31</t>
   </si>
   <si>
-    <t>정말로 이 장소를 이전할까요 ?</t>
+    <t>정말로 이 장소를 이전할까요?</t>
   </si>
   <si>
     <t>Really relocate to this location?</t>
@@ -7468,7 +7468,7 @@
     <t>dialog_claimLand</t>
   </si>
   <si>
-    <t>정말로 이 토지의 권리를 획득할까요 ?</t>
+    <t>정말로 이 토지의 권리를 획득할까요?</t>
   </si>
   <si>
     <t>Really claim this land?</t>
@@ -7480,7 +7480,7 @@
     <t>dialog_deleteMap</t>
   </si>
   <si>
-    <t>정말로 이 장소를 지도에서 지울까요 ?</t>
+    <t>정말로 이 장소를 지도에서 지울까요?</t>
   </si>
   <si>
     <t>Really delete this location from the map?</t>
@@ -7492,7 +7492,7 @@
     <t>dialog_gotoTitle</t>
   </si>
   <si>
-    <t>세이브하고 타이틀로 돌아갈까요 ?</t>
+    <t>세이브하고 타이틀로 돌아갈까요?</t>
   </si>
   <si>
     <t>Save the game and go back to title?</t>
@@ -7519,7 +7519,7 @@
     <t>dialog_quit</t>
   </si>
   <si>
-    <t>세이브하고 게임을 종료할까요 ?</t>
+    <t>세이브하고 게임을 종료할까요?</t>
   </si>
   <si>
     <t>Save the game and exit?</t>
@@ -7532,7 +7532,7 @@
   </si>
   <si>
     <t>정말로 피트 포인트를 #1 점 소모해서
-「#2」 을(를) 획득할까요 ?</t>
+「#2」 을(를) 획득할까요?</t>
   </si>
   <si>
     <t>Really spend #1 feat point#(s)
@@ -7546,7 +7546,7 @@
     <t>dialogCancelAct</t>
   </si>
   <si>
-    <t>행동을 중단할까요 ?</t>
+    <t>행동을 중단할까요?</t>
   </si>
   <si>
     <t>Cancel current action?</t>
@@ -7573,7 +7573,7 @@
     <t>dialogDeleteGame</t>
   </si>
   <si>
-    <t xml:space="preserve">정말로 세계를 삭제할까요 ? </t>
+    <t xml:space="preserve">정말로 세계를 삭제할까요? </t>
   </si>
   <si>
     <t>Do you wish to delete the world?</t>
@@ -7586,7 +7586,7 @@
   </si>
   <si>
     <t>정말로 이 이주희망자의
-개인정보를 지울까요 ?</t>
+개인정보를 지울까요?</t>
   </si>
   <si>
     <t>Really remove the personal information
@@ -7639,7 +7639,7 @@
     <t>dialogOffer</t>
   </si>
   <si>
-    <t>정말로 #1 을(를) 바칠까요 ?</t>
+    <t>정말로 #1 을(를) 바칠까요?</t>
   </si>
   <si>
     <t>Really offer #1?</t>
@@ -7651,7 +7651,7 @@
     <t>dialogOpenCredit</t>
   </si>
   <si>
-    <t>Credit.txt를 텍스트 에디터로 열까요 ?</t>
+    <t>Credit.txt를 텍스트 에디터로 열까요?</t>
   </si>
   <si>
     <t>Open credit.txt in text editor?</t>
@@ -7663,7 +7663,7 @@
     <t>dialogResetConfig</t>
   </si>
   <si>
-    <t>모든 설정을 초기 상태로 돌릴까요 ?</t>
+    <t>모든 설정을 초기 상태로 돌릴까요?</t>
   </si>
   <si>
     <t>Do you wish to reset all settings?</t>
@@ -7675,7 +7675,7 @@
     <t>dialogResetConfigTab</t>
   </si>
   <si>
-    <t>#1 설정을 초기 상태로 돌릴까요 ?</t>
+    <t>#1 설정을 초기 상태로 돌릴까요?</t>
   </si>
   <si>
     <t>Do you wish to reset #1 settings?</t>
@@ -7688,7 +7688,7 @@
   </si>
   <si>
     <t>모든 위젯의 위치와 설정을 
-초기상태로 돌릴까요 ?</t>
+초기상태로 돌릴까요?</t>
   </si>
   <si>
     <t>Do you want to reset widgets?</t>
@@ -7702,7 +7702,7 @@
   </si>
   <si>
     <t>모든 위젯의 사이즈와 위치를
-초기상태로 돌릴까요 ?</t>
+초기상태로 돌릴까요?</t>
   </si>
   <si>
     <t>Do you wish to reset sizes and 
@@ -7728,7 +7728,7 @@
     <t>dialogSetHome</t>
   </si>
   <si>
-    <t>이 장소를 홈 존으로 설정할까요 ?</t>
+    <t>이 장소를 홈 존으로 설정할까요?</t>
   </si>
   <si>
     <t>Really set this place as your home zone?</t>
@@ -7740,7 +7740,7 @@
     <t>dialogAbandonHome</t>
   </si>
   <si>
-    <t>정말로 이 토지에 대한 권리를 포기할까요 ?</t>
+    <t>정말로 이 토지에 대한 권리를 포기할까요?</t>
   </si>
   <si>
     <t>Really abandon this land?</t>
@@ -7752,7 +7752,7 @@
     <t>dialogSleep</t>
   </si>
   <si>
-    <t>잘래요 ?</t>
+    <t>잘래요?</t>
   </si>
   <si>
     <t>Sleep?</t>
@@ -7764,7 +7764,7 @@
     <t>dialogWriteNote</t>
   </si>
   <si>
-    <t>무엇을 쓸래요 ?</t>
+    <t>무엇을 쓸래요?</t>
   </si>
   <si>
     <t>Write what?</t>
@@ -7776,7 +7776,7 @@
     <t>dialogLastword</t>
   </si>
   <si>
-    <t>유언은 ?</t>
+    <t>유언은?</t>
   </si>
   <si>
     <t>Your last words.</t>
@@ -7833,7 +7833,7 @@
     <t>warn_crime</t>
   </si>
   <si>
-    <t>정말로 법을 어길래요 ?</t>
+    <t>정말로 법을 어길래요?</t>
   </si>
   <si>
     <t>Really commit a crime?</t>
@@ -7845,7 +7845,7 @@
     <t>warn_mana</t>
   </si>
   <si>
-    <t>정말로 마나 한계를 넘어서 시전할 거에요 ?</t>
+    <t>정말로 마나 한계를 넘어서 시전할 거에요?</t>
   </si>
   <si>
     <t>Really cast a spell over your limit?</t>
@@ -8457,7 +8457,7 @@
     <t>Drama</t>
   </si>
   <si>
-    <t>#1을(를) 알고 있어？ (#2)</t>
+    <t>#1을(를) 알고 있어? (#2)</t>
   </si>
   <si>
     <t>Do you know #1? (#2)</t>
@@ -8475,7 +8475,7 @@
     <t>daNews</t>
   </si>
   <si>
-    <t>귀가 솔깃한 정보는 없어 ?</t>
+    <t>귀가 솔깃한 정보는 없어?</t>
   </si>
   <si>
     <t xml:space="preserve">Any good news to share? </t>
@@ -8763,7 +8763,7 @@
     <t>daBird</t>
   </si>
   <si>
-    <t>새 보러 갈래 ?</t>
+    <t>새 보러 갈래?</t>
   </si>
   <si>
     <t>Interested in watching birds?</t>
@@ -10092,7 +10092,7 @@
     <t>Beta 22.83</t>
   </si>
   <si>
-    <t>어떤 모험을 재개할래 ?</t>
+    <t>어떤 모험을 재개할래?</t>
   </si>
   <si>
     <t>Which journey do you want to continue?</t>
@@ -10362,7 +10362,7 @@
     <t>hint_above</t>
   </si>
   <si>
-    <t>어느 거점으로 이전할래 ?</t>
+    <t>어느 거점으로 이전할래?</t>
   </si>
   <si>
     <t>Relocate which base?</t>
@@ -10374,7 +10374,7 @@
     <t>h_hire</t>
   </si>
   <si>
-    <t>누구랑 얘기할거야 ?</t>
+    <t>누구랑 얘기할거야?</t>
   </si>
   <si>
     <t>Who do you want to interview with?</t>
@@ -10386,7 +10386,7 @@
     <t>h_invBuy</t>
   </si>
   <si>
-    <t>뭐 살래 ?</t>
+    <t>뭐 살래?</t>
   </si>
   <si>
     <t>Buy what?</t>
@@ -10398,7 +10398,7 @@
     <t>h_invIdentify</t>
   </si>
   <si>
-    <t>뭐 감정할래 ?</t>
+    <t>뭐 감정할래?</t>
   </si>
   <si>
     <t>Identify what?</t>
@@ -10434,7 +10434,7 @@
     <t>h_reserve</t>
   </si>
   <si>
-    <t>누구를 불러올까 ?</t>
+    <t>누구를 불러올까?</t>
   </si>
   <si>
     <t>Who do you want to recall?</t>
@@ -10605,7 +10605,7 @@
     <t>home</t>
   </si>
   <si>
-    <t>#ERROR!</t>
+    <t xml:space="preserve"> + #1 / 일</t>
   </si>
   <si>
     <t>+ #1 /day</t>
@@ -20961,7 +20961,7 @@
     <t>nameAuthor</t>
   </si>
   <si>
-    <t>#1・저</t>
+    <t>#1 저</t>
   </si>
   <si>
     <t>By #1</t>
@@ -21072,7 +21072,7 @@
     <t>opIngredient</t>
   </si>
   <si>
-    <t>선택：#1</t>
+    <t>선택: #1</t>
   </si>
   <si>
     <t>Optional: #1</t>
@@ -21084,7 +21084,7 @@
     <t>noIngredient</t>
   </si>
   <si>
-    <t>소재 미소지 :#1</t>
+    <t>소재 미소지: #1</t>
   </si>
   <si>
     <t>No Ingredient: #1</t>
@@ -21108,7 +21108,7 @@
     <t>noItem</t>
   </si>
   <si>
-    <t>특별한건 없음</t>
+    <t>특별한 건 없음</t>
   </si>
   <si>
     <t>Nothing in particular</t>
@@ -21219,7 +21219,7 @@
     <t>pc_revive</t>
   </si>
   <si>
-    <t>기어오르다</t>
+    <t>기어오른다</t>
   </si>
   <si>
     <t>Crawl up</t>
@@ -24579,7 +24579,7 @@
     <t>pref_keepMusic</t>
   </si>
   <si>
-    <t>연주 시에 자동적으로 연주를 계속한다</t>
+    <t>연주 시 자동으로 연주를 계속한다</t>
   </si>
   <si>
     <t>Automatically keep playing instrument while performing</t>
@@ -24603,7 +24603,7 @@
     <t>pref_autoEat</t>
   </si>
   <si>
-    <t>글로벌 맵에서 공복시 자동으로 식사를 한다</t>
+    <t>글로벌 맵에서 공복 시 자동으로 식사를 한다</t>
   </si>
   <si>
     <t xml:space="preserve">Automatically eat when hungry on the global map </t>
@@ -26925,7 +26925,7 @@
     <t>hint_TraitToolWaterCan</t>
   </si>
   <si>
-    <t>그것은 물을 기를 수 있다.</t>
+    <t>그것은 물을 길 수 있다.</t>
   </si>
   <si>
     <t>It can draw water.</t>
@@ -27186,7 +27186,7 @@
     <t>please_buy</t>
   </si>
   <si>
-    <t>Elin 이 재밌다면 사주세요!</t>
+    <t>Elin이 재밌다면 사 주세요!</t>
   </si>
   <si>
     <t>Please purchase if you liked Elin!</t>
@@ -27286,6 +27286,9 @@
   </si>
   <si>
     <t>mb_invalidLV</t>
+  </si>
+  <si>
+    <t>(볼의 레벨 부족)</t>
   </si>
   <si>
     <t>(Insufficient ball level)</t>
@@ -27329,11 +27332,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -27557,7 +27563,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="3" width="16.0"/>
-    <col customWidth="1" min="4" max="4" width="22.29"/>
+    <col customWidth="1" min="4" max="4" width="32.29"/>
     <col customWidth="1" min="5" max="6" width="16.0"/>
   </cols>
   <sheetData>
@@ -27571,7 +27577,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -28293,7 +28299,7 @@
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -28333,7 +28339,7 @@
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -40294,7 +40300,7 @@
       <c r="C641" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D641" s="1" t="s">
+      <c r="D641" s="2" t="s">
         <v>2440</v>
       </c>
       <c r="E641" s="1" t="s">
@@ -40314,7 +40320,7 @@
       <c r="C642" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D642" s="1" t="s">
+      <c r="D642" s="2" t="s">
         <v>2444</v>
       </c>
       <c r="E642" s="1" t="s">
@@ -40334,7 +40340,7 @@
       <c r="C643" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D643" s="1" t="s">
+      <c r="D643" s="2" t="s">
         <v>2448</v>
       </c>
       <c r="E643" s="1" t="s">
@@ -40374,7 +40380,7 @@
       <c r="C645" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D645" s="1" t="s">
+      <c r="D645" s="2" t="s">
         <v>2455</v>
       </c>
       <c r="E645" s="1" t="s">
@@ -40394,7 +40400,7 @@
       <c r="C646" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D646" s="1" t="s">
+      <c r="D646" s="2" t="s">
         <v>2459</v>
       </c>
       <c r="E646" s="1" t="s">
@@ -40414,7 +40420,7 @@
       <c r="C647" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D647" s="1" t="s">
+      <c r="D647" s="2" t="s">
         <v>2463</v>
       </c>
       <c r="E647" s="1" t="s">
@@ -40434,7 +40440,7 @@
       <c r="C648" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D648" s="1" t="s">
+      <c r="D648" s="2" t="s">
         <v>2467</v>
       </c>
       <c r="E648" s="1" t="s">
@@ -40474,7 +40480,7 @@
       <c r="C650" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D650" s="1" t="s">
+      <c r="D650" s="2" t="s">
         <v>2475</v>
       </c>
       <c r="E650" s="1" t="s">
@@ -40494,7 +40500,7 @@
       <c r="C651" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D651" s="1" t="s">
+      <c r="D651" s="2" t="s">
         <v>2479</v>
       </c>
       <c r="E651" s="1" t="s">
@@ -40514,7 +40520,7 @@
       <c r="C652" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D652" s="1" t="s">
+      <c r="D652" s="2" t="s">
         <v>2483</v>
       </c>
       <c r="E652" s="1" t="s">
@@ -40554,7 +40560,7 @@
       <c r="C654" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D654" s="1" t="s">
+      <c r="D654" s="2" t="s">
         <v>2491</v>
       </c>
       <c r="E654" s="1" t="s">
@@ -40574,7 +40580,7 @@
       <c r="C655" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D655" s="1" t="s">
+      <c r="D655" s="2" t="s">
         <v>2495</v>
       </c>
       <c r="E655" s="1" t="s">
@@ -40654,7 +40660,7 @@
       <c r="C659" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D659" s="1" t="s">
+      <c r="D659" s="2" t="s">
         <v>2512</v>
       </c>
       <c r="E659" s="1" t="s">
@@ -40674,7 +40680,7 @@
       <c r="C660" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D660" s="1" t="s">
+      <c r="D660" s="2" t="s">
         <v>2516</v>
       </c>
       <c r="E660" s="1" t="s">
@@ -40694,7 +40700,7 @@
       <c r="C661" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D661" s="1" t="s">
+      <c r="D661" s="2" t="s">
         <v>2520</v>
       </c>
       <c r="E661" s="1" t="s">
@@ -40714,7 +40720,7 @@
       <c r="C662" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D662" s="1" t="s">
+      <c r="D662" s="2" t="s">
         <v>2524</v>
       </c>
       <c r="E662" s="1" t="s">
@@ -40734,7 +40740,7 @@
       <c r="C663" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D663" s="1" t="s">
+      <c r="D663" s="2" t="s">
         <v>2528</v>
       </c>
       <c r="E663" s="1" t="s">
@@ -40754,7 +40760,7 @@
       <c r="C664" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D664" s="1" t="s">
+      <c r="D664" s="2" t="s">
         <v>2532</v>
       </c>
       <c r="E664" s="1" t="s">
@@ -40794,7 +40800,7 @@
       <c r="C666" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D666" s="1" t="s">
+      <c r="D666" s="2" t="s">
         <v>2540</v>
       </c>
       <c r="E666" s="1" t="s">
@@ -40814,7 +40820,7 @@
       <c r="C667" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D667" s="1" t="s">
+      <c r="D667" s="2" t="s">
         <v>2544</v>
       </c>
       <c r="E667" s="1" t="s">
@@ -40834,7 +40840,7 @@
       <c r="C668" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D668" s="1" t="s">
+      <c r="D668" s="2" t="s">
         <v>2548</v>
       </c>
       <c r="E668" s="1" t="s">
@@ -40854,7 +40860,7 @@
       <c r="C669" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D669" s="1" t="s">
+      <c r="D669" s="2" t="s">
         <v>2552</v>
       </c>
       <c r="E669" s="1" t="s">
@@ -40874,7 +40880,7 @@
       <c r="C670" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D670" s="1" t="s">
+      <c r="D670" s="2" t="s">
         <v>2556</v>
       </c>
       <c r="E670" s="1" t="s">
@@ -40974,7 +40980,7 @@
       <c r="C675" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D675" s="1" t="s">
+      <c r="D675" s="2" t="s">
         <v>2575</v>
       </c>
       <c r="E675" s="1" t="s">
@@ -40994,7 +41000,7 @@
       <c r="C676" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D676" s="1" t="s">
+      <c r="D676" s="2" t="s">
         <v>2579</v>
       </c>
       <c r="E676" s="1" t="s">
@@ -41974,7 +41980,7 @@
       <c r="C725" s="1" t="s">
         <v>2782</v>
       </c>
-      <c r="D725" s="1" t="s">
+      <c r="D725" s="2" t="s">
         <v>2783</v>
       </c>
       <c r="E725" s="1" t="s">
@@ -42014,7 +42020,7 @@
       <c r="C727" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="D727" s="1" t="s">
+      <c r="D727" s="2" t="s">
         <v>2789</v>
       </c>
       <c r="E727" s="1" t="s">
@@ -42494,7 +42500,7 @@
       <c r="C751" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="D751" s="1" t="s">
+      <c r="D751" s="2" t="s">
         <v>2885</v>
       </c>
       <c r="E751" s="1" t="s">
@@ -44754,7 +44760,7 @@
       <c r="C864" s="1" t="s">
         <v>3318</v>
       </c>
-      <c r="D864" s="1" t="s">
+      <c r="D864" s="2" t="s">
         <v>3328</v>
       </c>
       <c r="E864" s="1" t="s">
@@ -45134,7 +45140,7 @@
       <c r="C883" s="1" t="s">
         <v>3404</v>
       </c>
-      <c r="D883" s="1" t="s">
+      <c r="D883" s="2" t="s">
         <v>3405</v>
       </c>
       <c r="E883" s="1" t="s">
@@ -45154,7 +45160,7 @@
       <c r="C884" s="1" t="s">
         <v>3404</v>
       </c>
-      <c r="D884" s="1" t="s">
+      <c r="D884" s="2" t="s">
         <v>3409</v>
       </c>
       <c r="E884" s="1" t="s">
@@ -45174,7 +45180,7 @@
       <c r="C885" s="1" t="s">
         <v>3404</v>
       </c>
-      <c r="D885" s="1" t="s">
+      <c r="D885" s="2" t="s">
         <v>3413</v>
       </c>
       <c r="E885" s="1" t="s">
@@ -45194,7 +45200,7 @@
       <c r="C886" s="1" t="s">
         <v>3404</v>
       </c>
-      <c r="D886" s="1" t="s">
+      <c r="D886" s="2" t="s">
         <v>3417</v>
       </c>
       <c r="E886" s="1" t="s">
@@ -45254,7 +45260,7 @@
       <c r="C889" s="1" t="s">
         <v>3404</v>
       </c>
-      <c r="D889" s="1" t="s">
+      <c r="D889" s="2" t="s">
         <v>3429</v>
       </c>
       <c r="E889" s="1" t="s">
@@ -45294,7 +45300,7 @@
       <c r="C891" s="1" t="s">
         <v>3404</v>
       </c>
-      <c r="D891" s="1" t="s">
+      <c r="D891" s="2" t="s">
         <v>3429</v>
       </c>
       <c r="E891" s="1" t="s">
@@ -45594,7 +45600,7 @@
       <c r="C906" s="1" t="s">
         <v>3485</v>
       </c>
-      <c r="D906" s="1" t="s">
+      <c r="D906" s="2" t="s">
         <v>3486</v>
       </c>
       <c r="E906" s="1" t="s">
@@ -63867,7 +63873,7 @@
       <c r="B1860" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1860" s="1" t="s">
+      <c r="D1860" s="2" t="s">
         <v>6926</v>
       </c>
       <c r="E1860" s="1" t="s">
@@ -64037,7 +64043,7 @@
       <c r="B1870" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1870" s="1" t="s">
+      <c r="D1870" s="2" t="s">
         <v>6963</v>
       </c>
       <c r="E1870" s="1" t="s">
@@ -64054,7 +64060,7 @@
       <c r="B1871" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1871" s="1" t="s">
+      <c r="D1871" s="2" t="s">
         <v>6967</v>
       </c>
       <c r="E1871" s="1" t="s">
@@ -64088,7 +64094,7 @@
       <c r="B1873" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1873" s="1" t="s">
+      <c r="D1873" s="2" t="s">
         <v>6975</v>
       </c>
       <c r="E1873" s="1" t="s">
@@ -64275,7 +64281,7 @@
       <c r="B1884" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1884" s="1" t="s">
+      <c r="D1884" s="2" t="s">
         <v>7012</v>
       </c>
       <c r="E1884" s="1" t="s">
@@ -69805,7 +69811,7 @@
       <c r="B2192" s="1" t="s">
         <v>4510</v>
       </c>
-      <c r="D2192" s="1" t="s">
+      <c r="D2192" s="2" t="s">
         <v>8113</v>
       </c>
       <c r="E2192" s="1" t="s">
@@ -69822,7 +69828,7 @@
       <c r="B2193" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="D2193" s="1" t="s">
+      <c r="D2193" s="2" t="s">
         <v>8117</v>
       </c>
       <c r="E2193" s="1" t="s">
@@ -69839,7 +69845,7 @@
       <c r="B2194" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D2194" s="1" t="s">
+      <c r="D2194" s="2" t="s">
         <v>8121</v>
       </c>
       <c r="E2194" s="1" t="s">
@@ -73360,7 +73366,7 @@
       <c r="B2393" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="D2393" s="1" t="s">
+      <c r="D2393" s="2" t="s">
         <v>8883</v>
       </c>
       <c r="E2393" s="1" t="s">
@@ -73411,7 +73417,7 @@
       <c r="B2396" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="D2396" s="1" t="s">
+      <c r="D2396" s="2" t="s">
         <v>8883</v>
       </c>
       <c r="E2396" s="1" t="s">
@@ -73751,7 +73757,7 @@
       <c r="B2416" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D2416" s="1" t="s">
+      <c r="D2416" s="2" t="s">
         <v>8970</v>
       </c>
       <c r="E2416" s="1" t="s">
@@ -73910,11 +73916,14 @@
       <c r="B2425" s="1" t="s">
         <v>1309</v>
       </c>
+      <c r="D2425" s="3" t="s">
+        <v>9003</v>
+      </c>
       <c r="E2425" s="1" t="s">
-        <v>9003</v>
+        <v>9004</v>
       </c>
       <c r="F2425" s="1" t="s">
-        <v>9004</v>
+        <v>9005</v>
       </c>
     </row>
   </sheetData>
